--- a/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9597085676740973</v>
+        <v>0.959708567674097</v>
       </c>
       <c r="D2">
-        <v>1.02457460580201</v>
+        <v>1.024574605802009</v>
       </c>
       <c r="E2">
-        <v>0.9732550631958086</v>
+        <v>0.9732550631958082</v>
       </c>
       <c r="F2">
-        <v>0.9817591259451007</v>
+        <v>0.9817591259451003</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.044568537618453</v>
       </c>
       <c r="J2">
-        <v>0.9831650019373903</v>
+        <v>0.98316500193739</v>
       </c>
       <c r="K2">
-        <v>1.035701873016671</v>
+        <v>1.03570187301667</v>
       </c>
       <c r="L2">
-        <v>0.9851000152848469</v>
+        <v>0.9851000152848465</v>
       </c>
       <c r="M2">
-        <v>0.9934785736010071</v>
+        <v>0.9934785736010069</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9696786071878998</v>
+        <v>0.9696786071878993</v>
       </c>
       <c r="D3">
-        <v>1.029522323166481</v>
+        <v>1.029522323166479</v>
       </c>
       <c r="E3">
-        <v>0.9816699385363316</v>
+        <v>0.9816699385363308</v>
       </c>
       <c r="F3">
-        <v>0.9908848762141184</v>
+        <v>0.990884876214117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047091035251748</v>
+        <v>1.047091035251747</v>
       </c>
       <c r="J3">
-        <v>0.9910314372968653</v>
+        <v>0.9910314372968646</v>
       </c>
       <c r="K3">
-        <v>1.039790897013714</v>
+        <v>1.039790897013713</v>
       </c>
       <c r="L3">
-        <v>0.9925428558276808</v>
+        <v>0.99254285582768</v>
       </c>
       <c r="M3">
-        <v>1.001635730806659</v>
+        <v>1.001635730806658</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,31 +497,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9758724423717047</v>
+        <v>0.9758724423717052</v>
       </c>
       <c r="D4">
         <v>1.032601904165773</v>
       </c>
       <c r="E4">
-        <v>0.9869062317133473</v>
+        <v>0.986906231713348</v>
       </c>
       <c r="F4">
-        <v>0.9965630474294555</v>
+        <v>0.9965630474294558</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04864073145765</v>
+        <v>1.048640731457651</v>
       </c>
       <c r="J4">
-        <v>0.9959141394429022</v>
+        <v>0.9959141394429026</v>
       </c>
       <c r="K4">
         <v>1.042322153086503</v>
       </c>
       <c r="L4">
-        <v>0.9971652988100138</v>
+        <v>0.9971652988100141</v>
       </c>
       <c r="M4">
         <v>1.006703131205092</v>
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9784193328714945</v>
+        <v>0.9784193328714941</v>
       </c>
       <c r="D5">
         <v>1.033869113482881</v>
       </c>
       <c r="E5">
-        <v>0.9890612564192781</v>
+        <v>0.9890612564192778</v>
       </c>
       <c r="F5">
-        <v>0.9988997361738321</v>
+        <v>0.9988997361738318</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049273553660817</v>
+        <v>1.049273553660818</v>
       </c>
       <c r="J5">
-        <v>0.9979207397063116</v>
+        <v>0.9979207397063113</v>
       </c>
       <c r="K5">
         <v>1.04336045914008</v>
       </c>
       <c r="L5">
-        <v>0.9990655549363955</v>
+        <v>0.9990655549363949</v>
       </c>
       <c r="M5">
         <v>1.008786524493489</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9788437491777817</v>
+        <v>0.9788437491777828</v>
       </c>
       <c r="D6">
         <v>1.034080321073739</v>
       </c>
       <c r="E6">
-        <v>0.9894204769318696</v>
+        <v>0.989420476931871</v>
       </c>
       <c r="F6">
-        <v>0.9992892246877322</v>
+        <v>0.9992892246877333</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.04937874178419</v>
       </c>
       <c r="J6">
-        <v>0.9982550500354544</v>
+        <v>0.9982550500354556</v>
       </c>
       <c r="K6">
         <v>1.04353332367929</v>
       </c>
       <c r="L6">
-        <v>0.9993821830551248</v>
+        <v>0.9993821830551259</v>
       </c>
       <c r="M6">
-        <v>1.009133677747106</v>
+        <v>1.009133677747107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9759066922932124</v>
+        <v>0.9759066922932131</v>
       </c>
       <c r="D7">
-        <v>1.032618942365608</v>
+        <v>1.032618942365609</v>
       </c>
       <c r="E7">
-        <v>0.9869352047313102</v>
+        <v>0.986935204731311</v>
       </c>
       <c r="F7">
-        <v>0.9965944636771396</v>
+        <v>0.9965944636771402</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>1.048649259273809</v>
       </c>
       <c r="J7">
-        <v>0.9959411284251909</v>
+        <v>0.9959411284251917</v>
       </c>
       <c r="K7">
-        <v>1.042336126505208</v>
+        <v>1.042336126505209</v>
       </c>
       <c r="L7">
-        <v>0.9971908550576594</v>
+        <v>0.9971908550576603</v>
       </c>
       <c r="M7">
         <v>1.00673114969604</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9631342704786832</v>
+        <v>0.9631342704786824</v>
       </c>
       <c r="D8">
         <v>1.026273068599814</v>
       </c>
       <c r="E8">
-        <v>0.9761444602285275</v>
+        <v>0.9761444602285263</v>
       </c>
       <c r="F8">
-        <v>0.9848926637293987</v>
+        <v>0.9848926637293981</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.045438811636423</v>
       </c>
       <c r="J8">
-        <v>0.9858687326172649</v>
+        <v>0.9858687326172638</v>
       </c>
       <c r="K8">
         <v>1.037108536885655</v>
       </c>
       <c r="L8">
-        <v>0.9876575689623943</v>
+        <v>0.9876575689623931</v>
       </c>
       <c r="M8">
-        <v>0.9962812382500603</v>
+        <v>0.9962812382500597</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9384122258799986</v>
+        <v>0.9384122258799995</v>
       </c>
       <c r="D9">
-        <v>1.014066463459369</v>
+        <v>1.014066463459368</v>
       </c>
       <c r="E9">
-        <v>0.9553402497575862</v>
+        <v>0.9553402497575868</v>
       </c>
       <c r="F9">
-        <v>0.9623324126389683</v>
+        <v>0.9623324126389685</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.039092783472146</v>
       </c>
       <c r="J9">
-        <v>0.9663443483597791</v>
+        <v>0.9663443483597797</v>
       </c>
       <c r="K9">
-        <v>1.026935371332702</v>
+        <v>1.026935371332701</v>
       </c>
       <c r="L9">
-        <v>0.9692019899894532</v>
+        <v>0.9692019899894536</v>
       </c>
       <c r="M9">
-        <v>0.9760676884717505</v>
+        <v>0.9760676884717507</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9200289284665508</v>
+        <v>0.9200289284665513</v>
       </c>
       <c r="D10">
         <v>1.005088808860761</v>
       </c>
       <c r="E10">
-        <v>0.9399452599561094</v>
+        <v>0.9399452599561096</v>
       </c>
       <c r="F10">
-        <v>0.94564578716749</v>
+        <v>0.9456457871674903</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.034303900752159</v>
       </c>
       <c r="J10">
-        <v>0.9518186399894639</v>
+        <v>0.9518186399894643</v>
       </c>
       <c r="K10">
         <v>1.019366787161604</v>
       </c>
       <c r="L10">
-        <v>0.9554906338574751</v>
+        <v>0.9554906338574753</v>
       </c>
       <c r="M10">
-        <v>0.9610710357524939</v>
+        <v>0.9610710357524941</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9114974380415609</v>
+        <v>0.911497438041561</v>
       </c>
       <c r="D11">
         <v>1.000958927324577</v>
       </c>
       <c r="E11">
-        <v>0.9328237760766501</v>
+        <v>0.9328237760766502</v>
       </c>
       <c r="F11">
-        <v>0.9379308479857559</v>
+        <v>0.9379308479857557</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>1.032070540410173</v>
       </c>
       <c r="J11">
-        <v>0.9450791729454858</v>
+        <v>0.9450791729454857</v>
       </c>
       <c r="K11">
         <v>1.015862782310248</v>
@@ -790,7 +790,7 @@
         <v>0.9491343847683794</v>
       </c>
       <c r="M11">
-        <v>0.9541265711385674</v>
+        <v>0.9541265711385671</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,13 +801,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9082295269999453</v>
+        <v>0.9082295269999455</v>
       </c>
       <c r="D12">
-        <v>0.9993838393741106</v>
+        <v>0.9993838393741108</v>
       </c>
       <c r="E12">
-        <v>0.930099998273342</v>
+        <v>0.9300999982733418</v>
       </c>
       <c r="F12">
         <v>0.9349809288390458</v>
@@ -819,13 +819,13 @@
         <v>1.031214032435449</v>
       </c>
       <c r="J12">
-        <v>0.942498319916525</v>
+        <v>0.9424983199165251</v>
       </c>
       <c r="K12">
         <v>1.014522853577194</v>
       </c>
       <c r="L12">
-        <v>0.9467011796176292</v>
+        <v>0.9467011796176291</v>
       </c>
       <c r="M12">
         <v>0.9514696209716493</v>
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.908935224889768</v>
+        <v>0.908935224889767</v>
       </c>
       <c r="D13">
-        <v>0.9997236446174502</v>
+        <v>0.9997236446174506</v>
       </c>
       <c r="E13">
-        <v>0.9306879995050025</v>
+        <v>0.9306879995050015</v>
       </c>
       <c r="F13">
         <v>0.9356177067095277</v>
@@ -857,16 +857,16 @@
         <v>1.031399029476321</v>
       </c>
       <c r="J13">
-        <v>0.9430556135540366</v>
+        <v>0.943055613554036</v>
       </c>
       <c r="K13">
         <v>1.014812089361049</v>
       </c>
       <c r="L13">
-        <v>0.9472265491238442</v>
+        <v>0.9472265491238434</v>
       </c>
       <c r="M13">
-        <v>0.9520432313328742</v>
+        <v>0.9520432313328741</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9112294160864443</v>
+        <v>0.9112294160864433</v>
       </c>
       <c r="D14">
-        <v>1.000829598112889</v>
+        <v>1.000829598112888</v>
       </c>
       <c r="E14">
-        <v>0.932600296644455</v>
+        <v>0.9326002966444541</v>
       </c>
       <c r="F14">
-        <v>0.9376887957237308</v>
+        <v>0.9376887957237294</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.032000309993256</v>
       </c>
       <c r="J14">
-        <v>0.9448674856040679</v>
+        <v>0.9448674856040669</v>
       </c>
       <c r="K14">
-        <v>1.015752834715448</v>
+        <v>1.015752834715447</v>
       </c>
       <c r="L14">
-        <v>0.9489347891767105</v>
+        <v>0.9489347891767095</v>
       </c>
       <c r="M14">
-        <v>0.9539085911204737</v>
+        <v>0.9539085911204727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9126293912310339</v>
+        <v>0.9126293912310351</v>
       </c>
       <c r="D15">
-        <v>1.001505415661475</v>
+        <v>1.001505415661476</v>
       </c>
       <c r="E15">
-        <v>0.9337677772546822</v>
+        <v>0.9337677772546835</v>
       </c>
       <c r="F15">
-        <v>0.9389533382713579</v>
+        <v>0.9389533382713592</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032367110518523</v>
       </c>
       <c r="J15">
-        <v>0.9459732330618036</v>
+        <v>0.9459732330618046</v>
       </c>
       <c r="K15">
-        <v>1.016327227717497</v>
+        <v>1.016327227717498</v>
       </c>
       <c r="L15">
-        <v>0.9499774122556711</v>
+        <v>0.9499774122556721</v>
       </c>
       <c r="M15">
-        <v>0.9550473080545012</v>
+        <v>0.9550473080545027</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -959,10 +959,10 @@
         <v>1.005357412287178</v>
       </c>
       <c r="E16">
-        <v>0.9404074801450513</v>
+        <v>0.9404074801450515</v>
       </c>
       <c r="F16">
-        <v>0.9461466266432113</v>
+        <v>0.946146626643211</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0.9559029025677278</v>
       </c>
       <c r="M16">
-        <v>0.9615216346088958</v>
+        <v>0.9615216346088956</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9254091772665539</v>
+        <v>0.9254091772665533</v>
       </c>
       <c r="D17">
         <v>1.007705760429009</v>
@@ -1000,7 +1000,7 @@
         <v>0.9444439860033919</v>
       </c>
       <c r="F17">
-        <v>0.9505208617174264</v>
+        <v>0.9505208617174263</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.035709473659758</v>
       </c>
       <c r="J17">
-        <v>0.9560696469425717</v>
+        <v>0.9560696469425713</v>
       </c>
       <c r="K17">
         <v>1.021580015404555</v>
       </c>
       <c r="L17">
-        <v>0.9595016677264168</v>
+        <v>0.9595016677264167</v>
       </c>
       <c r="M17">
-        <v>0.9654558659003577</v>
+        <v>0.9654558659003576</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281706491215491</v>
+        <v>0.9281706491215503</v>
       </c>
       <c r="D18">
         <v>1.00905247249897</v>
       </c>
       <c r="E18">
-        <v>0.9467552634734335</v>
+        <v>0.9467552634734343</v>
       </c>
       <c r="F18">
-        <v>0.9530258778031271</v>
+        <v>0.9530258778031276</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.036429781801766</v>
       </c>
       <c r="J18">
-        <v>0.9582516720903599</v>
+        <v>0.9582516720903607</v>
       </c>
       <c r="K18">
         <v>1.022716756792173</v>
       </c>
       <c r="L18">
-        <v>0.9615610432061548</v>
+        <v>0.9615610432061555</v>
       </c>
       <c r="M18">
-        <v>0.9677078948283865</v>
+        <v>0.9677078948283869</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9291034133230776</v>
+        <v>0.9291034133230771</v>
       </c>
       <c r="D19">
-        <v>1.009507884267929</v>
+        <v>1.009507884267928</v>
       </c>
       <c r="E19">
-        <v>0.9475363038966438</v>
+        <v>0.9475363038966432</v>
       </c>
       <c r="F19">
-        <v>0.9538724420294712</v>
+        <v>0.9538724420294704</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036672892127722</v>
+        <v>1.036672892127721</v>
       </c>
       <c r="J19">
-        <v>0.9589887252128795</v>
+        <v>0.9589887252128789</v>
       </c>
       <c r="K19">
-        <v>1.023100818788715</v>
+        <v>1.023100818788714</v>
       </c>
       <c r="L19">
-        <v>0.9622567484076857</v>
+        <v>0.962256748407685</v>
       </c>
       <c r="M19">
-        <v>0.9684687916348622</v>
+        <v>0.9684687916348615</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9248969542305123</v>
+        <v>0.9248969542305125</v>
       </c>
       <c r="D20">
         <v>1.007456218465322</v>
       </c>
       <c r="E20">
-        <v>0.9440154364209543</v>
+        <v>0.9440154364209544</v>
       </c>
       <c r="F20">
-        <v>0.9500564172768797</v>
+        <v>0.9500564172768802</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.035575775143232</v>
       </c>
       <c r="J20">
-        <v>0.9556649136018822</v>
+        <v>0.9556649136018823</v>
       </c>
       <c r="K20">
         <v>1.021369214194705</v>
       </c>
       <c r="L20">
-        <v>0.9591197235065725</v>
+        <v>0.9591197235065727</v>
       </c>
       <c r="M20">
-        <v>0.9650382448478864</v>
+        <v>0.9650382448478867</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9105566851104824</v>
+        <v>0.9105566851104817</v>
       </c>
       <c r="D21">
-        <v>1.000505098148035</v>
+        <v>1.000505098148034</v>
       </c>
       <c r="E21">
-        <v>0.932039433626931</v>
+        <v>0.9320394336269301</v>
       </c>
       <c r="F21">
-        <v>0.9370813350922069</v>
+        <v>0.9370813350922066</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031824018284848</v>
       </c>
       <c r="J21">
-        <v>0.9443361653019139</v>
+        <v>0.9443361653019133</v>
       </c>
       <c r="K21">
         <v>1.015476907604859</v>
       </c>
       <c r="L21">
-        <v>0.948433833004842</v>
+        <v>0.9484338330048411</v>
       </c>
       <c r="M21">
-        <v>0.9533615166237112</v>
+        <v>0.9533615166237107</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,13 +1184,13 @@
         <v>0.9009591189276814</v>
       </c>
       <c r="D22">
-        <v>0.9958939791475726</v>
+        <v>0.9958939791475724</v>
       </c>
       <c r="E22">
-        <v>0.9240484073047396</v>
+        <v>0.9240484073047391</v>
       </c>
       <c r="F22">
-        <v>0.9284287692559638</v>
+        <v>0.9284287692559633</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.02930732168405</v>
       </c>
       <c r="J22">
-        <v>0.9367581487753402</v>
+        <v>0.9367581487753401</v>
       </c>
       <c r="K22">
         <v>1.011547218325421</v>
       </c>
       <c r="L22">
-        <v>0.9412911740092875</v>
+        <v>0.9412911740092872</v>
       </c>
       <c r="M22">
-        <v>0.9455651548512771</v>
+        <v>0.9455651548512763</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9061072704313263</v>
+        <v>0.9061072704313251</v>
       </c>
       <c r="D23">
-        <v>0.9983630553708012</v>
+        <v>0.9983630553708007</v>
       </c>
       <c r="E23">
-        <v>0.9283323356813473</v>
+        <v>0.9283323356813463</v>
       </c>
       <c r="F23">
-        <v>0.9330667768493274</v>
+        <v>0.9330667768493264</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030657587709048</v>
+        <v>1.030657587709047</v>
       </c>
       <c r="J23">
-        <v>0.940822489123597</v>
+        <v>0.9408224891235962</v>
       </c>
       <c r="K23">
-        <v>1.013653445165357</v>
+        <v>1.013653445165356</v>
       </c>
       <c r="L23">
-        <v>0.9451214866569801</v>
+        <v>0.9451214866569793</v>
       </c>
       <c r="M23">
-        <v>0.9497451107032856</v>
+        <v>0.9497451107032846</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9251285720378913</v>
+        <v>0.9251285720378919</v>
       </c>
       <c r="D24">
-        <v>1.007569046596495</v>
+        <v>1.007569046596496</v>
       </c>
       <c r="E24">
-        <v>0.9442092121275023</v>
+        <v>0.9442092121275028</v>
       </c>
       <c r="F24">
-        <v>0.9502664223356454</v>
+        <v>0.950266422335646</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.035636234459426</v>
       </c>
       <c r="J24">
-        <v>0.9558479261567464</v>
+        <v>0.9558479261567465</v>
       </c>
       <c r="K24">
         <v>1.02146453245083</v>
       </c>
       <c r="L24">
-        <v>0.9592924297376183</v>
+        <v>0.9592924297376189</v>
       </c>
       <c r="M24">
-        <v>0.9652270811946109</v>
+        <v>0.9652270811946116</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9451040138031052</v>
+        <v>0.945104013803106</v>
       </c>
       <c r="D25">
         <v>1.017357599395215</v>
       </c>
       <c r="E25">
-        <v>0.9609604786222237</v>
+        <v>0.9609604786222249</v>
       </c>
       <c r="F25">
-        <v>0.9684263161260872</v>
+        <v>0.9684263161260881</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04082382449886</v>
+        <v>1.040823824498861</v>
       </c>
       <c r="J25">
-        <v>0.9716314203667439</v>
+        <v>0.9716314203667448</v>
       </c>
       <c r="K25">
         <v>1.029692306720742</v>
       </c>
       <c r="L25">
-        <v>0.9741966556536068</v>
+        <v>0.9741966556536079</v>
       </c>
       <c r="M25">
-        <v>0.9815353804809059</v>
+        <v>0.9815353804809067</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.959708567674097</v>
+        <v>0.9597085676740973</v>
       </c>
       <c r="D2">
-        <v>1.024574605802009</v>
+        <v>1.02457460580201</v>
       </c>
       <c r="E2">
-        <v>0.9732550631958082</v>
+        <v>0.9732550631958086</v>
       </c>
       <c r="F2">
-        <v>0.9817591259451003</v>
+        <v>0.9817591259451007</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.044568537618453</v>
       </c>
       <c r="J2">
-        <v>0.98316500193739</v>
+        <v>0.9831650019373903</v>
       </c>
       <c r="K2">
-        <v>1.03570187301667</v>
+        <v>1.035701873016671</v>
       </c>
       <c r="L2">
-        <v>0.9851000152848465</v>
+        <v>0.9851000152848469</v>
       </c>
       <c r="M2">
-        <v>0.9934785736010069</v>
+        <v>0.9934785736010071</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9696786071878993</v>
+        <v>0.9696786071878998</v>
       </c>
       <c r="D3">
-        <v>1.029522323166479</v>
+        <v>1.029522323166481</v>
       </c>
       <c r="E3">
-        <v>0.9816699385363308</v>
+        <v>0.9816699385363316</v>
       </c>
       <c r="F3">
-        <v>0.990884876214117</v>
+        <v>0.9908848762141184</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047091035251747</v>
+        <v>1.047091035251748</v>
       </c>
       <c r="J3">
-        <v>0.9910314372968646</v>
+        <v>0.9910314372968653</v>
       </c>
       <c r="K3">
-        <v>1.039790897013713</v>
+        <v>1.039790897013714</v>
       </c>
       <c r="L3">
-        <v>0.99254285582768</v>
+        <v>0.9925428558276808</v>
       </c>
       <c r="M3">
-        <v>1.001635730806658</v>
+        <v>1.001635730806659</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,31 +497,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9758724423717052</v>
+        <v>0.9758724423717047</v>
       </c>
       <c r="D4">
         <v>1.032601904165773</v>
       </c>
       <c r="E4">
-        <v>0.986906231713348</v>
+        <v>0.9869062317133473</v>
       </c>
       <c r="F4">
-        <v>0.9965630474294558</v>
+        <v>0.9965630474294555</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048640731457651</v>
+        <v>1.04864073145765</v>
       </c>
       <c r="J4">
-        <v>0.9959141394429026</v>
+        <v>0.9959141394429022</v>
       </c>
       <c r="K4">
         <v>1.042322153086503</v>
       </c>
       <c r="L4">
-        <v>0.9971652988100141</v>
+        <v>0.9971652988100138</v>
       </c>
       <c r="M4">
         <v>1.006703131205092</v>
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9784193328714941</v>
+        <v>0.9784193328714945</v>
       </c>
       <c r="D5">
         <v>1.033869113482881</v>
       </c>
       <c r="E5">
-        <v>0.9890612564192778</v>
+        <v>0.9890612564192781</v>
       </c>
       <c r="F5">
-        <v>0.9988997361738318</v>
+        <v>0.9988997361738321</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049273553660818</v>
+        <v>1.049273553660817</v>
       </c>
       <c r="J5">
-        <v>0.9979207397063113</v>
+        <v>0.9979207397063116</v>
       </c>
       <c r="K5">
         <v>1.04336045914008</v>
       </c>
       <c r="L5">
-        <v>0.9990655549363949</v>
+        <v>0.9990655549363955</v>
       </c>
       <c r="M5">
         <v>1.008786524493489</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9788437491777828</v>
+        <v>0.9788437491777817</v>
       </c>
       <c r="D6">
         <v>1.034080321073739</v>
       </c>
       <c r="E6">
-        <v>0.989420476931871</v>
+        <v>0.9894204769318696</v>
       </c>
       <c r="F6">
-        <v>0.9992892246877333</v>
+        <v>0.9992892246877322</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.04937874178419</v>
       </c>
       <c r="J6">
-        <v>0.9982550500354556</v>
+        <v>0.9982550500354544</v>
       </c>
       <c r="K6">
         <v>1.04353332367929</v>
       </c>
       <c r="L6">
-        <v>0.9993821830551259</v>
+        <v>0.9993821830551248</v>
       </c>
       <c r="M6">
-        <v>1.009133677747107</v>
+        <v>1.009133677747106</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9759066922932131</v>
+        <v>0.9759066922932124</v>
       </c>
       <c r="D7">
-        <v>1.032618942365609</v>
+        <v>1.032618942365608</v>
       </c>
       <c r="E7">
-        <v>0.986935204731311</v>
+        <v>0.9869352047313102</v>
       </c>
       <c r="F7">
-        <v>0.9965944636771402</v>
+        <v>0.9965944636771396</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>1.048649259273809</v>
       </c>
       <c r="J7">
-        <v>0.9959411284251917</v>
+        <v>0.9959411284251909</v>
       </c>
       <c r="K7">
-        <v>1.042336126505209</v>
+        <v>1.042336126505208</v>
       </c>
       <c r="L7">
-        <v>0.9971908550576603</v>
+        <v>0.9971908550576594</v>
       </c>
       <c r="M7">
         <v>1.00673114969604</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9631342704786824</v>
+        <v>0.9631342704786832</v>
       </c>
       <c r="D8">
         <v>1.026273068599814</v>
       </c>
       <c r="E8">
-        <v>0.9761444602285263</v>
+        <v>0.9761444602285275</v>
       </c>
       <c r="F8">
-        <v>0.9848926637293981</v>
+        <v>0.9848926637293987</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.045438811636423</v>
       </c>
       <c r="J8">
-        <v>0.9858687326172638</v>
+        <v>0.9858687326172649</v>
       </c>
       <c r="K8">
         <v>1.037108536885655</v>
       </c>
       <c r="L8">
-        <v>0.9876575689623931</v>
+        <v>0.9876575689623943</v>
       </c>
       <c r="M8">
-        <v>0.9962812382500597</v>
+        <v>0.9962812382500603</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9384122258799995</v>
+        <v>0.9384122258799986</v>
       </c>
       <c r="D9">
-        <v>1.014066463459368</v>
+        <v>1.014066463459369</v>
       </c>
       <c r="E9">
-        <v>0.9553402497575868</v>
+        <v>0.9553402497575862</v>
       </c>
       <c r="F9">
-        <v>0.9623324126389685</v>
+        <v>0.9623324126389683</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.039092783472146</v>
       </c>
       <c r="J9">
-        <v>0.9663443483597797</v>
+        <v>0.9663443483597791</v>
       </c>
       <c r="K9">
-        <v>1.026935371332701</v>
+        <v>1.026935371332702</v>
       </c>
       <c r="L9">
-        <v>0.9692019899894536</v>
+        <v>0.9692019899894532</v>
       </c>
       <c r="M9">
-        <v>0.9760676884717507</v>
+        <v>0.9760676884717505</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9200289284665513</v>
+        <v>0.9200289284665508</v>
       </c>
       <c r="D10">
         <v>1.005088808860761</v>
       </c>
       <c r="E10">
-        <v>0.9399452599561096</v>
+        <v>0.9399452599561094</v>
       </c>
       <c r="F10">
-        <v>0.9456457871674903</v>
+        <v>0.94564578716749</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.034303900752159</v>
       </c>
       <c r="J10">
-        <v>0.9518186399894643</v>
+        <v>0.9518186399894639</v>
       </c>
       <c r="K10">
         <v>1.019366787161604</v>
       </c>
       <c r="L10">
-        <v>0.9554906338574753</v>
+        <v>0.9554906338574751</v>
       </c>
       <c r="M10">
-        <v>0.9610710357524941</v>
+        <v>0.9610710357524939</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.911497438041561</v>
+        <v>0.9114974380415609</v>
       </c>
       <c r="D11">
         <v>1.000958927324577</v>
       </c>
       <c r="E11">
-        <v>0.9328237760766502</v>
+        <v>0.9328237760766501</v>
       </c>
       <c r="F11">
-        <v>0.9379308479857557</v>
+        <v>0.9379308479857559</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>1.032070540410173</v>
       </c>
       <c r="J11">
-        <v>0.9450791729454857</v>
+        <v>0.9450791729454858</v>
       </c>
       <c r="K11">
         <v>1.015862782310248</v>
@@ -790,7 +790,7 @@
         <v>0.9491343847683794</v>
       </c>
       <c r="M11">
-        <v>0.9541265711385671</v>
+        <v>0.9541265711385674</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,13 +801,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9082295269999455</v>
+        <v>0.9082295269999453</v>
       </c>
       <c r="D12">
-        <v>0.9993838393741108</v>
+        <v>0.9993838393741106</v>
       </c>
       <c r="E12">
-        <v>0.9300999982733418</v>
+        <v>0.930099998273342</v>
       </c>
       <c r="F12">
         <v>0.9349809288390458</v>
@@ -819,13 +819,13 @@
         <v>1.031214032435449</v>
       </c>
       <c r="J12">
-        <v>0.9424983199165251</v>
+        <v>0.942498319916525</v>
       </c>
       <c r="K12">
         <v>1.014522853577194</v>
       </c>
       <c r="L12">
-        <v>0.9467011796176291</v>
+        <v>0.9467011796176292</v>
       </c>
       <c r="M12">
         <v>0.9514696209716493</v>
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.908935224889767</v>
+        <v>0.908935224889768</v>
       </c>
       <c r="D13">
-        <v>0.9997236446174506</v>
+        <v>0.9997236446174502</v>
       </c>
       <c r="E13">
-        <v>0.9306879995050015</v>
+        <v>0.9306879995050025</v>
       </c>
       <c r="F13">
         <v>0.9356177067095277</v>
@@ -857,16 +857,16 @@
         <v>1.031399029476321</v>
       </c>
       <c r="J13">
-        <v>0.943055613554036</v>
+        <v>0.9430556135540366</v>
       </c>
       <c r="K13">
         <v>1.014812089361049</v>
       </c>
       <c r="L13">
-        <v>0.9472265491238434</v>
+        <v>0.9472265491238442</v>
       </c>
       <c r="M13">
-        <v>0.9520432313328741</v>
+        <v>0.9520432313328742</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9112294160864433</v>
+        <v>0.9112294160864443</v>
       </c>
       <c r="D14">
-        <v>1.000829598112888</v>
+        <v>1.000829598112889</v>
       </c>
       <c r="E14">
-        <v>0.9326002966444541</v>
+        <v>0.932600296644455</v>
       </c>
       <c r="F14">
-        <v>0.9376887957237294</v>
+        <v>0.9376887957237308</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.032000309993256</v>
       </c>
       <c r="J14">
-        <v>0.9448674856040669</v>
+        <v>0.9448674856040679</v>
       </c>
       <c r="K14">
-        <v>1.015752834715447</v>
+        <v>1.015752834715448</v>
       </c>
       <c r="L14">
-        <v>0.9489347891767095</v>
+        <v>0.9489347891767105</v>
       </c>
       <c r="M14">
-        <v>0.9539085911204727</v>
+        <v>0.9539085911204737</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9126293912310351</v>
+        <v>0.9126293912310339</v>
       </c>
       <c r="D15">
-        <v>1.001505415661476</v>
+        <v>1.001505415661475</v>
       </c>
       <c r="E15">
-        <v>0.9337677772546835</v>
+        <v>0.9337677772546822</v>
       </c>
       <c r="F15">
-        <v>0.9389533382713592</v>
+        <v>0.9389533382713579</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032367110518523</v>
       </c>
       <c r="J15">
-        <v>0.9459732330618046</v>
+        <v>0.9459732330618036</v>
       </c>
       <c r="K15">
-        <v>1.016327227717498</v>
+        <v>1.016327227717497</v>
       </c>
       <c r="L15">
-        <v>0.9499774122556721</v>
+        <v>0.9499774122556711</v>
       </c>
       <c r="M15">
-        <v>0.9550473080545027</v>
+        <v>0.9550473080545012</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -959,10 +959,10 @@
         <v>1.005357412287178</v>
       </c>
       <c r="E16">
-        <v>0.9404074801450515</v>
+        <v>0.9404074801450513</v>
       </c>
       <c r="F16">
-        <v>0.946146626643211</v>
+        <v>0.9461466266432113</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0.9559029025677278</v>
       </c>
       <c r="M16">
-        <v>0.9615216346088956</v>
+        <v>0.9615216346088958</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9254091772665533</v>
+        <v>0.9254091772665539</v>
       </c>
       <c r="D17">
         <v>1.007705760429009</v>
@@ -1000,7 +1000,7 @@
         <v>0.9444439860033919</v>
       </c>
       <c r="F17">
-        <v>0.9505208617174263</v>
+        <v>0.9505208617174264</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.035709473659758</v>
       </c>
       <c r="J17">
-        <v>0.9560696469425713</v>
+        <v>0.9560696469425717</v>
       </c>
       <c r="K17">
         <v>1.021580015404555</v>
       </c>
       <c r="L17">
-        <v>0.9595016677264167</v>
+        <v>0.9595016677264168</v>
       </c>
       <c r="M17">
-        <v>0.9654558659003576</v>
+        <v>0.9654558659003577</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281706491215503</v>
+        <v>0.9281706491215491</v>
       </c>
       <c r="D18">
         <v>1.00905247249897</v>
       </c>
       <c r="E18">
-        <v>0.9467552634734343</v>
+        <v>0.9467552634734335</v>
       </c>
       <c r="F18">
-        <v>0.9530258778031276</v>
+        <v>0.9530258778031271</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.036429781801766</v>
       </c>
       <c r="J18">
-        <v>0.9582516720903607</v>
+        <v>0.9582516720903599</v>
       </c>
       <c r="K18">
         <v>1.022716756792173</v>
       </c>
       <c r="L18">
-        <v>0.9615610432061555</v>
+        <v>0.9615610432061548</v>
       </c>
       <c r="M18">
-        <v>0.9677078948283869</v>
+        <v>0.9677078948283865</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9291034133230771</v>
+        <v>0.9291034133230776</v>
       </c>
       <c r="D19">
-        <v>1.009507884267928</v>
+        <v>1.009507884267929</v>
       </c>
       <c r="E19">
-        <v>0.9475363038966432</v>
+        <v>0.9475363038966438</v>
       </c>
       <c r="F19">
-        <v>0.9538724420294704</v>
+        <v>0.9538724420294712</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036672892127721</v>
+        <v>1.036672892127722</v>
       </c>
       <c r="J19">
-        <v>0.9589887252128789</v>
+        <v>0.9589887252128795</v>
       </c>
       <c r="K19">
-        <v>1.023100818788714</v>
+        <v>1.023100818788715</v>
       </c>
       <c r="L19">
-        <v>0.962256748407685</v>
+        <v>0.9622567484076857</v>
       </c>
       <c r="M19">
-        <v>0.9684687916348615</v>
+        <v>0.9684687916348622</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9248969542305125</v>
+        <v>0.9248969542305123</v>
       </c>
       <c r="D20">
         <v>1.007456218465322</v>
       </c>
       <c r="E20">
-        <v>0.9440154364209544</v>
+        <v>0.9440154364209543</v>
       </c>
       <c r="F20">
-        <v>0.9500564172768802</v>
+        <v>0.9500564172768797</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.035575775143232</v>
       </c>
       <c r="J20">
-        <v>0.9556649136018823</v>
+        <v>0.9556649136018822</v>
       </c>
       <c r="K20">
         <v>1.021369214194705</v>
       </c>
       <c r="L20">
-        <v>0.9591197235065727</v>
+        <v>0.9591197235065725</v>
       </c>
       <c r="M20">
-        <v>0.9650382448478867</v>
+        <v>0.9650382448478864</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9105566851104817</v>
+        <v>0.9105566851104824</v>
       </c>
       <c r="D21">
-        <v>1.000505098148034</v>
+        <v>1.000505098148035</v>
       </c>
       <c r="E21">
-        <v>0.9320394336269301</v>
+        <v>0.932039433626931</v>
       </c>
       <c r="F21">
-        <v>0.9370813350922066</v>
+        <v>0.9370813350922069</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031824018284848</v>
       </c>
       <c r="J21">
-        <v>0.9443361653019133</v>
+        <v>0.9443361653019139</v>
       </c>
       <c r="K21">
         <v>1.015476907604859</v>
       </c>
       <c r="L21">
-        <v>0.9484338330048411</v>
+        <v>0.948433833004842</v>
       </c>
       <c r="M21">
-        <v>0.9533615166237107</v>
+        <v>0.9533615166237112</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,13 +1184,13 @@
         <v>0.9009591189276814</v>
       </c>
       <c r="D22">
-        <v>0.9958939791475724</v>
+        <v>0.9958939791475726</v>
       </c>
       <c r="E22">
-        <v>0.9240484073047391</v>
+        <v>0.9240484073047396</v>
       </c>
       <c r="F22">
-        <v>0.9284287692559633</v>
+        <v>0.9284287692559638</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.02930732168405</v>
       </c>
       <c r="J22">
-        <v>0.9367581487753401</v>
+        <v>0.9367581487753402</v>
       </c>
       <c r="K22">
         <v>1.011547218325421</v>
       </c>
       <c r="L22">
-        <v>0.9412911740092872</v>
+        <v>0.9412911740092875</v>
       </c>
       <c r="M22">
-        <v>0.9455651548512763</v>
+        <v>0.9455651548512771</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9061072704313251</v>
+        <v>0.9061072704313263</v>
       </c>
       <c r="D23">
-        <v>0.9983630553708007</v>
+        <v>0.9983630553708012</v>
       </c>
       <c r="E23">
-        <v>0.9283323356813463</v>
+        <v>0.9283323356813473</v>
       </c>
       <c r="F23">
-        <v>0.9330667768493264</v>
+        <v>0.9330667768493274</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030657587709047</v>
+        <v>1.030657587709048</v>
       </c>
       <c r="J23">
-        <v>0.9408224891235962</v>
+        <v>0.940822489123597</v>
       </c>
       <c r="K23">
-        <v>1.013653445165356</v>
+        <v>1.013653445165357</v>
       </c>
       <c r="L23">
-        <v>0.9451214866569793</v>
+        <v>0.9451214866569801</v>
       </c>
       <c r="M23">
-        <v>0.9497451107032846</v>
+        <v>0.9497451107032856</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9251285720378919</v>
+        <v>0.9251285720378913</v>
       </c>
       <c r="D24">
-        <v>1.007569046596496</v>
+        <v>1.007569046596495</v>
       </c>
       <c r="E24">
-        <v>0.9442092121275028</v>
+        <v>0.9442092121275023</v>
       </c>
       <c r="F24">
-        <v>0.950266422335646</v>
+        <v>0.9502664223356454</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.035636234459426</v>
       </c>
       <c r="J24">
-        <v>0.9558479261567465</v>
+        <v>0.9558479261567464</v>
       </c>
       <c r="K24">
         <v>1.02146453245083</v>
       </c>
       <c r="L24">
-        <v>0.9592924297376189</v>
+        <v>0.9592924297376183</v>
       </c>
       <c r="M24">
-        <v>0.9652270811946116</v>
+        <v>0.9652270811946109</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.945104013803106</v>
+        <v>0.9451040138031052</v>
       </c>
       <c r="D25">
         <v>1.017357599395215</v>
       </c>
       <c r="E25">
-        <v>0.9609604786222249</v>
+        <v>0.9609604786222237</v>
       </c>
       <c r="F25">
-        <v>0.9684263161260881</v>
+        <v>0.9684263161260872</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040823824498861</v>
+        <v>1.04082382449886</v>
       </c>
       <c r="J25">
-        <v>0.9716314203667448</v>
+        <v>0.9716314203667439</v>
       </c>
       <c r="K25">
         <v>1.029692306720742</v>
       </c>
       <c r="L25">
-        <v>0.9741966556536079</v>
+        <v>0.9741966556536068</v>
       </c>
       <c r="M25">
-        <v>0.9815353804809067</v>
+        <v>0.9815353804809059</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9597085676740973</v>
+        <v>0.959752331588983</v>
       </c>
       <c r="D2">
-        <v>1.02457460580201</v>
+        <v>1.024587766654262</v>
       </c>
       <c r="E2">
-        <v>0.9732550631958086</v>
+        <v>0.9732939215489704</v>
       </c>
       <c r="F2">
-        <v>0.9817591259451007</v>
+        <v>0.9817925203695264</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044568537618453</v>
+        <v>1.044577965938098</v>
       </c>
       <c r="J2">
-        <v>0.9831650019373903</v>
+        <v>0.9832072991876533</v>
       </c>
       <c r="K2">
-        <v>1.035701873016671</v>
+        <v>1.035714861380683</v>
       </c>
       <c r="L2">
-        <v>0.9851000152848469</v>
+        <v>0.985138293816025</v>
       </c>
       <c r="M2">
-        <v>0.9934785736010071</v>
+        <v>0.9935114806222098</v>
+      </c>
+      <c r="N2">
+        <v>0.9901495770464693</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9696786071878998</v>
+        <v>0.9697130388794322</v>
       </c>
       <c r="D3">
-        <v>1.029522323166481</v>
+        <v>1.029532657877531</v>
       </c>
       <c r="E3">
-        <v>0.9816699385363316</v>
+        <v>0.981700680364587</v>
       </c>
       <c r="F3">
-        <v>0.9908848762141184</v>
+        <v>0.9909111516253762</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047091035251748</v>
+        <v>1.047098459820696</v>
       </c>
       <c r="J3">
-        <v>0.9910314372968653</v>
+        <v>0.9910648478978829</v>
       </c>
       <c r="K3">
-        <v>1.039790897013714</v>
+        <v>1.039801108730192</v>
       </c>
       <c r="L3">
-        <v>0.9925428558276808</v>
+        <v>0.9925731856584155</v>
       </c>
       <c r="M3">
-        <v>1.001635730806659</v>
+        <v>1.001661662236702</v>
+      </c>
+      <c r="N3">
+        <v>0.9955878768473743</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9758724423717047</v>
+        <v>0.9759012415765194</v>
       </c>
       <c r="D4">
-        <v>1.032601904165773</v>
+        <v>1.032610539155564</v>
       </c>
       <c r="E4">
-        <v>0.9869062317133473</v>
+        <v>0.9869320636972155</v>
       </c>
       <c r="F4">
-        <v>0.9965630474294555</v>
+        <v>0.9965850339523744</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04864073145765</v>
+        <v>1.048646946153203</v>
       </c>
       <c r="J4">
-        <v>0.9959141394429022</v>
+        <v>0.9959421514993828</v>
       </c>
       <c r="K4">
-        <v>1.042322153086503</v>
+        <v>1.042330691806112</v>
       </c>
       <c r="L4">
-        <v>0.9971652988100138</v>
+        <v>0.99719080864359</v>
       </c>
       <c r="M4">
-        <v>1.006703131205092</v>
+        <v>1.006724850098105</v>
+      </c>
+      <c r="N4">
+        <v>0.9989609866896858</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9784193328714945</v>
+        <v>0.9784458502018456</v>
       </c>
       <c r="D5">
-        <v>1.033869113482881</v>
+        <v>1.033877061165447</v>
       </c>
       <c r="E5">
-        <v>0.9890612564192781</v>
+        <v>0.9890850971004665</v>
       </c>
       <c r="F5">
-        <v>0.9988997361738321</v>
+        <v>0.9989199868907096</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049273553660817</v>
+        <v>1.049279278070304</v>
       </c>
       <c r="J5">
-        <v>0.9979207397063116</v>
+        <v>0.9979465571620312</v>
       </c>
       <c r="K5">
-        <v>1.04336045914008</v>
+        <v>1.043368320679721</v>
       </c>
       <c r="L5">
-        <v>0.9990655549363955</v>
+        <v>0.9990891073577417</v>
       </c>
       <c r="M5">
-        <v>1.008786524493489</v>
+        <v>1.008806536293484</v>
+      </c>
+      <c r="N5">
+        <v>1.000346588581067</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9788437491777817</v>
+        <v>0.9788698881241639</v>
       </c>
       <c r="D6">
-        <v>1.034080321073739</v>
+        <v>1.034088154858126</v>
       </c>
       <c r="E6">
-        <v>0.9894204769318696</v>
+        <v>0.9894439872956373</v>
       </c>
       <c r="F6">
-        <v>0.9992892246877322</v>
+        <v>0.9993091876691539</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04937874178419</v>
+        <v>1.049384384885335</v>
       </c>
       <c r="J6">
-        <v>0.9982550500354544</v>
+        <v>0.9982805031611058</v>
       </c>
       <c r="K6">
-        <v>1.04353332367929</v>
+        <v>1.043541072960413</v>
       </c>
       <c r="L6">
-        <v>0.9993821830551248</v>
+        <v>0.9994054106374961</v>
       </c>
       <c r="M6">
-        <v>1.009133677747106</v>
+        <v>1.009153406448434</v>
+      </c>
+      <c r="N6">
+        <v>1.000577400327136</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9759066922932124</v>
+        <v>0.9759354606829277</v>
       </c>
       <c r="D7">
-        <v>1.032618942365608</v>
+        <v>1.032627568068823</v>
       </c>
       <c r="E7">
-        <v>0.9869352047313102</v>
+        <v>0.9869610098322007</v>
       </c>
       <c r="F7">
-        <v>0.9965944636771396</v>
+        <v>0.9966164267524666</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048649259273809</v>
+        <v>1.048655467348949</v>
       </c>
       <c r="J7">
-        <v>0.9959411284251909</v>
+        <v>0.9959691108739522</v>
       </c>
       <c r="K7">
-        <v>1.042336126505208</v>
+        <v>1.042344656077722</v>
       </c>
       <c r="L7">
-        <v>0.9971908550576594</v>
+        <v>0.9972163384756317</v>
       </c>
       <c r="M7">
-        <v>1.00673114969604</v>
+        <v>1.006752845537771</v>
+      </c>
+      <c r="N7">
+        <v>0.9989796256530239</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9631342704786832</v>
+        <v>0.9631747890796851</v>
       </c>
       <c r="D8">
-        <v>1.026273068599814</v>
+        <v>1.026285245258961</v>
       </c>
       <c r="E8">
-        <v>0.9761444602285275</v>
+        <v>0.976180498758897</v>
       </c>
       <c r="F8">
-        <v>0.9848926637293987</v>
+        <v>0.9849235807141569</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045438811636423</v>
+        <v>1.045447543249037</v>
       </c>
       <c r="J8">
-        <v>0.9858687326172649</v>
+        <v>0.9859079476893463</v>
       </c>
       <c r="K8">
-        <v>1.037108536885655</v>
+        <v>1.037120558987078</v>
       </c>
       <c r="L8">
-        <v>0.9876575689623943</v>
+        <v>0.9876930886704518</v>
       </c>
       <c r="M8">
-        <v>0.9962812382500603</v>
+        <v>0.9963117200757929</v>
+      </c>
+      <c r="N8">
+        <v>0.9920192485201752</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9384122258799986</v>
+        <v>0.9384771888312686</v>
       </c>
       <c r="D9">
-        <v>1.014066463459369</v>
+        <v>1.014086087869554</v>
       </c>
       <c r="E9">
-        <v>0.9553402497575862</v>
+        <v>0.9553974492787174</v>
       </c>
       <c r="F9">
-        <v>0.9623324126389683</v>
+        <v>0.9623820327958035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039092783472146</v>
+        <v>1.039106760387984</v>
       </c>
       <c r="J9">
-        <v>0.9663443483597791</v>
+        <v>0.9664065664749411</v>
       </c>
       <c r="K9">
-        <v>1.026935371332702</v>
+        <v>1.026954688555875</v>
       </c>
       <c r="L9">
-        <v>0.9692019899894532</v>
+        <v>0.9692581451908439</v>
       </c>
       <c r="M9">
-        <v>0.9760676884717505</v>
+        <v>0.9761164196985522</v>
+      </c>
+      <c r="N9">
+        <v>0.9785083677775978</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9200289284665508</v>
+        <v>0.920113859850432</v>
       </c>
       <c r="D10">
-        <v>1.005088808860761</v>
+        <v>1.005114570234718</v>
       </c>
       <c r="E10">
-        <v>0.9399452599561094</v>
+        <v>0.9400196001468807</v>
       </c>
       <c r="F10">
-        <v>0.94564578716749</v>
+        <v>0.9457107487199102</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034303900752159</v>
+        <v>1.034322157718086</v>
       </c>
       <c r="J10">
-        <v>0.9518186399894639</v>
+        <v>0.9518992937610257</v>
       </c>
       <c r="K10">
-        <v>1.019366787161604</v>
+        <v>1.019392089515192</v>
       </c>
       <c r="L10">
-        <v>0.9554906338574751</v>
+        <v>0.9555633950840731</v>
       </c>
       <c r="M10">
-        <v>0.9610710357524939</v>
+        <v>0.9611346394238149</v>
+      </c>
+      <c r="N10">
+        <v>0.9684461764280776</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9114974380415609</v>
+        <v>0.9115922650908249</v>
       </c>
       <c r="D11">
-        <v>1.000958927324577</v>
+        <v>1.00098774439281</v>
       </c>
       <c r="E11">
-        <v>0.9328237760766501</v>
+        <v>0.9329065587848787</v>
       </c>
       <c r="F11">
-        <v>0.9379308479857559</v>
+        <v>0.9380034286553354</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032070540410173</v>
+        <v>1.032090916185702</v>
       </c>
       <c r="J11">
-        <v>0.9450791729454858</v>
+        <v>0.9451688491679138</v>
       </c>
       <c r="K11">
-        <v>1.015862782310248</v>
+        <v>1.015891057310405</v>
       </c>
       <c r="L11">
-        <v>0.9491343847683794</v>
+        <v>0.9492152918673255</v>
       </c>
       <c r="M11">
-        <v>0.9541265711385674</v>
+        <v>0.9541975310856941</v>
+      </c>
+      <c r="N11">
+        <v>0.9637759061019182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9082295269999453</v>
+        <v>0.9083282627971219</v>
       </c>
       <c r="D12">
-        <v>0.9993838393741106</v>
+        <v>0.9994138656731302</v>
       </c>
       <c r="E12">
-        <v>0.930099998273342</v>
+        <v>0.930186106089925</v>
       </c>
       <c r="F12">
-        <v>0.9349809288390458</v>
+        <v>0.9350565215275437</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031214032435449</v>
+        <v>1.03123524462708</v>
       </c>
       <c r="J12">
-        <v>0.942498319916525</v>
+        <v>0.9425915398813439</v>
       </c>
       <c r="K12">
-        <v>1.014522853577194</v>
+        <v>1.014552303713359</v>
       </c>
       <c r="L12">
-        <v>0.9467011796176292</v>
+        <v>0.9467852892510963</v>
       </c>
       <c r="M12">
-        <v>0.9514696209716493</v>
+        <v>0.951543483833026</v>
+      </c>
+      <c r="N12">
+        <v>0.9619872629540278</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.908935224889768</v>
+        <v>0.9090331108118143</v>
       </c>
       <c r="D13">
-        <v>0.9997236446174502</v>
+        <v>0.9997534078937313</v>
       </c>
       <c r="E13">
-        <v>0.9306879995050025</v>
+        <v>0.930773384813684</v>
       </c>
       <c r="F13">
-        <v>0.9356177067095277</v>
+        <v>0.9356926443865167</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031399029476321</v>
+        <v>1.031420059833063</v>
       </c>
       <c r="J13">
-        <v>0.9430556135540366</v>
+        <v>0.9431480639614345</v>
       </c>
       <c r="K13">
-        <v>1.014812089361049</v>
+        <v>1.014841283947507</v>
       </c>
       <c r="L13">
-        <v>0.9472265491238442</v>
+        <v>0.9473099631536488</v>
       </c>
       <c r="M13">
-        <v>0.9520432313328742</v>
+        <v>0.9521164631546444</v>
+      </c>
+      <c r="N13">
+        <v>0.9623734983356961</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9112294160864443</v>
+        <v>0.9113245611650627</v>
       </c>
       <c r="D14">
-        <v>1.000829598112889</v>
+        <v>1.000858513523364</v>
       </c>
       <c r="E14">
-        <v>0.932600296644455</v>
+        <v>0.9326833501001066</v>
       </c>
       <c r="F14">
-        <v>0.9376887957237308</v>
+        <v>0.9377616214119556</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032000309993256</v>
+        <v>1.032020753833859</v>
       </c>
       <c r="J14">
-        <v>0.9448674856040679</v>
+        <v>0.9449574505784223</v>
       </c>
       <c r="K14">
-        <v>1.015752834715448</v>
+        <v>1.015781205310279</v>
       </c>
       <c r="L14">
-        <v>0.9489347891767105</v>
+        <v>0.9490159571618902</v>
       </c>
       <c r="M14">
-        <v>0.9539085911204737</v>
+        <v>0.9539797873191379</v>
+      </c>
+      <c r="N14">
+        <v>0.9636292007316654</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9126293912310339</v>
+        <v>0.9127228800712713</v>
       </c>
       <c r="D15">
-        <v>1.001505415661475</v>
+        <v>1.00153381901345</v>
       </c>
       <c r="E15">
-        <v>0.9337677772546822</v>
+        <v>0.9338494203102581</v>
       </c>
       <c r="F15">
-        <v>0.9389533382713579</v>
+        <v>0.9390248880471566</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032367110518523</v>
+        <v>1.032387199867385</v>
       </c>
       <c r="J15">
-        <v>0.9459732330618036</v>
+        <v>0.946061693448198</v>
       </c>
       <c r="K15">
-        <v>1.016327227717497</v>
+        <v>1.0163551005104</v>
       </c>
       <c r="L15">
-        <v>0.9499774122556711</v>
+        <v>0.9500572209765333</v>
       </c>
       <c r="M15">
-        <v>0.9550473080545012</v>
+        <v>0.9551172737828868</v>
+      </c>
+      <c r="N15">
+        <v>0.9643955084732601</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9205820440650269</v>
+        <v>0.9206663485863225</v>
       </c>
       <c r="D16">
-        <v>1.005357412287178</v>
+        <v>1.005382980386253</v>
       </c>
       <c r="E16">
-        <v>0.9404074801450513</v>
+        <v>0.9404812843535717</v>
       </c>
       <c r="F16">
-        <v>0.9461466266432113</v>
+        <v>0.9462111058774603</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034448518870588</v>
+        <v>1.034466641559403</v>
       </c>
       <c r="J16">
-        <v>0.95225564021405</v>
+        <v>0.9523357199470648</v>
       </c>
       <c r="K16">
-        <v>1.019594210562957</v>
+        <v>1.01961932473782</v>
       </c>
       <c r="L16">
-        <v>0.9559029025677278</v>
+        <v>0.9559751459234943</v>
       </c>
       <c r="M16">
-        <v>0.9615216346088958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.961584771951888</v>
+      </c>
+      <c r="N16">
+        <v>0.9687489766433057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9254091772665539</v>
+        <v>0.9254880830489427</v>
       </c>
       <c r="D17">
-        <v>1.007705760429009</v>
+        <v>1.007729665548775</v>
       </c>
       <c r="E17">
-        <v>0.9444439860033919</v>
+        <v>0.9445131684352074</v>
       </c>
       <c r="F17">
-        <v>0.9505208617174264</v>
+        <v>0.9505811888537967</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035709473659758</v>
+        <v>1.03572643966092</v>
       </c>
       <c r="J17">
-        <v>0.9560696469425717</v>
+        <v>0.9561447703987894</v>
       </c>
       <c r="K17">
-        <v>1.021580015404555</v>
+        <v>1.021603509639611</v>
       </c>
       <c r="L17">
-        <v>0.9595016677264168</v>
+        <v>0.9595694418220652</v>
       </c>
       <c r="M17">
-        <v>0.9654558659003577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9655149855196216</v>
+      </c>
+      <c r="N17">
+        <v>0.971391540778763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281706491215491</v>
+        <v>0.9282465227573616</v>
       </c>
       <c r="D18">
-        <v>1.00905247249897</v>
+        <v>1.009075444902846</v>
       </c>
       <c r="E18">
-        <v>0.9467552634734335</v>
+        <v>0.9468218456612082</v>
       </c>
       <c r="F18">
-        <v>0.9530258778031271</v>
+        <v>0.9530838744190734</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036429781801766</v>
+        <v>1.036446097976022</v>
       </c>
       <c r="J18">
-        <v>0.9582516720903599</v>
+        <v>0.958324002021011</v>
       </c>
       <c r="K18">
-        <v>1.022716756792173</v>
+        <v>1.022739341798537</v>
       </c>
       <c r="L18">
-        <v>0.9615610432061548</v>
+        <v>0.961626299944995</v>
       </c>
       <c r="M18">
-        <v>0.9677078948283865</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.967764756741355</v>
+      </c>
+      <c r="N18">
+        <v>0.9729032077194482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9291034133230776</v>
+        <v>0.9291782717332975</v>
       </c>
       <c r="D19">
-        <v>1.009507884267929</v>
+        <v>1.009530544593072</v>
       </c>
       <c r="E19">
-        <v>0.9475363038966438</v>
+        <v>0.947602014756013</v>
       </c>
       <c r="F19">
-        <v>0.9538724420294712</v>
+        <v>0.9539296585849262</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036672892127722</v>
+        <v>1.036688990698618</v>
       </c>
       <c r="J19">
-        <v>0.9589887252128795</v>
+        <v>0.9590601182115889</v>
       </c>
       <c r="K19">
-        <v>1.023100818788715</v>
+        <v>1.023123099467222</v>
       </c>
       <c r="L19">
-        <v>0.9622567484076857</v>
+        <v>0.9623211611165928</v>
       </c>
       <c r="M19">
-        <v>0.9684687916348622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9685248974343849</v>
+      </c>
+      <c r="N19">
+        <v>0.9734137943452936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9248969542305123</v>
+        <v>0.9249764268765127</v>
       </c>
       <c r="D20">
-        <v>1.007456218465322</v>
+        <v>1.007480298061707</v>
       </c>
       <c r="E20">
-        <v>0.9440154364209543</v>
+        <v>0.944085104616296</v>
       </c>
       <c r="F20">
-        <v>0.9500564172768797</v>
+        <v>0.9501171802265032</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035575775143232</v>
+        <v>1.035592862616078</v>
       </c>
       <c r="J20">
-        <v>0.9556649136018822</v>
+        <v>0.955740558519111</v>
       </c>
       <c r="K20">
-        <v>1.021369214194705</v>
+        <v>1.021392878459968</v>
       </c>
       <c r="L20">
-        <v>0.9591197235065725</v>
+        <v>0.9591879676465304</v>
       </c>
       <c r="M20">
-        <v>0.9650382448478864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9650977864542958</v>
+      </c>
+      <c r="N20">
+        <v>0.9711111349498096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9105566851104824</v>
+        <v>0.9106526304280965</v>
       </c>
       <c r="D21">
-        <v>1.000505098148035</v>
+        <v>1.000534261047231</v>
       </c>
       <c r="E21">
-        <v>0.932039433626931</v>
+        <v>0.932123168188238</v>
       </c>
       <c r="F21">
-        <v>0.9370813350922069</v>
+        <v>0.9371547773464026</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031824018284848</v>
+        <v>1.031844633384934</v>
       </c>
       <c r="J21">
-        <v>0.9443361653019139</v>
+        <v>0.9444268565155101</v>
       </c>
       <c r="K21">
-        <v>1.015476907604859</v>
+        <v>1.015505518753923</v>
       </c>
       <c r="L21">
-        <v>0.948433833004842</v>
+        <v>0.9485156571943664</v>
       </c>
       <c r="M21">
-        <v>0.9533615166237112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9534333072415696</v>
+      </c>
+      <c r="N21">
+        <v>0.9632609779919571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9009591189276814</v>
+        <v>0.9010668041014204</v>
       </c>
       <c r="D22">
-        <v>0.9958939791475726</v>
+        <v>0.9959267783013492</v>
       </c>
       <c r="E22">
-        <v>0.9240484073047396</v>
+        <v>0.9241421074984861</v>
       </c>
       <c r="F22">
-        <v>0.9284287692559638</v>
+        <v>0.9285112628189933</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02930732168405</v>
+        <v>1.029330447690044</v>
       </c>
       <c r="J22">
-        <v>0.9367581487753402</v>
+        <v>0.9368594405885603</v>
       </c>
       <c r="K22">
-        <v>1.011547218325421</v>
+        <v>1.011579360682098</v>
       </c>
       <c r="L22">
-        <v>0.9412911740092875</v>
+        <v>0.9413825844055529</v>
       </c>
       <c r="M22">
-        <v>0.9455651548512771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.945645657918693</v>
+      </c>
+      <c r="N22">
+        <v>0.9580088436117361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9061072704313263</v>
+        <v>0.9062085817002793</v>
       </c>
       <c r="D23">
-        <v>0.9983630553708012</v>
+        <v>0.998393879067367</v>
       </c>
       <c r="E23">
-        <v>0.9283323356813473</v>
+        <v>0.9284206314072426</v>
       </c>
       <c r="F23">
-        <v>0.9330667768493274</v>
+        <v>0.9331443548549073</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030657587709048</v>
+        <v>1.030679350843096</v>
       </c>
       <c r="J23">
-        <v>0.940822489123597</v>
+        <v>0.9409180379465366</v>
       </c>
       <c r="K23">
-        <v>1.013653445165357</v>
+        <v>1.013683669853588</v>
       </c>
       <c r="L23">
-        <v>0.9451214866569801</v>
+        <v>0.945207701821681</v>
       </c>
       <c r="M23">
-        <v>0.9497451107032856</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9498208853995406</v>
+      </c>
+      <c r="N23">
+        <v>0.9608257998671068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9251285720378913</v>
+        <v>0.9252077881848083</v>
       </c>
       <c r="D24">
-        <v>1.007569046596495</v>
+        <v>1.007593047240263</v>
       </c>
       <c r="E24">
-        <v>0.9442092121275023</v>
+        <v>0.9442786605344968</v>
       </c>
       <c r="F24">
-        <v>0.9502664223356454</v>
+        <v>0.9503269880803348</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035636234459426</v>
+        <v>1.03565326696834</v>
       </c>
       <c r="J24">
-        <v>0.9558479261567464</v>
+        <v>0.9559233351498511</v>
       </c>
       <c r="K24">
-        <v>1.02146453245083</v>
+        <v>1.021488119777567</v>
       </c>
       <c r="L24">
-        <v>0.9592924297376183</v>
+        <v>0.9593604612106471</v>
       </c>
       <c r="M24">
-        <v>0.9652270811946109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9652864318605248</v>
+      </c>
+      <c r="N24">
+        <v>0.9712379295419962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9451040138031052</v>
+        <v>0.9451621124356248</v>
       </c>
       <c r="D25">
-        <v>1.017357599395215</v>
+        <v>1.017375124572382</v>
       </c>
       <c r="E25">
-        <v>0.9609604786222237</v>
+        <v>0.9610117547566763</v>
       </c>
       <c r="F25">
-        <v>0.9684263161260872</v>
+        <v>0.9684706747088305</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04082382449886</v>
+        <v>1.040836329028995</v>
       </c>
       <c r="J25">
-        <v>0.9716314203667439</v>
+        <v>0.9716872280756688</v>
       </c>
       <c r="K25">
-        <v>1.029692306720742</v>
+        <v>1.029709571523501</v>
       </c>
       <c r="L25">
-        <v>0.9741966556536068</v>
+        <v>0.9742470500573683</v>
       </c>
       <c r="M25">
-        <v>0.9815353804809059</v>
+        <v>0.9815789913727646</v>
+      </c>
+      <c r="N25">
+        <v>0.982168961330926</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.959752331588983</v>
+        <v>0.9929868569988054</v>
       </c>
       <c r="D2">
-        <v>1.024587766654262</v>
+        <v>1.038908291712153</v>
       </c>
       <c r="E2">
-        <v>0.9732939215489704</v>
+        <v>1.011808086998186</v>
       </c>
       <c r="F2">
-        <v>0.9817925203695264</v>
+        <v>1.031105745542274</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044577965938098</v>
+        <v>1.051181702825482</v>
       </c>
       <c r="J2">
-        <v>0.9832072991876533</v>
+        <v>1.015379372655705</v>
       </c>
       <c r="K2">
-        <v>1.035714861380683</v>
+        <v>1.049850932651927</v>
       </c>
       <c r="L2">
-        <v>0.985138293816025</v>
+        <v>1.023105331493766</v>
       </c>
       <c r="M2">
-        <v>0.9935114806222098</v>
+        <v>1.042148091548398</v>
       </c>
       <c r="N2">
-        <v>0.9901495770464693</v>
+        <v>1.016821327830518</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9697130388794322</v>
+        <v>1.005995579896929</v>
       </c>
       <c r="D3">
-        <v>1.029532657877531</v>
+        <v>1.045293445082237</v>
       </c>
       <c r="E3">
-        <v>0.981700680364587</v>
+        <v>1.022458563554892</v>
       </c>
       <c r="F3">
-        <v>0.9909111516253762</v>
+        <v>1.040337437603028</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047098459820696</v>
+        <v>1.053702618843447</v>
       </c>
       <c r="J3">
-        <v>0.9910648478978829</v>
+        <v>1.026324123149114</v>
       </c>
       <c r="K3">
-        <v>1.039801108730192</v>
+        <v>1.055377819592503</v>
       </c>
       <c r="L3">
-        <v>0.9925731856584155</v>
+        <v>1.032811926226915</v>
       </c>
       <c r="M3">
-        <v>1.001661662236702</v>
+        <v>1.050478952188203</v>
       </c>
       <c r="N3">
-        <v>0.9955878768473743</v>
+        <v>1.027781621125009</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9759012415765194</v>
+        <v>1.014027454064637</v>
       </c>
       <c r="D4">
-        <v>1.032610539155564</v>
+        <v>1.049249149648646</v>
       </c>
       <c r="E4">
-        <v>0.9869320636972155</v>
+        <v>1.029042348754647</v>
       </c>
       <c r="F4">
-        <v>0.9965850339523744</v>
+        <v>1.046048488849969</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048646946153203</v>
+        <v>1.055247685290301</v>
       </c>
       <c r="J4">
-        <v>0.9959421514993828</v>
+        <v>1.033079017441627</v>
       </c>
       <c r="K4">
-        <v>1.042330691806112</v>
+        <v>1.058787408376126</v>
       </c>
       <c r="L4">
-        <v>0.99719080864359</v>
+        <v>1.038802452080259</v>
       </c>
       <c r="M4">
-        <v>1.006724850098105</v>
+        <v>1.055621186109553</v>
       </c>
       <c r="N4">
-        <v>0.9989609866896858</v>
+        <v>1.034546108142214</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9784458502018456</v>
+        <v>1.017320089409171</v>
       </c>
       <c r="D5">
-        <v>1.033877061165447</v>
+        <v>1.050873320292833</v>
       </c>
       <c r="E5">
-        <v>0.9890850971004665</v>
+        <v>1.031742908091123</v>
       </c>
       <c r="F5">
-        <v>0.9989199868907096</v>
+        <v>1.048391852809543</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049279278070304</v>
+        <v>1.055878096596806</v>
       </c>
       <c r="J5">
-        <v>0.9979465571620312</v>
+        <v>1.035847339506483</v>
       </c>
       <c r="K5">
-        <v>1.043368320679721</v>
+        <v>1.06018400367502</v>
       </c>
       <c r="L5">
-        <v>0.9990891073577417</v>
+        <v>1.041257357652017</v>
       </c>
       <c r="M5">
-        <v>1.008806536293484</v>
+        <v>1.057728454344655</v>
       </c>
       <c r="N5">
-        <v>1.000346588581067</v>
+        <v>1.037318361541933</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9788698881241639</v>
+        <v>1.01786823422899</v>
       </c>
       <c r="D6">
-        <v>1.034088154858126</v>
+        <v>1.05114383770436</v>
       </c>
       <c r="E6">
-        <v>0.9894439872956373</v>
+        <v>1.032192569254663</v>
       </c>
       <c r="F6">
-        <v>0.9993091876691539</v>
+        <v>1.048782078094419</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049384384885335</v>
+        <v>1.055982862747456</v>
       </c>
       <c r="J6">
-        <v>0.9982805031611058</v>
+        <v>1.036308145466466</v>
       </c>
       <c r="K6">
-        <v>1.043541072960413</v>
+        <v>1.060416422764383</v>
       </c>
       <c r="L6">
-        <v>0.9994054106374961</v>
+        <v>1.041665980961163</v>
       </c>
       <c r="M6">
-        <v>1.009153406448434</v>
+        <v>1.058079207145963</v>
       </c>
       <c r="N6">
-        <v>1.000577400327136</v>
+        <v>1.037779821899235</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9759354606829277</v>
+        <v>1.01407177019874</v>
       </c>
       <c r="D7">
-        <v>1.032627568068823</v>
+        <v>1.049271000351368</v>
       </c>
       <c r="E7">
-        <v>0.9869610098322007</v>
+        <v>1.029078690256696</v>
       </c>
       <c r="F7">
-        <v>0.9966164267524666</v>
+        <v>1.046080020753786</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048655467348949</v>
+        <v>1.05525618225214</v>
       </c>
       <c r="J7">
-        <v>0.9959691108739522</v>
+        <v>1.033116280242533</v>
       </c>
       <c r="K7">
-        <v>1.042344656077722</v>
+        <v>1.058806210548561</v>
       </c>
       <c r="L7">
-        <v>0.9972163384756317</v>
+        <v>1.038835496930985</v>
       </c>
       <c r="M7">
-        <v>1.006752845537771</v>
+        <v>1.055649551776076</v>
       </c>
       <c r="N7">
-        <v>0.9989796256530239</v>
+        <v>1.034583423860571</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9631747890796851</v>
+        <v>0.9974685086268916</v>
       </c>
       <c r="D8">
-        <v>1.026285245258961</v>
+        <v>1.041104754598607</v>
       </c>
       <c r="E8">
-        <v>0.976180498758897</v>
+        <v>1.015475369740839</v>
       </c>
       <c r="F8">
-        <v>0.9849235807141569</v>
+        <v>1.034283411774443</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045447543249037</v>
+        <v>1.052052457803352</v>
       </c>
       <c r="J8">
-        <v>0.9859079476893463</v>
+        <v>1.019150399782492</v>
       </c>
       <c r="K8">
-        <v>1.037120558987078</v>
+        <v>1.051755298634117</v>
       </c>
       <c r="L8">
-        <v>0.9876930886704518</v>
+        <v>1.026449719419116</v>
       </c>
       <c r="M8">
-        <v>0.9963117200757929</v>
+        <v>1.045018184934032</v>
       </c>
       <c r="N8">
-        <v>0.9920192485201752</v>
+        <v>1.020597710248368</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9384771888312686</v>
+        <v>0.9647999416517877</v>
       </c>
       <c r="D9">
-        <v>1.014086087869554</v>
+        <v>1.025188136551897</v>
       </c>
       <c r="E9">
-        <v>0.9553974492787174</v>
+        <v>0.9887969479510086</v>
       </c>
       <c r="F9">
-        <v>0.9623820327958035</v>
+        <v>1.011199043867976</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039106760387984</v>
+        <v>1.045666681536245</v>
       </c>
       <c r="J9">
-        <v>0.9664065664749411</v>
+        <v>0.9916600135119706</v>
       </c>
       <c r="K9">
-        <v>1.026954688555875</v>
+        <v>1.037885357147006</v>
       </c>
       <c r="L9">
-        <v>0.9692581451908439</v>
+        <v>1.002074440146249</v>
       </c>
       <c r="M9">
-        <v>0.9761164196985522</v>
+        <v>1.024113000380057</v>
       </c>
       <c r="N9">
-        <v>0.9785083677775978</v>
+        <v>0.993068284476151</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.920113859850432</v>
+        <v>0.9399051037571707</v>
       </c>
       <c r="D10">
-        <v>1.005114570234718</v>
+        <v>1.013232843336995</v>
       </c>
       <c r="E10">
-        <v>0.9400196001468807</v>
+        <v>0.9685651566074048</v>
       </c>
       <c r="F10">
-        <v>0.9457107487199102</v>
+        <v>0.9937540822263979</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034322157718086</v>
+        <v>1.040768430012299</v>
       </c>
       <c r="J10">
-        <v>0.9518992937610257</v>
+        <v>0.9707240113161922</v>
       </c>
       <c r="K10">
-        <v>1.019392089515192</v>
+        <v>1.027367215567196</v>
       </c>
       <c r="L10">
-        <v>0.9555633950840731</v>
+        <v>0.9835261590309278</v>
       </c>
       <c r="M10">
-        <v>0.9611346394238149</v>
+        <v>1.008237031866325</v>
       </c>
       <c r="N10">
-        <v>0.9684461764280776</v>
+        <v>0.9721025507558617</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9115922650908249</v>
+        <v>0.9281245955733016</v>
       </c>
       <c r="D11">
-        <v>1.00098774439281</v>
+        <v>1.007637752424589</v>
       </c>
       <c r="E11">
-        <v>0.9329065587848787</v>
+        <v>0.959026494828689</v>
       </c>
       <c r="F11">
-        <v>0.9380034286553354</v>
+        <v>0.9855518748176656</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032090916185702</v>
+        <v>1.038450443502251</v>
       </c>
       <c r="J11">
-        <v>0.9451688491679138</v>
+        <v>0.960826454846653</v>
       </c>
       <c r="K11">
-        <v>1.015891057310405</v>
+        <v>1.022417055130944</v>
       </c>
       <c r="L11">
-        <v>0.9492152918673255</v>
+        <v>0.9747648104034866</v>
       </c>
       <c r="M11">
-        <v>0.9541975310856941</v>
+        <v>1.00075150392491</v>
       </c>
       <c r="N11">
-        <v>0.9637759061019182</v>
+        <v>0.9621909386208702</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9083282627971219</v>
+        <v>0.9235673502803591</v>
       </c>
       <c r="D12">
-        <v>0.9994138656731302</v>
+        <v>1.005484983560757</v>
       </c>
       <c r="E12">
-        <v>0.930186106089925</v>
+        <v>0.955343146538015</v>
       </c>
       <c r="F12">
-        <v>0.9350565215275437</v>
+        <v>0.982388876333846</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03123524462708</v>
+        <v>1.03755457272286</v>
       </c>
       <c r="J12">
-        <v>0.9425915398813439</v>
+        <v>0.9569998197694286</v>
       </c>
       <c r="K12">
-        <v>1.014552303713359</v>
+        <v>1.020507849024052</v>
       </c>
       <c r="L12">
-        <v>0.9467852892510963</v>
+        <v>0.97137900377724</v>
       </c>
       <c r="M12">
-        <v>0.951543483833026</v>
+        <v>0.9978614383563104</v>
       </c>
       <c r="N12">
-        <v>0.9619872629540278</v>
+        <v>0.9583588692829149</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9090331108118143</v>
+        <v>0.9245537135323944</v>
       </c>
       <c r="D13">
-        <v>0.9997534078937313</v>
+        <v>1.005950357493722</v>
       </c>
       <c r="E13">
-        <v>0.930773384813684</v>
+        <v>0.956140040208882</v>
       </c>
       <c r="F13">
-        <v>0.9356926443865167</v>
+        <v>0.9830729829337371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031420059833063</v>
+        <v>1.037748420300736</v>
       </c>
       <c r="J13">
-        <v>0.9431480639614345</v>
+        <v>0.9578279375651284</v>
       </c>
       <c r="K13">
-        <v>1.014841283947507</v>
+        <v>1.020920785066617</v>
       </c>
       <c r="L13">
-        <v>0.9473099631536488</v>
+        <v>0.9721116448023981</v>
       </c>
       <c r="M13">
-        <v>0.9521164631546444</v>
+        <v>0.9984866738911524</v>
       </c>
       <c r="N13">
-        <v>0.9623734983356961</v>
+        <v>0.9591881631008707</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9113245611650627</v>
+        <v>0.9277518087687785</v>
       </c>
       <c r="D14">
-        <v>1.000858513523364</v>
+        <v>1.007461403840447</v>
       </c>
       <c r="E14">
-        <v>0.9326833501001066</v>
+        <v>0.95872505075885</v>
       </c>
       <c r="F14">
-        <v>0.9377616214119556</v>
+        <v>0.9852929239448083</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032020753833859</v>
+        <v>1.038377138095085</v>
       </c>
       <c r="J14">
-        <v>0.9449574505784223</v>
+        <v>0.9605133833029177</v>
       </c>
       <c r="K14">
-        <v>1.015781205310279</v>
+        <v>1.022260753690702</v>
       </c>
       <c r="L14">
-        <v>0.9490159571618902</v>
+        <v>0.9744877707662218</v>
       </c>
       <c r="M14">
-        <v>0.9539797873191379</v>
+        <v>1.000514968887216</v>
       </c>
       <c r="N14">
-        <v>0.9636292007316654</v>
+        <v>0.9618774224796327</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9127228800712713</v>
+        <v>0.9296971218877474</v>
       </c>
       <c r="D15">
-        <v>1.00153381901345</v>
+        <v>1.008382128547228</v>
       </c>
       <c r="E15">
-        <v>0.9338494203102581</v>
+        <v>0.9602983526993403</v>
       </c>
       <c r="F15">
-        <v>0.9390248880471566</v>
+        <v>0.9866446229274215</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032387199867385</v>
+        <v>1.038759706742376</v>
       </c>
       <c r="J15">
-        <v>0.946061693448198</v>
+        <v>0.9621471778093443</v>
       </c>
       <c r="K15">
-        <v>1.0163551005104</v>
+        <v>1.023076623603355</v>
       </c>
       <c r="L15">
-        <v>0.9500572209765333</v>
+        <v>0.9759335942238843</v>
       </c>
       <c r="M15">
-        <v>0.9551172737828868</v>
+        <v>1.001749518859269</v>
       </c>
       <c r="N15">
-        <v>0.9643955084732601</v>
+        <v>0.9635135371616573</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9206663485863225</v>
+        <v>0.9406634092685792</v>
       </c>
       <c r="D16">
-        <v>1.005382980386253</v>
+        <v>1.01359443839399</v>
       </c>
       <c r="E16">
-        <v>0.9404812843535717</v>
+        <v>0.9691799739336242</v>
       </c>
       <c r="F16">
-        <v>0.9462111058774603</v>
+        <v>0.9942832848294023</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034466641559403</v>
+        <v>1.040917701176947</v>
       </c>
       <c r="J16">
-        <v>0.9523357199470648</v>
+        <v>0.9713613644231511</v>
       </c>
       <c r="K16">
-        <v>1.01961932473782</v>
+        <v>1.027686533844531</v>
       </c>
       <c r="L16">
-        <v>0.9559751459234943</v>
+        <v>0.9840905292840055</v>
       </c>
       <c r="M16">
-        <v>0.961584771951888</v>
+        <v>1.008719545414808</v>
       </c>
       <c r="N16">
-        <v>0.9687489766433057</v>
+        <v>0.9727408089773378</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9254880830489427</v>
+        <v>0.9472551661916545</v>
       </c>
       <c r="D17">
-        <v>1.007729665548775</v>
+        <v>1.016744756429458</v>
       </c>
       <c r="E17">
-        <v>0.9445131684352074</v>
+        <v>0.9745284214741591</v>
       </c>
       <c r="F17">
-        <v>0.9505811888537967</v>
+        <v>0.9988895159068762</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03572643966092</v>
+        <v>1.042215345969778</v>
       </c>
       <c r="J17">
-        <v>0.9561447703987894</v>
+        <v>0.9769028340374548</v>
       </c>
       <c r="K17">
-        <v>1.021603509639611</v>
+        <v>1.030465424001749</v>
       </c>
       <c r="L17">
-        <v>0.9595694418220652</v>
+        <v>0.9889983025255329</v>
       </c>
       <c r="M17">
-        <v>0.9655149855196216</v>
+        <v>1.012917043987839</v>
       </c>
       <c r="N17">
-        <v>0.971391540778763</v>
+        <v>0.9782901481141092</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9282465227573616</v>
+        <v>0.951005965335461</v>
       </c>
       <c r="D18">
-        <v>1.009075444902846</v>
+        <v>1.01854285233297</v>
       </c>
       <c r="E18">
-        <v>0.9468218456612082</v>
+        <v>0.9775748807774879</v>
       </c>
       <c r="F18">
-        <v>0.9530838744190734</v>
+        <v>1.001515210851134</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036446097976022</v>
+        <v>1.042953654825954</v>
       </c>
       <c r="J18">
-        <v>0.958324002021011</v>
+        <v>0.9800568254644316</v>
       </c>
       <c r="K18">
-        <v>1.022739341798537</v>
+        <v>1.032049008305564</v>
       </c>
       <c r="L18">
-        <v>0.961626299944995</v>
+        <v>0.9917922636805252</v>
       </c>
       <c r="M18">
-        <v>0.967764756741355</v>
+        <v>1.015307840938275</v>
       </c>
       <c r="N18">
-        <v>0.9729032077194482</v>
+        <v>0.9814486185706802</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9291782717332975</v>
+        <v>0.9522697337811067</v>
       </c>
       <c r="D19">
-        <v>1.009530544593072</v>
+        <v>1.019149569354311</v>
       </c>
       <c r="E19">
-        <v>0.947602014756013</v>
+        <v>0.9786018298212433</v>
       </c>
       <c r="F19">
-        <v>0.9539296585849262</v>
+        <v>1.002400638964323</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036688990698618</v>
+        <v>1.043202382728907</v>
       </c>
       <c r="J19">
-        <v>0.9590601182115889</v>
+        <v>0.9811196301733773</v>
       </c>
       <c r="K19">
-        <v>1.023123099467222</v>
+        <v>1.032582928735151</v>
       </c>
       <c r="L19">
-        <v>0.9623211611165928</v>
+        <v>0.9927338473754656</v>
       </c>
       <c r="M19">
-        <v>0.9685248974343849</v>
+        <v>1.016113740818825</v>
       </c>
       <c r="N19">
-        <v>0.9734137943452936</v>
+        <v>0.9825129325842182</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9249764268765127</v>
+        <v>0.9465578570903462</v>
       </c>
       <c r="D20">
-        <v>1.007480298061707</v>
+        <v>1.016410909170778</v>
       </c>
       <c r="E20">
-        <v>0.944085104616296</v>
+        <v>0.9739623018881106</v>
       </c>
       <c r="F20">
-        <v>0.9501171802265032</v>
+        <v>0.9984017438447973</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035592862616078</v>
+        <v>1.042078076560938</v>
       </c>
       <c r="J20">
-        <v>0.955740558519111</v>
+        <v>0.9763165393937039</v>
       </c>
       <c r="K20">
-        <v>1.021392878459968</v>
+        <v>1.030171202613224</v>
       </c>
       <c r="L20">
-        <v>0.9591879676465304</v>
+        <v>0.9884789837857748</v>
       </c>
       <c r="M20">
-        <v>0.9650977864542958</v>
+        <v>1.01247275499874</v>
       </c>
       <c r="N20">
-        <v>0.9711111349498096</v>
+        <v>0.9777030208647153</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9106526304280965</v>
+        <v>0.9268153572941721</v>
       </c>
       <c r="D21">
-        <v>1.000534261047231</v>
+        <v>1.007018606413024</v>
       </c>
       <c r="E21">
-        <v>0.932123168188238</v>
+        <v>0.9579679258531515</v>
       </c>
       <c r="F21">
-        <v>0.9371547773464026</v>
+        <v>0.9846425993457574</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031844633384934</v>
+        <v>1.038193009315186</v>
       </c>
       <c r="J21">
-        <v>0.9444268565155101</v>
+        <v>0.9597269764077145</v>
       </c>
       <c r="K21">
-        <v>1.015505518753923</v>
+        <v>1.021868218091411</v>
       </c>
       <c r="L21">
-        <v>0.9485156571943664</v>
+        <v>0.9737918990437108</v>
       </c>
       <c r="M21">
-        <v>0.9534333072415696</v>
+        <v>0.9999208829185813</v>
       </c>
       <c r="N21">
-        <v>0.9632609779919571</v>
+        <v>0.9610898987964366</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9010668041014204</v>
+        <v>0.9133291037087653</v>
       </c>
       <c r="D22">
-        <v>0.9959267783013492</v>
+        <v>1.00067352714538</v>
       </c>
       <c r="E22">
-        <v>0.9241421074984861</v>
+        <v>0.9470824704306166</v>
       </c>
       <c r="F22">
-        <v>0.9285112628189933</v>
+        <v>0.9753043887302428</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029330447690044</v>
+        <v>1.035544633737173</v>
       </c>
       <c r="J22">
-        <v>0.9368594405885603</v>
+        <v>0.9484081143517631</v>
       </c>
       <c r="K22">
-        <v>1.011579360682098</v>
+        <v>1.016231653129152</v>
       </c>
       <c r="L22">
-        <v>0.9413825844055529</v>
+        <v>0.9637805404281357</v>
       </c>
       <c r="M22">
-        <v>0.945645657918693</v>
+        <v>0.99138147521975</v>
       </c>
       <c r="N22">
-        <v>0.9580088436117361</v>
+        <v>0.9497549626580741</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9062085817002793</v>
+        <v>0.9205933858799874</v>
       </c>
       <c r="D23">
-        <v>0.998393879067367</v>
+        <v>1.004083769292432</v>
       </c>
       <c r="E23">
-        <v>0.9284206314072426</v>
+        <v>0.9529415505213585</v>
       </c>
       <c r="F23">
-        <v>0.9331443548549073</v>
+        <v>0.9803278966276744</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030679350843096</v>
+        <v>1.036970307143084</v>
       </c>
       <c r="J23">
-        <v>0.9409180379465366</v>
+        <v>0.9545033721195025</v>
       </c>
       <c r="K23">
-        <v>1.013683669853588</v>
+        <v>1.019263810846467</v>
       </c>
       <c r="L23">
-        <v>0.945207701821681</v>
+        <v>0.9691706476671496</v>
       </c>
       <c r="M23">
-        <v>0.9498208853995406</v>
+        <v>0.9959772864761464</v>
       </c>
       <c r="N23">
-        <v>0.9608257998671068</v>
+        <v>0.9558588763909792</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9252077881848083</v>
+        <v>0.9468732294988934</v>
       </c>
       <c r="D24">
-        <v>1.007593047240263</v>
+        <v>1.016561881391207</v>
       </c>
       <c r="E24">
-        <v>0.9442786605344968</v>
+        <v>0.9742183314869962</v>
       </c>
       <c r="F24">
-        <v>0.9503269880803348</v>
+        <v>0.998622334317425</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03565326696834</v>
+        <v>1.042140159752474</v>
       </c>
       <c r="J24">
-        <v>0.9559233351498511</v>
+        <v>0.9765817007183142</v>
       </c>
       <c r="K24">
-        <v>1.021488119777567</v>
+        <v>1.030304263051537</v>
       </c>
       <c r="L24">
-        <v>0.9593604612106471</v>
+        <v>0.9887138521793664</v>
       </c>
       <c r="M24">
-        <v>0.9652864318605248</v>
+        <v>1.012673686580372</v>
       </c>
       <c r="N24">
-        <v>0.9712379295419962</v>
+        <v>0.9779685587488209</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9451621124356248</v>
+        <v>0.9737230358273388</v>
       </c>
       <c r="D25">
-        <v>1.017375124572382</v>
+        <v>1.02951238494534</v>
       </c>
       <c r="E25">
-        <v>0.9610117547566763</v>
+        <v>0.9960707096064283</v>
       </c>
       <c r="F25">
-        <v>0.9684706747088305</v>
+        <v>1.017484851125236</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040836329028995</v>
+        <v>1.047418138944576</v>
       </c>
       <c r="J25">
-        <v>0.9716872280756688</v>
+        <v>0.9991682803762677</v>
       </c>
       <c r="K25">
-        <v>1.029709571523501</v>
+        <v>1.04166920433178</v>
       </c>
       <c r="L25">
-        <v>0.9742470500573683</v>
+        <v>1.008730330534401</v>
       </c>
       <c r="M25">
-        <v>0.9815789913727646</v>
+        <v>1.029817668110294</v>
       </c>
       <c r="N25">
-        <v>0.982168961330926</v>
+        <v>1.000587213940606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9929868569988054</v>
+        <v>0.9600802792465831</v>
       </c>
       <c r="D2">
-        <v>1.038908291712153</v>
+        <v>1.031815140294779</v>
       </c>
       <c r="E2">
-        <v>1.011808086998186</v>
+        <v>0.9721129540710629</v>
       </c>
       <c r="F2">
-        <v>1.031105745542274</v>
+        <v>0.9379938153155428</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051181702825482</v>
+        <v>1.044607526687414</v>
       </c>
       <c r="J2">
-        <v>1.015379372655705</v>
+        <v>0.9835242622237459</v>
       </c>
       <c r="K2">
-        <v>1.049850932651927</v>
+        <v>1.042848343347085</v>
       </c>
       <c r="L2">
-        <v>1.023105331493766</v>
+        <v>0.9839749743967884</v>
       </c>
       <c r="M2">
-        <v>1.042148091548398</v>
+        <v>0.9503903665060581</v>
       </c>
       <c r="N2">
-        <v>1.016821327830518</v>
+        <v>0.998772931286032</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005995579896929</v>
+        <v>0.9661519893705702</v>
       </c>
       <c r="D3">
-        <v>1.045293445082237</v>
+        <v>1.036167231334262</v>
       </c>
       <c r="E3">
-        <v>1.022458563554892</v>
+        <v>0.9770037545430242</v>
       </c>
       <c r="F3">
-        <v>1.040337437603028</v>
+        <v>0.9514582190911964</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053702618843447</v>
+        <v>1.047498743326567</v>
       </c>
       <c r="J3">
-        <v>1.026324123149114</v>
+        <v>0.987609933632704</v>
       </c>
       <c r="K3">
-        <v>1.055377819592503</v>
+        <v>1.04635735001012</v>
       </c>
       <c r="L3">
-        <v>1.032811926226915</v>
+        <v>0.987939585550181</v>
       </c>
       <c r="M3">
-        <v>1.050478952188203</v>
+        <v>0.9627523363640655</v>
       </c>
       <c r="N3">
-        <v>1.027781621125009</v>
+        <v>1.000122784845165</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014027454064637</v>
+        <v>0.9699181703566142</v>
       </c>
       <c r="D4">
-        <v>1.049249149648646</v>
+        <v>1.038822416968255</v>
       </c>
       <c r="E4">
-        <v>1.029042348754647</v>
+        <v>0.9800420877166193</v>
       </c>
       <c r="F4">
-        <v>1.046048488849969</v>
+        <v>0.9595654162308654</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055247685290301</v>
+        <v>1.049221927815587</v>
       </c>
       <c r="J4">
-        <v>1.033079017441627</v>
+        <v>0.9901239816509302</v>
       </c>
       <c r="K4">
-        <v>1.058787408376126</v>
+        <v>1.048473823875406</v>
       </c>
       <c r="L4">
-        <v>1.038802452080259</v>
+        <v>0.9903875087400944</v>
       </c>
       <c r="M4">
-        <v>1.055621186109553</v>
+        <v>0.9701776576550019</v>
       </c>
       <c r="N4">
-        <v>1.034546108142214</v>
+        <v>1.00095341758077</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017320089409171</v>
+        <v>0.9714659167292619</v>
       </c>
       <c r="D5">
-        <v>1.050873320292833</v>
+        <v>1.039903368905388</v>
       </c>
       <c r="E5">
-        <v>1.031742908091123</v>
+        <v>0.9812918427229552</v>
       </c>
       <c r="F5">
-        <v>1.048391852809543</v>
+        <v>0.9628436808587406</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055878096596806</v>
+        <v>1.049913953873693</v>
       </c>
       <c r="J5">
-        <v>1.035847339506483</v>
+        <v>0.9911526393582418</v>
       </c>
       <c r="K5">
-        <v>1.06018400367502</v>
+        <v>1.049329775045559</v>
       </c>
       <c r="L5">
-        <v>1.041257357652017</v>
+        <v>0.9913910102285883</v>
       </c>
       <c r="M5">
-        <v>1.057728454344655</v>
+        <v>0.9731757815535907</v>
       </c>
       <c r="N5">
-        <v>1.037318361541933</v>
+        <v>1.001293282080033</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01786823422899</v>
+        <v>0.9717237926282792</v>
       </c>
       <c r="D6">
-        <v>1.05114383770436</v>
+        <v>1.04008287917726</v>
       </c>
       <c r="E6">
-        <v>1.032192569254663</v>
+        <v>0.9815001353693954</v>
       </c>
       <c r="F6">
-        <v>1.048782078094419</v>
+        <v>0.9633868722815943</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055982862747456</v>
+        <v>1.050028323364164</v>
       </c>
       <c r="J6">
-        <v>1.036308145466466</v>
+        <v>0.9913237709286173</v>
       </c>
       <c r="K6">
-        <v>1.060416422764383</v>
+        <v>1.049471588896085</v>
       </c>
       <c r="L6">
-        <v>1.041665980961163</v>
+        <v>0.9915580657822295</v>
       </c>
       <c r="M6">
-        <v>1.058079207145963</v>
+        <v>0.9736722925494504</v>
       </c>
       <c r="N6">
-        <v>1.037779821899235</v>
+        <v>1.001349823096984</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01407177019874</v>
+        <v>0.969938987095889</v>
       </c>
       <c r="D7">
-        <v>1.049271000351368</v>
+        <v>1.038836995526501</v>
       </c>
       <c r="E7">
-        <v>1.029078690256696</v>
+        <v>0.9800588920944885</v>
       </c>
       <c r="F7">
-        <v>1.046080020753786</v>
+        <v>0.9596097138399751</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05525618225214</v>
+        <v>1.049231298537544</v>
       </c>
       <c r="J7">
-        <v>1.033116280242533</v>
+        <v>0.9901378343034067</v>
       </c>
       <c r="K7">
-        <v>1.058806210548561</v>
+        <v>1.048485390365958</v>
       </c>
       <c r="L7">
-        <v>1.038835496930985</v>
+        <v>0.9904010152001325</v>
       </c>
       <c r="M7">
-        <v>1.055649551776076</v>
+        <v>0.970218187586936</v>
       </c>
       <c r="N7">
-        <v>1.034583423860571</v>
+        <v>1.000957994452371</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9974685086268916</v>
+        <v>0.9621681456469329</v>
       </c>
       <c r="D8">
-        <v>1.041104754598607</v>
+        <v>1.033321420307446</v>
       </c>
       <c r="E8">
-        <v>1.015475369740839</v>
+        <v>0.9737937625990695</v>
       </c>
       <c r="F8">
-        <v>1.034283411774443</v>
+        <v>0.9426794311547609</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052052457803352</v>
+        <v>1.045617156845438</v>
       </c>
       <c r="J8">
-        <v>1.019150399782492</v>
+        <v>0.9849337341957484</v>
       </c>
       <c r="K8">
-        <v>1.051755298634117</v>
+        <v>1.044068183512438</v>
       </c>
       <c r="L8">
-        <v>1.026449719419116</v>
+        <v>0.9853408178700562</v>
       </c>
       <c r="M8">
-        <v>1.045018184934032</v>
+        <v>0.95469621395268</v>
       </c>
       <c r="N8">
-        <v>1.020597710248368</v>
+        <v>0.9992385937079324</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9647999416517877</v>
+        <v>0.9470357689938277</v>
       </c>
       <c r="D9">
-        <v>1.025188136551897</v>
+        <v>1.02218085233056</v>
       </c>
       <c r="E9">
-        <v>0.9887969479510086</v>
+        <v>0.9616311382635724</v>
       </c>
       <c r="F9">
-        <v>1.011199043867976</v>
+        <v>0.9073300782567345</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045666681536245</v>
+        <v>1.037944974257698</v>
       </c>
       <c r="J9">
-        <v>0.9916600135119706</v>
+        <v>0.9746082014980861</v>
       </c>
       <c r="K9">
-        <v>1.037885357147006</v>
+        <v>1.034924026681158</v>
       </c>
       <c r="L9">
-        <v>1.002074440146249</v>
+        <v>0.9753789899588671</v>
       </c>
       <c r="M9">
-        <v>1.024113000380057</v>
+        <v>0.9221297843557321</v>
       </c>
       <c r="N9">
-        <v>0.993068284476151</v>
+        <v>0.9958276674905048</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9399051037571707</v>
+        <v>0.9356042283606371</v>
       </c>
       <c r="D10">
-        <v>1.013232843336995</v>
+        <v>1.013423710430131</v>
       </c>
       <c r="E10">
-        <v>0.9685651566074048</v>
+        <v>0.9524649206712114</v>
       </c>
       <c r="F10">
-        <v>0.9937540822263979</v>
+        <v>0.8782801775570868</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040768430012299</v>
+        <v>1.031608946897174</v>
       </c>
       <c r="J10">
-        <v>0.9707240113161922</v>
+        <v>0.9666281648452164</v>
       </c>
       <c r="K10">
-        <v>1.027367215567196</v>
+        <v>1.027554752891009</v>
       </c>
       <c r="L10">
-        <v>0.9835261590309278</v>
+        <v>0.9677489632394454</v>
       </c>
       <c r="M10">
-        <v>1.008237031866325</v>
+        <v>0.8952599837580832</v>
       </c>
       <c r="N10">
-        <v>0.9721025507558617</v>
+        <v>0.9931926302967046</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9281245955733016</v>
+        <v>0.930199074693678</v>
       </c>
       <c r="D11">
-        <v>1.007637752424589</v>
+        <v>1.009177069429465</v>
       </c>
       <c r="E11">
-        <v>0.959026494828689</v>
+        <v>0.9481338076538761</v>
       </c>
       <c r="F11">
-        <v>0.9855518748176656</v>
+        <v>0.8637262682050852</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038450443502251</v>
+        <v>1.02844659719144</v>
       </c>
       <c r="J11">
-        <v>0.960826454846653</v>
+        <v>0.9627943516967339</v>
       </c>
       <c r="K11">
-        <v>1.022417055130944</v>
+        <v>1.023927970271594</v>
       </c>
       <c r="L11">
-        <v>0.9747648104034866</v>
+        <v>0.964104930347269</v>
       </c>
       <c r="M11">
-        <v>1.00075150392491</v>
+        <v>0.8817740932582337</v>
       </c>
       <c r="N11">
-        <v>0.9621909386208702</v>
+        <v>0.9919271800116263</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9235673502803591</v>
+        <v>0.9281041522515869</v>
       </c>
       <c r="D12">
-        <v>1.005484983560757</v>
+        <v>1.007511881046248</v>
       </c>
       <c r="E12">
-        <v>0.955343146538015</v>
+        <v>0.9464552203797634</v>
       </c>
       <c r="F12">
-        <v>0.982388876333846</v>
+        <v>0.8579276001315274</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03755457272286</v>
+        <v>1.027190884032118</v>
       </c>
       <c r="J12">
-        <v>0.9569998197694286</v>
+        <v>0.9612969262878786</v>
       </c>
       <c r="K12">
-        <v>1.020507849024052</v>
+        <v>1.02249656658568</v>
       </c>
       <c r="L12">
-        <v>0.97137900377724</v>
+        <v>0.962685547317926</v>
       </c>
       <c r="M12">
-        <v>0.9978614383563104</v>
+        <v>0.8763975230706985</v>
       </c>
       <c r="N12">
-        <v>0.9583588692829149</v>
+        <v>0.9914330179212287</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9245537135323944</v>
+        <v>0.9285578753024668</v>
       </c>
       <c r="D13">
-        <v>1.005950357493722</v>
+        <v>1.007873468702952</v>
       </c>
       <c r="E13">
-        <v>0.956140040208882</v>
+        <v>0.9468187786880408</v>
       </c>
       <c r="F13">
-        <v>0.9830729829337371</v>
+        <v>0.8591913230425029</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037748420300736</v>
+        <v>1.027464305753657</v>
       </c>
       <c r="J13">
-        <v>0.9578279375651284</v>
+        <v>0.9616218109897106</v>
       </c>
       <c r="K13">
-        <v>1.020920785066617</v>
+        <v>1.022807831572998</v>
       </c>
       <c r="L13">
-        <v>0.9721116448023981</v>
+        <v>0.9629933101804407</v>
       </c>
       <c r="M13">
-        <v>0.9984866738911524</v>
+        <v>0.877569405620477</v>
       </c>
       <c r="N13">
-        <v>0.9591881631008707</v>
+        <v>0.9915402272336623</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9277518087687785</v>
+        <v>0.9300278299171266</v>
       </c>
       <c r="D14">
-        <v>1.007461403840447</v>
+        <v>1.009041364617169</v>
       </c>
       <c r="E14">
-        <v>0.95872505075885</v>
+        <v>0.9479965970991737</v>
       </c>
       <c r="F14">
-        <v>0.9852929239448083</v>
+        <v>0.8632557003666671</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038377138095085</v>
+        <v>1.028344592802496</v>
       </c>
       <c r="J14">
-        <v>0.9605133833029177</v>
+        <v>0.962672197414449</v>
       </c>
       <c r="K14">
-        <v>1.022260753690702</v>
+        <v>1.023811512732435</v>
       </c>
       <c r="L14">
-        <v>0.9744877707662218</v>
+        <v>0.9639890591246802</v>
       </c>
       <c r="M14">
-        <v>1.000514968887216</v>
+        <v>0.8813378457969919</v>
       </c>
       <c r="N14">
-        <v>0.9618774224796327</v>
+        <v>0.9918868658873945</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9296971218877474</v>
+        <v>0.930921239360784</v>
       </c>
       <c r="D15">
-        <v>1.008382128547228</v>
+        <v>1.009748557835995</v>
       </c>
       <c r="E15">
-        <v>0.9602983526993403</v>
+        <v>0.9487124445251183</v>
       </c>
       <c r="F15">
-        <v>0.9866446229274215</v>
+        <v>0.8657041278314405</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038759706742376</v>
+        <v>1.02887552096658</v>
       </c>
       <c r="J15">
-        <v>0.9621471778093443</v>
+        <v>0.9633090141482057</v>
       </c>
       <c r="K15">
-        <v>1.023076623603355</v>
+        <v>1.024418023398639</v>
       </c>
       <c r="L15">
-        <v>0.9759335942238843</v>
+        <v>0.9645932825300266</v>
       </c>
       <c r="M15">
-        <v>1.001749518859269</v>
+        <v>0.8836075649409908</v>
       </c>
       <c r="N15">
-        <v>0.9635135371616573</v>
+        <v>0.9920970364483221</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9406634092685792</v>
+        <v>0.9359519488668505</v>
       </c>
       <c r="D16">
-        <v>1.01359443839399</v>
+        <v>1.013694510140384</v>
       </c>
       <c r="E16">
-        <v>0.9691799739336242</v>
+        <v>0.9527435796528216</v>
       </c>
       <c r="F16">
-        <v>0.9942832848294023</v>
+        <v>0.8791973235823533</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040917701176947</v>
+        <v>1.031808643334896</v>
       </c>
       <c r="J16">
-        <v>0.9713613644231511</v>
+        <v>0.9668733950746987</v>
       </c>
       <c r="K16">
-        <v>1.027686533844531</v>
+        <v>1.027784866309345</v>
       </c>
       <c r="L16">
-        <v>0.9840905292840055</v>
+        <v>0.9679825381308764</v>
       </c>
       <c r="M16">
-        <v>1.008719545414808</v>
+        <v>0.8961093626582806</v>
       </c>
       <c r="N16">
-        <v>0.9727408089773378</v>
+        <v>0.9932735869120267</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9472551661916545</v>
+        <v>0.9389749383372759</v>
       </c>
       <c r="D17">
-        <v>1.016744756429458</v>
+        <v>1.016036877997045</v>
       </c>
       <c r="E17">
-        <v>0.9745284214741591</v>
+        <v>0.9551664677471415</v>
       </c>
       <c r="F17">
-        <v>0.9988895159068762</v>
+        <v>0.8870782907731856</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042215345969778</v>
+        <v>1.033526083544801</v>
       </c>
       <c r="J17">
-        <v>0.9769028340374548</v>
+        <v>0.9689985253335578</v>
       </c>
       <c r="K17">
-        <v>1.030465424001749</v>
+        <v>1.029769446398501</v>
       </c>
       <c r="L17">
-        <v>0.9889983025255329</v>
+        <v>0.9700090711126879</v>
       </c>
       <c r="M17">
-        <v>1.012917043987839</v>
+        <v>0.9034054500557147</v>
       </c>
       <c r="N17">
-        <v>0.9782901481141092</v>
+        <v>0.9939752009314966</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.951005965335461</v>
+        <v>0.9406958702052081</v>
       </c>
       <c r="D18">
-        <v>1.01854285233297</v>
+        <v>1.017360925212524</v>
       </c>
       <c r="E18">
-        <v>0.9775748807774879</v>
+        <v>0.9565460723134857</v>
       </c>
       <c r="F18">
-        <v>1.001515210851134</v>
+        <v>0.8914927742627103</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042953654825954</v>
+        <v>1.034488977705626</v>
       </c>
       <c r="J18">
-        <v>0.9800568254644316</v>
+        <v>0.9702029744933832</v>
       </c>
       <c r="K18">
-        <v>1.032049008305564</v>
+        <v>1.030886567448869</v>
       </c>
       <c r="L18">
-        <v>0.9917922636805252</v>
+        <v>0.9711595434934623</v>
       </c>
       <c r="M18">
-        <v>1.015307840938275</v>
+        <v>0.9074901689868261</v>
       </c>
       <c r="N18">
-        <v>0.9814486185706802</v>
+        <v>0.9943728931420643</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9522697337811067</v>
+        <v>0.9412759238613039</v>
       </c>
       <c r="D19">
-        <v>1.019149569354311</v>
+        <v>1.017805682100648</v>
       </c>
       <c r="E19">
-        <v>0.9786018298212433</v>
+        <v>0.9570111374281214</v>
       </c>
       <c r="F19">
-        <v>1.002400638964323</v>
+        <v>0.8929692728510142</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043202382728907</v>
+        <v>1.034811128297176</v>
       </c>
       <c r="J19">
-        <v>0.9811196301733773</v>
+        <v>0.9706080897829842</v>
       </c>
       <c r="K19">
-        <v>1.032582928735151</v>
+        <v>1.031261050379158</v>
       </c>
       <c r="L19">
-        <v>0.9927338473754656</v>
+        <v>0.9715468118774502</v>
       </c>
       <c r="M19">
-        <v>1.016113740818825</v>
+        <v>0.9088560034896076</v>
       </c>
       <c r="N19">
-        <v>0.9825129325842182</v>
+        <v>0.9945066629941398</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9465578570903462</v>
+        <v>0.9386550870144625</v>
       </c>
       <c r="D20">
-        <v>1.016410909170778</v>
+        <v>1.015790042594436</v>
       </c>
       <c r="E20">
-        <v>0.9739623018881106</v>
+        <v>0.9549100816504518</v>
       </c>
       <c r="F20">
-        <v>0.9984017438447973</v>
+        <v>0.886252145663137</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042078076560938</v>
+        <v>1.033345941936473</v>
       </c>
       <c r="J20">
-        <v>0.9763165393937039</v>
+        <v>0.9687742448286928</v>
       </c>
       <c r="K20">
-        <v>1.030171202613224</v>
+        <v>1.029560811467495</v>
       </c>
       <c r="L20">
-        <v>0.9884789837857748</v>
+        <v>0.9697949933907634</v>
       </c>
       <c r="M20">
-        <v>1.01247275499874</v>
+        <v>0.9026408410432668</v>
       </c>
       <c r="N20">
-        <v>0.9777030208647153</v>
+        <v>0.9939011499232973</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9268153572941721</v>
+        <v>0.9295975713548787</v>
       </c>
       <c r="D21">
-        <v>1.007018606413024</v>
+        <v>1.008700079414342</v>
       </c>
       <c r="E21">
-        <v>0.9579679258531515</v>
+        <v>0.9476518499651606</v>
       </c>
       <c r="F21">
-        <v>0.9846425993457574</v>
+        <v>0.8620707133309323</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038193009315186</v>
+        <v>1.028087802054034</v>
       </c>
       <c r="J21">
-        <v>0.9597269764077145</v>
+        <v>0.9623650862724913</v>
       </c>
       <c r="K21">
-        <v>1.021868218091411</v>
+        <v>1.023518479691996</v>
       </c>
       <c r="L21">
-        <v>0.9737918990437108</v>
+        <v>0.9636978095700165</v>
       </c>
       <c r="M21">
-        <v>0.9999208829185813</v>
+        <v>0.8802392310914785</v>
       </c>
       <c r="N21">
-        <v>0.9610898987964366</v>
+        <v>0.9917855128859727</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9133291037087653</v>
+        <v>0.9233802555359234</v>
       </c>
       <c r="D22">
-        <v>1.00067352714538</v>
+        <v>1.003715551960675</v>
       </c>
       <c r="E22">
-        <v>0.9470824704306166</v>
+        <v>0.9426695551794549</v>
       </c>
       <c r="F22">
-        <v>0.9753043887302428</v>
+        <v>0.8445004502127745</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035544633737173</v>
+        <v>1.024295095910515</v>
       </c>
       <c r="J22">
-        <v>0.9484081143517631</v>
+        <v>0.9578948954030269</v>
       </c>
       <c r="K22">
-        <v>1.016231653129152</v>
+        <v>1.019213760647293</v>
       </c>
       <c r="L22">
-        <v>0.9637805404281357</v>
+        <v>0.9594692229658663</v>
       </c>
       <c r="M22">
-        <v>0.99138147521975</v>
+        <v>0.8639416300720062</v>
       </c>
       <c r="N22">
-        <v>0.9497549626580741</v>
+        <v>0.9903105576299795</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9205933858799874</v>
+        <v>0.9267349134409841</v>
       </c>
       <c r="D23">
-        <v>1.004083769292432</v>
+        <v>1.006417500470316</v>
       </c>
       <c r="E23">
-        <v>0.9529415505213585</v>
+        <v>0.9453580433675681</v>
       </c>
       <c r="F23">
-        <v>0.9803278966276744</v>
+        <v>0.8540870605422911</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036970307143084</v>
+        <v>1.026360812608363</v>
       </c>
       <c r="J23">
-        <v>0.9545033721195025</v>
+        <v>0.9603145452691817</v>
       </c>
       <c r="K23">
-        <v>1.019263810846467</v>
+        <v>1.021552997301747</v>
       </c>
       <c r="L23">
-        <v>0.9691706476671496</v>
+        <v>0.9617555833072204</v>
       </c>
       <c r="M23">
-        <v>0.9959772864761464</v>
+        <v>0.8728356124079932</v>
       </c>
       <c r="N23">
-        <v>0.9558588763909792</v>
+        <v>0.9911088581272826</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9468732294988934</v>
+        <v>0.93879974357177</v>
       </c>
       <c r="D24">
-        <v>1.016561881391207</v>
+        <v>1.015901706017357</v>
       </c>
       <c r="E24">
-        <v>0.9742183314869962</v>
+        <v>0.9550260343477207</v>
       </c>
       <c r="F24">
-        <v>0.998622334317425</v>
+        <v>0.886626002062466</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042140159752474</v>
+        <v>1.033427459022749</v>
       </c>
       <c r="J24">
-        <v>0.9765817007183142</v>
+        <v>0.9688756948849164</v>
       </c>
       <c r="K24">
-        <v>1.030304263051537</v>
+        <v>1.02965520833453</v>
       </c>
       <c r="L24">
-        <v>0.9887138521793664</v>
+        <v>0.9698918224526494</v>
       </c>
       <c r="M24">
-        <v>1.012673686580372</v>
+        <v>0.9029868572014307</v>
       </c>
       <c r="N24">
-        <v>0.9779685587488209</v>
+        <v>0.9939346457008087</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9737230358273388</v>
+        <v>0.9511502680656092</v>
       </c>
       <c r="D25">
-        <v>1.02951238494534</v>
+        <v>1.02526080473432</v>
       </c>
       <c r="E25">
-        <v>0.9960707096064283</v>
+        <v>0.9649341031697116</v>
       </c>
       <c r="F25">
-        <v>1.017484851125236</v>
+        <v>0.9172698104894952</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047418138944576</v>
+        <v>1.040111714732703</v>
       </c>
       <c r="J25">
-        <v>0.9991682803762677</v>
+        <v>0.9774413799454922</v>
       </c>
       <c r="K25">
-        <v>1.04166920433178</v>
+        <v>1.037479238517079</v>
       </c>
       <c r="L25">
-        <v>1.008730330534401</v>
+        <v>0.9781023094660869</v>
       </c>
       <c r="M25">
-        <v>1.029817668110294</v>
+        <v>0.9313042541569533</v>
       </c>
       <c r="N25">
-        <v>1.000587213940606</v>
+        <v>0.9967634559710346</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9600802792465831</v>
+        <v>1.00753248725116</v>
       </c>
       <c r="D2">
-        <v>1.031815140294779</v>
+        <v>1.032573116818584</v>
       </c>
       <c r="E2">
-        <v>0.9721129540710629</v>
+        <v>1.010223396258179</v>
       </c>
       <c r="F2">
-        <v>0.9379938153155428</v>
+        <v>1.019411235485953</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044607526687414</v>
+        <v>1.0318397195802</v>
       </c>
       <c r="J2">
-        <v>0.9835242622237459</v>
+        <v>1.012803578957126</v>
       </c>
       <c r="K2">
-        <v>1.042848343347085</v>
+        <v>1.035377958160746</v>
       </c>
       <c r="L2">
-        <v>0.9839749743967884</v>
+        <v>1.013094236733674</v>
       </c>
       <c r="M2">
-        <v>0.9503903665060581</v>
+        <v>1.022254562761938</v>
       </c>
       <c r="N2">
-        <v>0.998772931286032</v>
+        <v>1.008451638386829</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9661519893705702</v>
+        <v>1.008616901131992</v>
       </c>
       <c r="D3">
-        <v>1.036167231334262</v>
+        <v>1.03315344718361</v>
       </c>
       <c r="E3">
-        <v>0.9770037545430242</v>
+        <v>1.011144145563421</v>
       </c>
       <c r="F3">
-        <v>0.9514582190911964</v>
+        <v>1.021223612924085</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047498743326567</v>
+        <v>1.032066743719867</v>
       </c>
       <c r="J3">
-        <v>0.987609933632704</v>
+        <v>1.013518791284481</v>
       </c>
       <c r="K3">
-        <v>1.04635735001012</v>
+        <v>1.035767700122445</v>
       </c>
       <c r="L3">
-        <v>0.987939585550181</v>
+        <v>1.013818686456051</v>
       </c>
       <c r="M3">
-        <v>0.9627523363640655</v>
+        <v>1.023870194768746</v>
       </c>
       <c r="N3">
-        <v>1.000122784845165</v>
+        <v>1.008687483636365</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9699181703566142</v>
+        <v>1.009315478686534</v>
       </c>
       <c r="D4">
-        <v>1.038822416968255</v>
+        <v>1.033523199915388</v>
       </c>
       <c r="E4">
-        <v>0.9800420877166193</v>
+        <v>1.011737666924019</v>
       </c>
       <c r="F4">
-        <v>0.9595654162308654</v>
+        <v>1.022375100212514</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049221927815587</v>
+        <v>1.032206753471097</v>
       </c>
       <c r="J4">
-        <v>0.9901239816509302</v>
+        <v>1.013977996876173</v>
       </c>
       <c r="K4">
-        <v>1.048473823875406</v>
+        <v>1.036013444365753</v>
       </c>
       <c r="L4">
-        <v>0.9903875087400944</v>
+        <v>1.014284577800729</v>
       </c>
       <c r="M4">
-        <v>0.9701776576550019</v>
+        <v>1.024894016334502</v>
       </c>
       <c r="N4">
-        <v>1.00095341758077</v>
+        <v>1.008838887407205</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9714659167292619</v>
+        <v>1.009608423454855</v>
       </c>
       <c r="D5">
-        <v>1.039903368905388</v>
+        <v>1.03367726864701</v>
       </c>
       <c r="E5">
-        <v>0.9812918427229552</v>
+        <v>1.011986646706227</v>
       </c>
       <c r="F5">
-        <v>0.9628436808587406</v>
+        <v>1.022854136893522</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049913953873693</v>
+        <v>1.032263967600344</v>
       </c>
       <c r="J5">
-        <v>0.9911526393582418</v>
+        <v>1.014170194919927</v>
       </c>
       <c r="K5">
-        <v>1.049329775045559</v>
+        <v>1.036115215873595</v>
       </c>
       <c r="L5">
-        <v>0.9913910102285883</v>
+        <v>1.01447975546556</v>
       </c>
       <c r="M5">
-        <v>0.9731757815535907</v>
+        <v>1.025319293246648</v>
       </c>
       <c r="N5">
-        <v>1.001293282080033</v>
+        <v>1.008902251376798</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9717237926282792</v>
+        <v>1.00965756714841</v>
       </c>
       <c r="D6">
-        <v>1.04008287917726</v>
+        <v>1.033703056910239</v>
       </c>
       <c r="E6">
-        <v>0.9815001353693954</v>
+        <v>1.012028420198448</v>
       </c>
       <c r="F6">
-        <v>0.9633868722815943</v>
+        <v>1.022934274236596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050028323364164</v>
+        <v>1.032273477676487</v>
       </c>
       <c r="J6">
-        <v>0.9913237709286173</v>
+        <v>1.014202416028223</v>
       </c>
       <c r="K6">
-        <v>1.049471588896085</v>
+        <v>1.036132213581076</v>
       </c>
       <c r="L6">
-        <v>0.9915580657822295</v>
+        <v>1.01451248675224</v>
       </c>
       <c r="M6">
-        <v>0.9736722925494504</v>
+        <v>1.025390398767039</v>
       </c>
       <c r="N6">
-        <v>1.001349823096984</v>
+        <v>1.00891287374132</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.969938987095889</v>
+        <v>1.009319395915563</v>
       </c>
       <c r="D7">
-        <v>1.038836995526501</v>
+        <v>1.033525263988517</v>
       </c>
       <c r="E7">
-        <v>0.9800588920944885</v>
+        <v>1.011740995904858</v>
       </c>
       <c r="F7">
-        <v>0.9596097138399751</v>
+        <v>1.022381520913021</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049231298537544</v>
+        <v>1.032207524431952</v>
       </c>
       <c r="J7">
-        <v>0.9901378343034067</v>
+        <v>1.013980568375273</v>
       </c>
       <c r="K7">
-        <v>1.048485390365958</v>
+        <v>1.036014810285556</v>
       </c>
       <c r="L7">
-        <v>0.9904010152001325</v>
+        <v>1.014287188450798</v>
       </c>
       <c r="M7">
-        <v>0.970218187586936</v>
+        <v>1.024899719048859</v>
       </c>
       <c r="N7">
-        <v>1.000957994452371</v>
+        <v>1.008839735201407</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9621681456469329</v>
+        <v>1.007899618740386</v>
       </c>
       <c r="D8">
-        <v>1.033321420307446</v>
+        <v>1.032770437129139</v>
       </c>
       <c r="E8">
-        <v>0.9737937625990695</v>
+        <v>1.01053504030171</v>
       </c>
       <c r="F8">
-        <v>0.9426794311547609</v>
+        <v>1.020028158164776</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045617156845438</v>
+        <v>1.03191787236856</v>
       </c>
       <c r="J8">
-        <v>0.9849337341957484</v>
+        <v>1.013046034379705</v>
       </c>
       <c r="K8">
-        <v>1.044068183512438</v>
+        <v>1.035511010037386</v>
       </c>
       <c r="L8">
-        <v>0.9853408178700562</v>
+        <v>1.013339666834163</v>
       </c>
       <c r="M8">
-        <v>0.95469621395268</v>
+        <v>1.022805066567785</v>
       </c>
       <c r="N8">
-        <v>0.9992385937079324</v>
+        <v>1.008531593931909</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9470357689938277</v>
+        <v>1.005373606920761</v>
       </c>
       <c r="D9">
-        <v>1.02218085233056</v>
+        <v>1.031396031062528</v>
       </c>
       <c r="E9">
-        <v>0.9616311382635724</v>
+        <v>1.008392371870897</v>
       </c>
       <c r="F9">
-        <v>0.9073300782567345</v>
+        <v>1.015716767510367</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037944974257698</v>
+        <v>1.031354511930706</v>
       </c>
       <c r="J9">
-        <v>0.9746082014980861</v>
+        <v>1.011371512972327</v>
       </c>
       <c r="K9">
-        <v>1.034924026681158</v>
+        <v>1.034573701087805</v>
       </c>
       <c r="L9">
-        <v>0.9753789899588671</v>
+        <v>1.011647720046818</v>
       </c>
       <c r="M9">
-        <v>0.9221297843557321</v>
+        <v>1.01894696320431</v>
       </c>
       <c r="N9">
-        <v>0.9958276674905048</v>
+        <v>1.007979290875204</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9356042283606371</v>
+        <v>1.003672803897405</v>
       </c>
       <c r="D10">
-        <v>1.013423710430131</v>
+        <v>1.030449659063463</v>
       </c>
       <c r="E10">
-        <v>0.9524649206712114</v>
+        <v>1.006951666841062</v>
       </c>
       <c r="F10">
-        <v>0.8782801775570868</v>
+        <v>1.012729267473493</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031608946897174</v>
+        <v>1.030943028294413</v>
       </c>
       <c r="J10">
-        <v>0.9666281648452164</v>
+        <v>1.010236053948717</v>
       </c>
       <c r="K10">
-        <v>1.027554752891009</v>
+        <v>1.033915206272555</v>
       </c>
       <c r="L10">
-        <v>0.9677489632394454</v>
+        <v>1.010504366685369</v>
       </c>
       <c r="M10">
-        <v>0.8952599837580832</v>
+        <v>1.016260123399946</v>
       </c>
       <c r="N10">
-        <v>0.9931926302967046</v>
+        <v>1.007604674811571</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.930199074693678</v>
+        <v>1.002932224655331</v>
       </c>
       <c r="D11">
-        <v>1.009177069429465</v>
+        <v>1.030032647105261</v>
       </c>
       <c r="E11">
-        <v>0.9481338076538761</v>
+        <v>1.006324817465804</v>
       </c>
       <c r="F11">
-        <v>0.8637262682050852</v>
+        <v>1.011408144054811</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02844659719144</v>
+        <v>1.03075625361507</v>
       </c>
       <c r="J11">
-        <v>0.9627943516967339</v>
+        <v>1.009739744587624</v>
       </c>
       <c r="K11">
-        <v>1.023927970271594</v>
+        <v>1.033622014523531</v>
       </c>
       <c r="L11">
-        <v>0.964104930347269</v>
+        <v>1.010005534450627</v>
       </c>
       <c r="M11">
-        <v>0.8817740932582337</v>
+        <v>1.015068873702881</v>
       </c>
       <c r="N11">
-        <v>0.9919271800116263</v>
+        <v>1.007440904412309</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9281041522515869</v>
+        <v>1.002656509699459</v>
       </c>
       <c r="D12">
-        <v>1.007511881046248</v>
+        <v>1.029876656505176</v>
       </c>
       <c r="E12">
-        <v>0.9464552203797634</v>
+        <v>1.006091515535646</v>
       </c>
       <c r="F12">
-        <v>0.8579276001315274</v>
+        <v>1.010913227018937</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027190884032118</v>
+        <v>1.03068557737884</v>
       </c>
       <c r="J12">
-        <v>0.9612969262878786</v>
+        <v>1.009554684715342</v>
       </c>
       <c r="K12">
-        <v>1.02249656658568</v>
+        <v>1.033511891315245</v>
       </c>
       <c r="L12">
-        <v>0.962685547317926</v>
+        <v>1.009819673153888</v>
       </c>
       <c r="M12">
-        <v>0.8763975230706985</v>
+        <v>1.014622154482272</v>
       </c>
       <c r="N12">
-        <v>0.9914330179212287</v>
+        <v>1.007379835210691</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9285578753024668</v>
+        <v>1.002715680237042</v>
       </c>
       <c r="D13">
-        <v>1.007873468702952</v>
+        <v>1.029910166651713</v>
       </c>
       <c r="E13">
-        <v>0.9468187786880408</v>
+        <v>1.006141580659501</v>
       </c>
       <c r="F13">
-        <v>0.8591913230425029</v>
+        <v>1.011019579125553</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027464305753657</v>
+        <v>1.030700796622887</v>
       </c>
       <c r="J13">
-        <v>0.9616218109897106</v>
+        <v>1.009594412915329</v>
       </c>
       <c r="K13">
-        <v>1.022807831572998</v>
+        <v>1.033535568402463</v>
       </c>
       <c r="L13">
-        <v>0.9629933101804407</v>
+        <v>1.009859567102926</v>
       </c>
       <c r="M13">
-        <v>0.877569405620477</v>
+        <v>1.014718169875498</v>
       </c>
       <c r="N13">
-        <v>0.9915402272336623</v>
+        <v>1.00739294556844</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9300278299171266</v>
+        <v>1.002909446910748</v>
       </c>
       <c r="D14">
-        <v>1.009041364617169</v>
+        <v>1.030019775235722</v>
       </c>
       <c r="E14">
-        <v>0.9479965970991737</v>
+        <v>1.006305542138783</v>
       </c>
       <c r="F14">
-        <v>0.8632557003666671</v>
+        <v>1.01136731994632</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028344592802496</v>
+        <v>1.030750438058509</v>
       </c>
       <c r="J14">
-        <v>0.962672197414449</v>
+        <v>1.009724461994317</v>
       </c>
       <c r="K14">
-        <v>1.023811512732435</v>
+        <v>1.033612936615005</v>
       </c>
       <c r="L14">
-        <v>0.9639890591246802</v>
+        <v>1.009990182836506</v>
       </c>
       <c r="M14">
-        <v>0.8813378457969919</v>
+        <v>1.015032034495197</v>
       </c>
       <c r="N14">
-        <v>0.9918868658873945</v>
+        <v>1.007435861279637</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.930921239360784</v>
+        <v>1.003028748996229</v>
       </c>
       <c r="D15">
-        <v>1.009748557835995</v>
+        <v>1.030087163511143</v>
       </c>
       <c r="E15">
-        <v>0.9487124445251183</v>
+        <v>1.006406502691489</v>
       </c>
       <c r="F15">
-        <v>0.8657041278314405</v>
+        <v>1.011581017115706</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02887552096658</v>
+        <v>1.030780851303915</v>
       </c>
       <c r="J15">
-        <v>0.9633090141482057</v>
+        <v>1.00980449533094</v>
       </c>
       <c r="K15">
-        <v>1.024418023398639</v>
+        <v>1.033660443980835</v>
       </c>
       <c r="L15">
-        <v>0.9645932825300266</v>
+        <v>1.010070583322728</v>
       </c>
       <c r="M15">
-        <v>0.8836075649409908</v>
+        <v>1.01522485383715</v>
       </c>
       <c r="N15">
-        <v>0.9920970364483221</v>
+        <v>1.007462271480774</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9359519488668505</v>
+        <v>1.003721865896529</v>
       </c>
       <c r="D16">
-        <v>1.013694510140384</v>
+        <v>1.030477181843028</v>
       </c>
       <c r="E16">
-        <v>0.9527435796528216</v>
+        <v>1.006993204476967</v>
       </c>
       <c r="F16">
-        <v>0.8791973235823533</v>
+        <v>1.012816361385507</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031808643334896</v>
+        <v>1.030955242079252</v>
       </c>
       <c r="J16">
-        <v>0.9668733950746987</v>
+        <v>1.010268893582022</v>
       </c>
       <c r="K16">
-        <v>1.027784866309345</v>
+        <v>1.033934493983286</v>
       </c>
       <c r="L16">
-        <v>0.9679825381308764</v>
+        <v>1.010537392716253</v>
       </c>
       <c r="M16">
-        <v>0.8961093626582806</v>
+        <v>1.016338591752623</v>
       </c>
       <c r="N16">
-        <v>0.9932735869120267</v>
+        <v>1.007615510582986</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9389749383372759</v>
+        <v>1.004155528526728</v>
       </c>
       <c r="D17">
-        <v>1.016036877997045</v>
+        <v>1.030719889773349</v>
       </c>
       <c r="E17">
-        <v>0.9551664677471415</v>
+        <v>1.007360413535873</v>
       </c>
       <c r="F17">
-        <v>0.8870782907731856</v>
+        <v>1.013583852677949</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033526083544801</v>
+        <v>1.031062325142212</v>
       </c>
       <c r="J17">
-        <v>0.9689985253335578</v>
+        <v>1.01055894690869</v>
       </c>
       <c r="K17">
-        <v>1.029769446398501</v>
+        <v>1.034104235244844</v>
       </c>
       <c r="L17">
-        <v>0.9700090711126879</v>
+        <v>1.010829199015409</v>
       </c>
       <c r="M17">
-        <v>0.9034054500557147</v>
+        <v>1.017029721374806</v>
       </c>
       <c r="N17">
-        <v>0.9939752009314966</v>
+        <v>1.007711213689684</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9406958702052081</v>
+        <v>1.004408079883137</v>
       </c>
       <c r="D18">
-        <v>1.017360925212524</v>
+        <v>1.030860760521346</v>
       </c>
       <c r="E18">
-        <v>0.9565460723134857</v>
+        <v>1.00757431015627</v>
       </c>
       <c r="F18">
-        <v>0.8914927742627103</v>
+        <v>1.014028866608065</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034488977705626</v>
+        <v>1.031123955714785</v>
       </c>
       <c r="J18">
-        <v>0.9702029744933832</v>
+        <v>1.010727682348349</v>
       </c>
       <c r="K18">
-        <v>1.030886567448869</v>
+        <v>1.034202465434769</v>
       </c>
       <c r="L18">
-        <v>0.9711595434934623</v>
+        <v>1.010999043248283</v>
       </c>
       <c r="M18">
-        <v>0.9074901689868261</v>
+        <v>1.017430164241435</v>
       </c>
       <c r="N18">
-        <v>0.9943728931420643</v>
+        <v>1.007766885490669</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9412759238613039</v>
+        <v>1.004494126426985</v>
       </c>
       <c r="D19">
-        <v>1.017805682100648</v>
+        <v>1.030908675869869</v>
       </c>
       <c r="E19">
-        <v>0.9570111374281214</v>
+        <v>1.00764719442329</v>
       </c>
       <c r="F19">
-        <v>0.8929692728510142</v>
+        <v>1.014180156978782</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034811128297176</v>
+        <v>1.031144829732427</v>
       </c>
       <c r="J19">
-        <v>0.9706080897829842</v>
+        <v>1.010785141123359</v>
       </c>
       <c r="K19">
-        <v>1.031261050379158</v>
+        <v>1.034235827825111</v>
       </c>
       <c r="L19">
-        <v>0.9715468118774502</v>
+        <v>1.011056894699554</v>
       </c>
       <c r="M19">
-        <v>0.9088560034896076</v>
+        <v>1.017566251718437</v>
       </c>
       <c r="N19">
-        <v>0.9945066629941398</v>
+        <v>1.00778584275726</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9386550870144625</v>
+        <v>1.004109041749097</v>
       </c>
       <c r="D20">
-        <v>1.015790042594436</v>
+        <v>1.03069392162693</v>
       </c>
       <c r="E20">
-        <v>0.9549100816504518</v>
+        <v>1.007321045562579</v>
       </c>
       <c r="F20">
-        <v>0.886252145663137</v>
+        <v>1.013501782723244</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033345941936473</v>
+        <v>1.031050921962255</v>
       </c>
       <c r="J20">
-        <v>0.9687742448286928</v>
+        <v>1.010527873317441</v>
       </c>
       <c r="K20">
-        <v>1.029560811467495</v>
+        <v>1.034086104039902</v>
       </c>
       <c r="L20">
-        <v>0.9697949933907634</v>
+        <v>1.010797928410777</v>
       </c>
       <c r="M20">
-        <v>0.9026408410432668</v>
+        <v>1.016955847439433</v>
       </c>
       <c r="N20">
-        <v>0.9939011499232973</v>
+        <v>1.007700961211788</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9295975713548787</v>
+        <v>1.002852404967144</v>
       </c>
       <c r="D21">
-        <v>1.008700079414342</v>
+        <v>1.029987528501712</v>
       </c>
       <c r="E21">
-        <v>0.9476518499651606</v>
+        <v>1.006257272404384</v>
       </c>
       <c r="F21">
-        <v>0.8620707133309323</v>
+        <v>1.011265035177111</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028087802054034</v>
+        <v>1.030735855839868</v>
       </c>
       <c r="J21">
-        <v>0.9623650862724913</v>
+        <v>1.009686185423552</v>
       </c>
       <c r="K21">
-        <v>1.023518479691996</v>
+        <v>1.033590187314885</v>
       </c>
       <c r="L21">
-        <v>0.9636978095700165</v>
+        <v>1.009951735644976</v>
       </c>
       <c r="M21">
-        <v>0.8802392310914785</v>
+        <v>1.014939726578159</v>
       </c>
       <c r="N21">
-        <v>0.9917855128859727</v>
+        <v>1.007423230258451</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9233802555359234</v>
+        <v>1.002058651370121</v>
       </c>
       <c r="D22">
-        <v>1.003715551960675</v>
+        <v>1.029537058293506</v>
       </c>
       <c r="E22">
-        <v>0.9426695551794549</v>
+        <v>1.005585757138569</v>
       </c>
       <c r="F22">
-        <v>0.8445004502127745</v>
+        <v>1.009834412521431</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024295095910515</v>
+        <v>1.030530236667116</v>
       </c>
       <c r="J22">
-        <v>0.9578948954030269</v>
+        <v>1.009152878387606</v>
       </c>
       <c r="K22">
-        <v>1.019213760647293</v>
+        <v>1.033271329140068</v>
       </c>
       <c r="L22">
-        <v>0.9594692229658663</v>
+        <v>1.009416381856719</v>
       </c>
       <c r="M22">
-        <v>0.8639416300720062</v>
+        <v>1.013647573607611</v>
       </c>
       <c r="N22">
-        <v>0.9903105576299795</v>
+        <v>1.007247233420732</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9267349134409841</v>
+        <v>1.002479785828946</v>
       </c>
       <c r="D23">
-        <v>1.006417500470316</v>
+        <v>1.029776464218435</v>
       </c>
       <c r="E23">
-        <v>0.9453580433675681</v>
+        <v>1.005941997227995</v>
       </c>
       <c r="F23">
-        <v>0.8540870605422911</v>
+        <v>1.010595135633201</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026360812608363</v>
+        <v>1.030639955301891</v>
       </c>
       <c r="J23">
-        <v>0.9603145452691817</v>
+        <v>1.009435987122854</v>
       </c>
       <c r="K23">
-        <v>1.021552997301747</v>
+        <v>1.033441033506493</v>
       </c>
       <c r="L23">
-        <v>0.9617555833072204</v>
+        <v>1.009700500742005</v>
       </c>
       <c r="M23">
-        <v>0.8728356124079932</v>
+        <v>1.014334913337438</v>
       </c>
       <c r="N23">
-        <v>0.9911088581272826</v>
+        <v>1.007340664297542</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.93879974357177</v>
+        <v>1.004130048348609</v>
       </c>
       <c r="D24">
-        <v>1.015901706017357</v>
+        <v>1.030705657667191</v>
       </c>
       <c r="E24">
-        <v>0.9550260343477207</v>
+        <v>1.007338835151798</v>
       </c>
       <c r="F24">
-        <v>0.886626002062466</v>
+        <v>1.013538874791295</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033427459022749</v>
+        <v>1.031056077130349</v>
       </c>
       <c r="J24">
-        <v>0.9688756948849164</v>
+        <v>1.010541915519125</v>
       </c>
       <c r="K24">
-        <v>1.02965520833453</v>
+        <v>1.034094299151806</v>
       </c>
       <c r="L24">
-        <v>0.9698918224526494</v>
+        <v>1.010812059367685</v>
       </c>
       <c r="M24">
-        <v>0.9029868572014307</v>
+        <v>1.01698923617389</v>
       </c>
       <c r="N24">
-        <v>0.9939346457008087</v>
+        <v>1.007705594329287</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9511502680656092</v>
+        <v>1.006029560573973</v>
       </c>
       <c r="D25">
-        <v>1.02526080473432</v>
+        <v>1.031756628232588</v>
       </c>
       <c r="E25">
-        <v>0.9649341031697116</v>
+        <v>1.008948431945024</v>
       </c>
       <c r="F25">
-        <v>0.9172698104894952</v>
+        <v>1.016851118954065</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040111714732703</v>
+        <v>1.031506458879438</v>
       </c>
       <c r="J25">
-        <v>0.9774413799454922</v>
+        <v>1.011807750445489</v>
       </c>
       <c r="K25">
-        <v>1.037479238517079</v>
+        <v>1.034821919139515</v>
       </c>
       <c r="L25">
-        <v>0.9781023094660869</v>
+        <v>1.012087810248591</v>
       </c>
       <c r="M25">
-        <v>0.9313042541569533</v>
+        <v>1.019964414708994</v>
       </c>
       <c r="N25">
-        <v>0.9967634559710346</v>
+        <v>1.008123193473792</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00753248725116</v>
+        <v>0.9600802792465831</v>
       </c>
       <c r="D2">
-        <v>1.032573116818584</v>
+        <v>1.031815140294779</v>
       </c>
       <c r="E2">
-        <v>1.010223396258179</v>
+        <v>0.9721129540710627</v>
       </c>
       <c r="F2">
-        <v>1.019411235485953</v>
+        <v>0.9379938153155426</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0318397195802</v>
+        <v>1.044607526687414</v>
       </c>
       <c r="J2">
-        <v>1.012803578957126</v>
+        <v>0.9835242622237459</v>
       </c>
       <c r="K2">
-        <v>1.035377958160746</v>
+        <v>1.042848343347086</v>
       </c>
       <c r="L2">
-        <v>1.013094236733674</v>
+        <v>0.9839749743967882</v>
       </c>
       <c r="M2">
-        <v>1.022254562761938</v>
+        <v>0.9503903665060579</v>
       </c>
       <c r="N2">
-        <v>1.008451638386829</v>
+        <v>0.998772931286032</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008616901131992</v>
+        <v>0.9661519893705709</v>
       </c>
       <c r="D3">
-        <v>1.03315344718361</v>
+        <v>1.036167231334263</v>
       </c>
       <c r="E3">
-        <v>1.011144145563421</v>
+        <v>0.9770037545430247</v>
       </c>
       <c r="F3">
-        <v>1.021223612924085</v>
+        <v>0.9514582190911978</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032066743719867</v>
+        <v>1.047498743326567</v>
       </c>
       <c r="J3">
-        <v>1.013518791284481</v>
+        <v>0.9876099336327046</v>
       </c>
       <c r="K3">
-        <v>1.035767700122445</v>
+        <v>1.04635735001012</v>
       </c>
       <c r="L3">
-        <v>1.013818686456051</v>
+        <v>0.9879395855501814</v>
       </c>
       <c r="M3">
-        <v>1.023870194768746</v>
+        <v>0.962752336364067</v>
       </c>
       <c r="N3">
-        <v>1.008687483636365</v>
+        <v>1.000122784845165</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009315478686534</v>
+        <v>0.9699181703566135</v>
       </c>
       <c r="D4">
-        <v>1.033523199915388</v>
+        <v>1.038822416968255</v>
       </c>
       <c r="E4">
-        <v>1.011737666924019</v>
+        <v>0.9800420877166185</v>
       </c>
       <c r="F4">
-        <v>1.022375100212514</v>
+        <v>0.959565416230865</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032206753471097</v>
+        <v>1.049221927815587</v>
       </c>
       <c r="J4">
-        <v>1.013977996876173</v>
+        <v>0.9901239816509295</v>
       </c>
       <c r="K4">
-        <v>1.036013444365753</v>
+        <v>1.048473823875405</v>
       </c>
       <c r="L4">
-        <v>1.014284577800729</v>
+        <v>0.9903875087400934</v>
       </c>
       <c r="M4">
-        <v>1.024894016334502</v>
+        <v>0.9701776576550014</v>
       </c>
       <c r="N4">
-        <v>1.008838887407205</v>
+        <v>1.00095341758077</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009608423454855</v>
+        <v>0.9714659167292619</v>
       </c>
       <c r="D5">
-        <v>1.03367726864701</v>
+        <v>1.039903368905388</v>
       </c>
       <c r="E5">
-        <v>1.011986646706227</v>
+        <v>0.9812918427229553</v>
       </c>
       <c r="F5">
-        <v>1.022854136893522</v>
+        <v>0.9628436808587411</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032263967600344</v>
+        <v>1.049913953873694</v>
       </c>
       <c r="J5">
-        <v>1.014170194919927</v>
+        <v>0.9911526393582419</v>
       </c>
       <c r="K5">
-        <v>1.036115215873595</v>
+        <v>1.049329775045559</v>
       </c>
       <c r="L5">
-        <v>1.01447975546556</v>
+        <v>0.9913910102285884</v>
       </c>
       <c r="M5">
-        <v>1.025319293246648</v>
+        <v>0.973175781553591</v>
       </c>
       <c r="N5">
-        <v>1.008902251376798</v>
+        <v>1.001293282080033</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00965756714841</v>
+        <v>0.9717237926282788</v>
       </c>
       <c r="D6">
-        <v>1.033703056910239</v>
+        <v>1.04008287917726</v>
       </c>
       <c r="E6">
-        <v>1.012028420198448</v>
+        <v>0.9815001353693948</v>
       </c>
       <c r="F6">
-        <v>1.022934274236596</v>
+        <v>0.9633868722815931</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032273477676487</v>
+        <v>1.050028323364164</v>
       </c>
       <c r="J6">
-        <v>1.014202416028223</v>
+        <v>0.9913237709286169</v>
       </c>
       <c r="K6">
-        <v>1.036132213581076</v>
+        <v>1.049471588896085</v>
       </c>
       <c r="L6">
-        <v>1.01451248675224</v>
+        <v>0.9915580657822288</v>
       </c>
       <c r="M6">
-        <v>1.025390398767039</v>
+        <v>0.9736722925494494</v>
       </c>
       <c r="N6">
-        <v>1.00891287374132</v>
+        <v>1.001349823096984</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009319395915563</v>
+        <v>0.9699389870958888</v>
       </c>
       <c r="D7">
-        <v>1.033525263988517</v>
+        <v>1.038836995526501</v>
       </c>
       <c r="E7">
-        <v>1.011740995904858</v>
+        <v>0.9800588920944885</v>
       </c>
       <c r="F7">
-        <v>1.022381520913021</v>
+        <v>0.9596097138399754</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032207524431952</v>
+        <v>1.049231298537544</v>
       </c>
       <c r="J7">
-        <v>1.013980568375273</v>
+        <v>0.9901378343034068</v>
       </c>
       <c r="K7">
-        <v>1.036014810285556</v>
+        <v>1.048485390365959</v>
       </c>
       <c r="L7">
-        <v>1.014287188450798</v>
+        <v>0.9904010152001324</v>
       </c>
       <c r="M7">
-        <v>1.024899719048859</v>
+        <v>0.9702181875869363</v>
       </c>
       <c r="N7">
-        <v>1.008839735201407</v>
+        <v>1.000957994452371</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007899618740386</v>
+        <v>0.9621681456469329</v>
       </c>
       <c r="D8">
-        <v>1.032770437129139</v>
+        <v>1.033321420307446</v>
       </c>
       <c r="E8">
-        <v>1.01053504030171</v>
+        <v>0.9737937625990697</v>
       </c>
       <c r="F8">
-        <v>1.020028158164776</v>
+        <v>0.9426794311547605</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03191787236856</v>
+        <v>1.045617156845437</v>
       </c>
       <c r="J8">
-        <v>1.013046034379705</v>
+        <v>0.9849337341957484</v>
       </c>
       <c r="K8">
-        <v>1.035511010037386</v>
+        <v>1.044068183512438</v>
       </c>
       <c r="L8">
-        <v>1.013339666834163</v>
+        <v>0.9853408178700562</v>
       </c>
       <c r="M8">
-        <v>1.022805066567785</v>
+        <v>0.9546962139526795</v>
       </c>
       <c r="N8">
-        <v>1.008531593931909</v>
+        <v>0.9992385937079324</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005373606920761</v>
+        <v>0.9470357689938278</v>
       </c>
       <c r="D9">
-        <v>1.031396031062528</v>
+        <v>1.02218085233056</v>
       </c>
       <c r="E9">
-        <v>1.008392371870897</v>
+        <v>0.9616311382635728</v>
       </c>
       <c r="F9">
-        <v>1.015716767510367</v>
+        <v>0.9073300782567351</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031354511930706</v>
+        <v>1.037944974257698</v>
       </c>
       <c r="J9">
-        <v>1.011371512972327</v>
+        <v>0.9746082014980864</v>
       </c>
       <c r="K9">
-        <v>1.034573701087805</v>
+        <v>1.034924026681158</v>
       </c>
       <c r="L9">
-        <v>1.011647720046818</v>
+        <v>0.9753789899588674</v>
       </c>
       <c r="M9">
-        <v>1.01894696320431</v>
+        <v>0.9221297843557329</v>
       </c>
       <c r="N9">
-        <v>1.007979290875204</v>
+        <v>0.9958276674905048</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003672803897405</v>
+        <v>0.9356042283606365</v>
       </c>
       <c r="D10">
-        <v>1.030449659063463</v>
+        <v>1.013423710430131</v>
       </c>
       <c r="E10">
-        <v>1.006951666841062</v>
+        <v>0.9524649206712107</v>
       </c>
       <c r="F10">
-        <v>1.012729267473493</v>
+        <v>0.8782801775570854</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030943028294413</v>
+        <v>1.031608946897174</v>
       </c>
       <c r="J10">
-        <v>1.010236053948717</v>
+        <v>0.9666281648452159</v>
       </c>
       <c r="K10">
-        <v>1.033915206272555</v>
+        <v>1.027554752891009</v>
       </c>
       <c r="L10">
-        <v>1.010504366685369</v>
+        <v>0.9677489632394448</v>
       </c>
       <c r="M10">
-        <v>1.016260123399946</v>
+        <v>0.8952599837580819</v>
       </c>
       <c r="N10">
-        <v>1.007604674811571</v>
+        <v>0.9931926302967042</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002932224655331</v>
+        <v>0.9301990746936781</v>
       </c>
       <c r="D11">
-        <v>1.030032647105261</v>
+        <v>1.009177069429465</v>
       </c>
       <c r="E11">
-        <v>1.006324817465804</v>
+        <v>0.9481338076538763</v>
       </c>
       <c r="F11">
-        <v>1.011408144054811</v>
+        <v>0.8637262682050838</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03075625361507</v>
+        <v>1.028446597191439</v>
       </c>
       <c r="J11">
-        <v>1.009739744587624</v>
+        <v>0.9627943516967337</v>
       </c>
       <c r="K11">
-        <v>1.033622014523531</v>
+        <v>1.023927970271594</v>
       </c>
       <c r="L11">
-        <v>1.010005534450627</v>
+        <v>0.9641049303472691</v>
       </c>
       <c r="M11">
-        <v>1.015068873702881</v>
+        <v>0.8817740932582323</v>
       </c>
       <c r="N11">
-        <v>1.007440904412309</v>
+        <v>0.9919271800116262</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002656509699459</v>
+        <v>0.9281041522515866</v>
       </c>
       <c r="D12">
-        <v>1.029876656505176</v>
+        <v>1.007511881046248</v>
       </c>
       <c r="E12">
-        <v>1.006091515535646</v>
+        <v>0.9464552203797628</v>
       </c>
       <c r="F12">
-        <v>1.010913227018937</v>
+        <v>0.8579276001315269</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03068557737884</v>
+        <v>1.027190884032118</v>
       </c>
       <c r="J12">
-        <v>1.009554684715342</v>
+        <v>0.9612969262878782</v>
       </c>
       <c r="K12">
-        <v>1.033511891315245</v>
+        <v>1.022496566585681</v>
       </c>
       <c r="L12">
-        <v>1.009819673153888</v>
+        <v>0.9626855473179254</v>
       </c>
       <c r="M12">
-        <v>1.014622154482272</v>
+        <v>0.8763975230706981</v>
       </c>
       <c r="N12">
-        <v>1.007379835210691</v>
+        <v>0.9914330179212285</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002715680237042</v>
+        <v>0.9285578753024659</v>
       </c>
       <c r="D13">
-        <v>1.029910166651713</v>
+        <v>1.007873468702952</v>
       </c>
       <c r="E13">
-        <v>1.006141580659501</v>
+        <v>0.94681877868804</v>
       </c>
       <c r="F13">
-        <v>1.011019579125553</v>
+        <v>0.8591913230425013</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030700796622887</v>
+        <v>1.027464305753656</v>
       </c>
       <c r="J13">
-        <v>1.009594412915329</v>
+        <v>0.9616218109897097</v>
       </c>
       <c r="K13">
-        <v>1.033535568402463</v>
+        <v>1.022807831572997</v>
       </c>
       <c r="L13">
-        <v>1.009859567102926</v>
+        <v>0.9629933101804398</v>
       </c>
       <c r="M13">
-        <v>1.014718169875498</v>
+        <v>0.8775694056204755</v>
       </c>
       <c r="N13">
-        <v>1.00739294556844</v>
+        <v>0.9915402272336621</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002909446910748</v>
+        <v>0.9300278299171267</v>
       </c>
       <c r="D14">
-        <v>1.030019775235722</v>
+        <v>1.009041364617169</v>
       </c>
       <c r="E14">
-        <v>1.006305542138783</v>
+        <v>0.9479965970991739</v>
       </c>
       <c r="F14">
-        <v>1.01136731994632</v>
+        <v>0.8632557003666658</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030750438058509</v>
+        <v>1.028344592802496</v>
       </c>
       <c r="J14">
-        <v>1.009724461994317</v>
+        <v>0.9626721974144492</v>
       </c>
       <c r="K14">
-        <v>1.033612936615005</v>
+        <v>1.023811512732435</v>
       </c>
       <c r="L14">
-        <v>1.009990182836506</v>
+        <v>0.9639890591246805</v>
       </c>
       <c r="M14">
-        <v>1.015032034495197</v>
+        <v>0.8813378457969906</v>
       </c>
       <c r="N14">
-        <v>1.007435861279637</v>
+        <v>0.9918868658873945</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003028748996229</v>
+        <v>0.9309212393607839</v>
       </c>
       <c r="D15">
-        <v>1.030087163511143</v>
+        <v>1.009748557835996</v>
       </c>
       <c r="E15">
-        <v>1.006406502691489</v>
+        <v>0.9487124445251179</v>
       </c>
       <c r="F15">
-        <v>1.011581017115706</v>
+        <v>0.8657041278314416</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030780851303915</v>
+        <v>1.028875520966581</v>
       </c>
       <c r="J15">
-        <v>1.00980449533094</v>
+        <v>0.9633090141482056</v>
       </c>
       <c r="K15">
-        <v>1.033660443980835</v>
+        <v>1.02441802339864</v>
       </c>
       <c r="L15">
-        <v>1.010070583322728</v>
+        <v>0.9645932825300265</v>
       </c>
       <c r="M15">
-        <v>1.01522485383715</v>
+        <v>0.8836075649409918</v>
       </c>
       <c r="N15">
-        <v>1.007462271480774</v>
+        <v>0.9920970364483223</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003721865896529</v>
+        <v>0.9359519488668508</v>
       </c>
       <c r="D16">
-        <v>1.030477181843028</v>
+        <v>1.013694510140385</v>
       </c>
       <c r="E16">
-        <v>1.006993204476967</v>
+        <v>0.9527435796528217</v>
       </c>
       <c r="F16">
-        <v>1.012816361385507</v>
+        <v>0.8791973235823541</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030955242079252</v>
+        <v>1.031808643334897</v>
       </c>
       <c r="J16">
-        <v>1.010268893582022</v>
+        <v>0.9668733950746989</v>
       </c>
       <c r="K16">
-        <v>1.033934493983286</v>
+        <v>1.027784866309346</v>
       </c>
       <c r="L16">
-        <v>1.010537392716253</v>
+        <v>0.9679825381308766</v>
       </c>
       <c r="M16">
-        <v>1.016338591752623</v>
+        <v>0.8961093626582813</v>
       </c>
       <c r="N16">
-        <v>1.007615510582986</v>
+        <v>0.9932735869120266</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004155528526728</v>
+        <v>0.9389749383372757</v>
       </c>
       <c r="D17">
-        <v>1.030719889773349</v>
+        <v>1.016036877997045</v>
       </c>
       <c r="E17">
-        <v>1.007360413535873</v>
+        <v>0.9551664677471414</v>
       </c>
       <c r="F17">
-        <v>1.013583852677949</v>
+        <v>0.8870782907731845</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031062325142212</v>
+        <v>1.033526083544801</v>
       </c>
       <c r="J17">
-        <v>1.01055894690869</v>
+        <v>0.9689985253335576</v>
       </c>
       <c r="K17">
-        <v>1.034104235244844</v>
+        <v>1.029769446398501</v>
       </c>
       <c r="L17">
-        <v>1.010829199015409</v>
+        <v>0.9700090711126876</v>
       </c>
       <c r="M17">
-        <v>1.017029721374806</v>
+        <v>0.9034054500557134</v>
       </c>
       <c r="N17">
-        <v>1.007711213689684</v>
+        <v>0.9939752009314966</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004408079883137</v>
+        <v>0.9406958702052084</v>
       </c>
       <c r="D18">
-        <v>1.030860760521346</v>
+        <v>1.017360925212524</v>
       </c>
       <c r="E18">
-        <v>1.00757431015627</v>
+        <v>0.9565460723134858</v>
       </c>
       <c r="F18">
-        <v>1.014028866608065</v>
+        <v>0.8914927742627108</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031123955714785</v>
+        <v>1.034488977705627</v>
       </c>
       <c r="J18">
-        <v>1.010727682348349</v>
+        <v>0.9702029744933834</v>
       </c>
       <c r="K18">
-        <v>1.034202465434769</v>
+        <v>1.03088656744887</v>
       </c>
       <c r="L18">
-        <v>1.010999043248283</v>
+        <v>0.9711595434934626</v>
       </c>
       <c r="M18">
-        <v>1.017430164241435</v>
+        <v>0.9074901689868264</v>
       </c>
       <c r="N18">
-        <v>1.007766885490669</v>
+        <v>0.9943728931420646</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004494126426985</v>
+        <v>0.9412759238613039</v>
       </c>
       <c r="D19">
-        <v>1.030908675869869</v>
+        <v>1.017805682100649</v>
       </c>
       <c r="E19">
-        <v>1.00764719442329</v>
+        <v>0.9570111374281218</v>
       </c>
       <c r="F19">
-        <v>1.014180156978782</v>
+        <v>0.8929692728510145</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031144829732427</v>
+        <v>1.034811128297176</v>
       </c>
       <c r="J19">
-        <v>1.010785141123359</v>
+        <v>0.9706080897829843</v>
       </c>
       <c r="K19">
-        <v>1.034235827825111</v>
+        <v>1.031261050379159</v>
       </c>
       <c r="L19">
-        <v>1.011056894699554</v>
+        <v>0.9715468118774505</v>
       </c>
       <c r="M19">
-        <v>1.017566251718437</v>
+        <v>0.908856003489608</v>
       </c>
       <c r="N19">
-        <v>1.00778584275726</v>
+        <v>0.9945066629941398</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004109041749097</v>
+        <v>0.9386550870144625</v>
       </c>
       <c r="D20">
-        <v>1.03069392162693</v>
+        <v>1.015790042594436</v>
       </c>
       <c r="E20">
-        <v>1.007321045562579</v>
+        <v>0.9549100816504514</v>
       </c>
       <c r="F20">
-        <v>1.013501782723244</v>
+        <v>0.8862521456631373</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031050921962255</v>
+        <v>1.033345941936473</v>
       </c>
       <c r="J20">
-        <v>1.010527873317441</v>
+        <v>0.9687742448286928</v>
       </c>
       <c r="K20">
-        <v>1.034086104039902</v>
+        <v>1.029560811467495</v>
       </c>
       <c r="L20">
-        <v>1.010797928410777</v>
+        <v>0.9697949933907631</v>
       </c>
       <c r="M20">
-        <v>1.016955847439433</v>
+        <v>0.9026408410432671</v>
       </c>
       <c r="N20">
-        <v>1.007700961211788</v>
+        <v>0.9939011499232973</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002852404967144</v>
+        <v>0.9295975713548787</v>
       </c>
       <c r="D21">
-        <v>1.029987528501712</v>
+        <v>1.008700079414343</v>
       </c>
       <c r="E21">
-        <v>1.006257272404384</v>
+        <v>0.9476518499651602</v>
       </c>
       <c r="F21">
-        <v>1.011265035177111</v>
+        <v>0.8620707133309342</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030735855839868</v>
+        <v>1.028087802054035</v>
       </c>
       <c r="J21">
-        <v>1.009686185423552</v>
+        <v>0.9623650862724913</v>
       </c>
       <c r="K21">
-        <v>1.033590187314885</v>
+        <v>1.023518479691997</v>
       </c>
       <c r="L21">
-        <v>1.009951735644976</v>
+        <v>0.9636978095700162</v>
       </c>
       <c r="M21">
-        <v>1.014939726578159</v>
+        <v>0.8802392310914802</v>
       </c>
       <c r="N21">
-        <v>1.007423230258451</v>
+        <v>0.9917855128859727</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002058651370121</v>
+        <v>0.9233802555359228</v>
       </c>
       <c r="D22">
-        <v>1.029537058293506</v>
+        <v>1.003715551960675</v>
       </c>
       <c r="E22">
-        <v>1.005585757138569</v>
+        <v>0.9426695551794544</v>
       </c>
       <c r="F22">
-        <v>1.009834412521431</v>
+        <v>0.8445004502127728</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030530236667116</v>
+        <v>1.024295095910515</v>
       </c>
       <c r="J22">
-        <v>1.009152878387606</v>
+        <v>0.9578948954030264</v>
       </c>
       <c r="K22">
-        <v>1.033271329140068</v>
+        <v>1.019213760647293</v>
       </c>
       <c r="L22">
-        <v>1.009416381856719</v>
+        <v>0.9594692229658658</v>
       </c>
       <c r="M22">
-        <v>1.013647573607611</v>
+        <v>0.8639416300720045</v>
       </c>
       <c r="N22">
-        <v>1.007247233420732</v>
+        <v>0.9903105576299794</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002479785828946</v>
+        <v>0.9267349134409844</v>
       </c>
       <c r="D23">
-        <v>1.029776464218435</v>
+        <v>1.006417500470316</v>
       </c>
       <c r="E23">
-        <v>1.005941997227995</v>
+        <v>0.9453580433675681</v>
       </c>
       <c r="F23">
-        <v>1.010595135633201</v>
+        <v>0.8540870605422916</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030639955301891</v>
+        <v>1.026360812608363</v>
       </c>
       <c r="J23">
-        <v>1.009435987122854</v>
+        <v>0.9603145452691818</v>
       </c>
       <c r="K23">
-        <v>1.033441033506493</v>
+        <v>1.021552997301747</v>
       </c>
       <c r="L23">
-        <v>1.009700500742005</v>
+        <v>0.9617555833072204</v>
       </c>
       <c r="M23">
-        <v>1.014334913337438</v>
+        <v>0.8728356124079938</v>
       </c>
       <c r="N23">
-        <v>1.007340664297542</v>
+        <v>0.9911088581272827</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004130048348609</v>
+        <v>0.9387997435717699</v>
       </c>
       <c r="D24">
-        <v>1.030705657667191</v>
+        <v>1.015901706017356</v>
       </c>
       <c r="E24">
-        <v>1.007338835151798</v>
+        <v>0.9550260343477208</v>
       </c>
       <c r="F24">
-        <v>1.013538874791295</v>
+        <v>0.8866260020624643</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031056077130349</v>
+        <v>1.033427459022749</v>
       </c>
       <c r="J24">
-        <v>1.010541915519125</v>
+        <v>0.9688756948849164</v>
       </c>
       <c r="K24">
-        <v>1.034094299151806</v>
+        <v>1.029655208334529</v>
       </c>
       <c r="L24">
-        <v>1.010812059367685</v>
+        <v>0.9698918224526494</v>
       </c>
       <c r="M24">
-        <v>1.01698923617389</v>
+        <v>0.902986857201429</v>
       </c>
       <c r="N24">
-        <v>1.007705594329287</v>
+        <v>0.9939346457008088</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006029560573973</v>
+        <v>0.9511502680656093</v>
       </c>
       <c r="D25">
-        <v>1.031756628232588</v>
+        <v>1.025260804734321</v>
       </c>
       <c r="E25">
-        <v>1.008948431945024</v>
+        <v>0.9649341031697116</v>
       </c>
       <c r="F25">
-        <v>1.016851118954065</v>
+        <v>0.9172698104894962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031506458879438</v>
+        <v>1.040111714732704</v>
       </c>
       <c r="J25">
-        <v>1.011807750445489</v>
+        <v>0.9774413799454924</v>
       </c>
       <c r="K25">
-        <v>1.034821919139515</v>
+        <v>1.03747923851708</v>
       </c>
       <c r="L25">
-        <v>1.012087810248591</v>
+        <v>0.9781023094660869</v>
       </c>
       <c r="M25">
-        <v>1.019964414708994</v>
+        <v>0.9313042541569544</v>
       </c>
       <c r="N25">
-        <v>1.008123193473792</v>
+        <v>0.9967634559710346</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9600802792465831</v>
+        <v>0.99287200650884</v>
       </c>
       <c r="D2">
-        <v>1.031815140294779</v>
+        <v>1.040652185896143</v>
       </c>
       <c r="E2">
-        <v>0.9721129540710627</v>
+        <v>1.01411626029606</v>
       </c>
       <c r="F2">
-        <v>0.9379938153155426</v>
+        <v>1.035249593923809</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044607526687414</v>
+        <v>1.052501796399982</v>
       </c>
       <c r="J2">
-        <v>0.9835242622237459</v>
+        <v>1.01526802510568</v>
       </c>
       <c r="K2">
-        <v>1.042848343347086</v>
+        <v>1.0515727975154</v>
       </c>
       <c r="L2">
-        <v>0.9839749743967882</v>
+        <v>1.025382374772149</v>
       </c>
       <c r="M2">
-        <v>0.9503903665060579</v>
+        <v>1.046238753812014</v>
       </c>
       <c r="N2">
-        <v>0.998772931286032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008134449028672</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045167247720577</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047536662115035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9661519893705709</v>
+        <v>0.9986033246363463</v>
       </c>
       <c r="D3">
-        <v>1.036167231334263</v>
+        <v>1.04296885754823</v>
       </c>
       <c r="E3">
-        <v>0.9770037545430247</v>
+        <v>1.018423557145042</v>
       </c>
       <c r="F3">
-        <v>0.9514582190911978</v>
+        <v>1.038609570190177</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047498743326567</v>
+        <v>1.053119202992392</v>
       </c>
       <c r="J3">
-        <v>0.9876099336327046</v>
+        <v>1.019132136980798</v>
       </c>
       <c r="K3">
-        <v>1.04635735001012</v>
+        <v>1.053079949775383</v>
       </c>
       <c r="L3">
-        <v>0.9879395855501814</v>
+        <v>1.028826009569907</v>
       </c>
       <c r="M3">
-        <v>0.962752336364067</v>
+        <v>1.048771164652569</v>
       </c>
       <c r="N3">
-        <v>1.000122784845165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009522376327881</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047171465506732</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048599690788439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9699181703566135</v>
+        <v>1.002227644415827</v>
       </c>
       <c r="D4">
-        <v>1.038822416968255</v>
+        <v>1.04444074750621</v>
       </c>
       <c r="E4">
-        <v>0.9800420877166185</v>
+        <v>1.021154171414905</v>
       </c>
       <c r="F4">
-        <v>0.959565416230865</v>
+        <v>1.04074181084199</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049221927815587</v>
+        <v>1.053500252773379</v>
       </c>
       <c r="J4">
-        <v>0.9901239816509295</v>
+        <v>1.02157453796693</v>
       </c>
       <c r="K4">
-        <v>1.048473823875405</v>
+        <v>1.054030841453281</v>
       </c>
       <c r="L4">
-        <v>0.9903875087400934</v>
+        <v>1.031003816103282</v>
       </c>
       <c r="M4">
-        <v>0.9701776576550014</v>
+        <v>1.050372179958765</v>
       </c>
       <c r="N4">
-        <v>1.00095341758077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010398257862473</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048438549104572</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049272920862296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9714659167292619</v>
+        <v>1.003734283392641</v>
       </c>
       <c r="D5">
-        <v>1.039903368905388</v>
+        <v>1.045057916953479</v>
       </c>
       <c r="E5">
-        <v>0.9812918427229553</v>
+        <v>1.022291338408773</v>
       </c>
       <c r="F5">
-        <v>0.9628436808587411</v>
+        <v>1.041630905225469</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049913953873694</v>
+        <v>1.053658299947106</v>
       </c>
       <c r="J5">
-        <v>0.9911526393582419</v>
+        <v>1.022590198418373</v>
       </c>
       <c r="K5">
-        <v>1.049329775045559</v>
+        <v>1.054429577359751</v>
       </c>
       <c r="L5">
-        <v>0.9913910102285884</v>
+        <v>1.031909921885879</v>
       </c>
       <c r="M5">
-        <v>0.973175781553591</v>
+        <v>1.051038889552337</v>
       </c>
       <c r="N5">
-        <v>1.001293282080033</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010762648591033</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048966199130465</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049561932996043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9717237926282788</v>
+        <v>1.003988887744368</v>
       </c>
       <c r="D6">
-        <v>1.04008287917726</v>
+        <v>1.045166897004848</v>
       </c>
       <c r="E6">
-        <v>0.9815001353693948</v>
+        <v>1.022484202629561</v>
       </c>
       <c r="F6">
-        <v>0.9633868722815931</v>
+        <v>1.041782512361465</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050028323364164</v>
+        <v>1.053687254965865</v>
       </c>
       <c r="J6">
-        <v>0.9913237709286169</v>
+        <v>1.022762638375977</v>
       </c>
       <c r="K6">
-        <v>1.049471588896085</v>
+        <v>1.054501858506033</v>
       </c>
       <c r="L6">
-        <v>0.9915580657822288</v>
+        <v>1.032064038038672</v>
       </c>
       <c r="M6">
-        <v>0.9736722925494494</v>
+        <v>1.051153182148102</v>
       </c>
       <c r="N6">
-        <v>1.001349823096984</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01082511818071</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049056653005147</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049621673783447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9699389870958888</v>
+        <v>1.002255251436305</v>
       </c>
       <c r="D7">
-        <v>1.038836995526501</v>
+        <v>1.0444643366702</v>
       </c>
       <c r="E7">
-        <v>0.9800588920944885</v>
+        <v>1.02117662509992</v>
       </c>
       <c r="F7">
-        <v>0.9596097138399754</v>
+        <v>1.040761434541469</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049231298537544</v>
+        <v>1.053509543022631</v>
       </c>
       <c r="J7">
-        <v>0.9901378343034068</v>
+        <v>1.021595373421996</v>
       </c>
       <c r="K7">
-        <v>1.048485390365959</v>
+        <v>1.054051343389146</v>
       </c>
       <c r="L7">
-        <v>0.9904010152001324</v>
+        <v>1.03102309450058</v>
       </c>
       <c r="M7">
-        <v>0.9702181875869363</v>
+        <v>1.050388744159071</v>
       </c>
       <c r="N7">
-        <v>1.000957994452371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010407440270137</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048451658416083</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049307274283814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9621681456469329</v>
+        <v>0.9948363308500834</v>
       </c>
       <c r="D8">
-        <v>1.033321420307446</v>
+        <v>1.041459710939129</v>
       </c>
       <c r="E8">
-        <v>0.9737937625990697</v>
+        <v>1.01559303569164</v>
       </c>
       <c r="F8">
-        <v>0.9426794311547605</v>
+        <v>1.036403446064686</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045617156845437</v>
+        <v>1.05272317351126</v>
       </c>
       <c r="J8">
-        <v>0.9849337341957484</v>
+        <v>1.016595387923173</v>
       </c>
       <c r="K8">
-        <v>1.044068183512438</v>
+        <v>1.052105909573265</v>
       </c>
       <c r="L8">
-        <v>0.9853408178700562</v>
+        <v>1.02656585200625</v>
       </c>
       <c r="M8">
-        <v>0.9546962139526795</v>
+        <v>1.047111893440727</v>
       </c>
       <c r="N8">
-        <v>0.9992385937079324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.0086137504495</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045858274432286</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047936234977575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9470357689938278</v>
+        <v>0.9810630147959862</v>
       </c>
       <c r="D9">
-        <v>1.02218085233056</v>
+        <v>1.035924195029415</v>
       </c>
       <c r="E9">
-        <v>0.9616311382635728</v>
+        <v>1.005283502572171</v>
       </c>
       <c r="F9">
-        <v>0.9073300782567351</v>
+        <v>1.028374037306368</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037944974257698</v>
+        <v>1.051181118797681</v>
       </c>
       <c r="J9">
-        <v>0.9746082014980864</v>
+        <v>1.007302677622414</v>
       </c>
       <c r="K9">
-        <v>1.034924026681158</v>
+        <v>1.048460126574236</v>
       </c>
       <c r="L9">
-        <v>0.9753789899588674</v>
+        <v>1.018291436329309</v>
       </c>
       <c r="M9">
-        <v>0.9221297843557329</v>
+        <v>1.041022948187434</v>
       </c>
       <c r="N9">
-        <v>0.9958276674905048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.005266808947791</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041039302101988</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045355347430113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9356042283606365</v>
+        <v>0.971445134709805</v>
       </c>
       <c r="D10">
-        <v>1.013423710430131</v>
+        <v>1.032142922619663</v>
       </c>
       <c r="E10">
-        <v>0.9524649206712107</v>
+        <v>0.998154117849267</v>
       </c>
       <c r="F10">
-        <v>0.8782801775570854</v>
+        <v>1.022877798069299</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031608946897174</v>
+        <v>1.050085511286156</v>
       </c>
       <c r="J10">
-        <v>0.9666281648452159</v>
+        <v>1.000839347327976</v>
       </c>
       <c r="K10">
-        <v>1.027554752891009</v>
+        <v>1.045955105537577</v>
       </c>
       <c r="L10">
-        <v>0.9677489632394448</v>
+        <v>1.012556780440646</v>
       </c>
       <c r="M10">
-        <v>0.8952599837580819</v>
+        <v>1.036845917709017</v>
       </c>
       <c r="N10">
-        <v>0.9931926302967042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.002945510575229</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.0377849391114</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043600803323697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9301990746936781</v>
+        <v>0.9678853602457501</v>
       </c>
       <c r="D11">
-        <v>1.009177069429465</v>
+        <v>1.031003694638337</v>
       </c>
       <c r="E11">
-        <v>0.9481338076538763</v>
+        <v>0.9957111751804659</v>
       </c>
       <c r="F11">
-        <v>0.8637262682050838</v>
+        <v>1.021309375672523</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028446597191439</v>
+        <v>1.04986600538322</v>
       </c>
       <c r="J11">
-        <v>0.9627943516967337</v>
+        <v>0.9986579825976233</v>
       </c>
       <c r="K11">
-        <v>1.023927970271594</v>
+        <v>1.04536369046795</v>
       </c>
       <c r="L11">
-        <v>0.9641049303472691</v>
+        <v>1.010714428233535</v>
       </c>
       <c r="M11">
-        <v>0.8817740932582323</v>
+        <v>1.035840314527397</v>
       </c>
       <c r="N11">
-        <v>0.9919271800116262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.002266091913555</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037425856167953</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043215141520627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9281041522515866</v>
+        <v>0.9668292317187149</v>
       </c>
       <c r="D12">
-        <v>1.007511881046248</v>
+        <v>1.030774174687737</v>
       </c>
       <c r="E12">
-        <v>0.9464552203797628</v>
+        <v>0.9950694527486245</v>
       </c>
       <c r="F12">
-        <v>0.8579276001315269</v>
+        <v>1.021047366445696</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027190884032118</v>
+        <v>1.049884582421691</v>
       </c>
       <c r="J12">
-        <v>0.9612969262878782</v>
+        <v>0.9981069437431701</v>
       </c>
       <c r="K12">
-        <v>1.022496566585681</v>
+        <v>1.045334621304911</v>
       </c>
       <c r="L12">
-        <v>0.9626855473179254</v>
+        <v>1.010291727842359</v>
       </c>
       <c r="M12">
-        <v>0.8763975230706981</v>
+        <v>1.035782143816966</v>
       </c>
       <c r="N12">
-        <v>0.9914330179212285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.002155396828297</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037706596547094</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043194589103271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9285578753024659</v>
+        <v>0.9676521668756932</v>
       </c>
       <c r="D13">
-        <v>1.007873468702952</v>
+        <v>1.031250560207011</v>
       </c>
       <c r="E13">
-        <v>0.94681877868804</v>
+        <v>0.9957890442586449</v>
       </c>
       <c r="F13">
-        <v>0.8591913230425013</v>
+        <v>1.021794916055987</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027464305753656</v>
+        <v>1.050102275415298</v>
       </c>
       <c r="J13">
-        <v>0.9616218109897097</v>
+        <v>0.9987936729313666</v>
       </c>
       <c r="K13">
-        <v>1.022807831572997</v>
+        <v>1.045760468892643</v>
       </c>
       <c r="L13">
-        <v>0.9629933101804398</v>
+        <v>1.01095305990896</v>
       </c>
       <c r="M13">
-        <v>0.8775694056204755</v>
+        <v>1.036473468487374</v>
       </c>
       <c r="N13">
-        <v>0.9915402272336621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.002483638695338</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038530099395899</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043493206220305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9300278299171267</v>
+        <v>0.9690772280201395</v>
       </c>
       <c r="D14">
-        <v>1.009041364617169</v>
+        <v>1.031905115469456</v>
       </c>
       <c r="E14">
-        <v>0.9479965970991739</v>
+        <v>0.9969075919383876</v>
       </c>
       <c r="F14">
-        <v>0.8632557003666658</v>
+        <v>1.02277453102525</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028344592802496</v>
+        <v>1.050344875423425</v>
       </c>
       <c r="J14">
-        <v>0.9626721974144492</v>
+        <v>0.9998331015693245</v>
       </c>
       <c r="K14">
-        <v>1.023811512732435</v>
+        <v>1.046265641614705</v>
       </c>
       <c r="L14">
-        <v>0.9639890591246805</v>
+        <v>1.011905108899843</v>
       </c>
       <c r="M14">
-        <v>0.8813378457969906</v>
+        <v>1.03729578768783</v>
       </c>
       <c r="N14">
-        <v>0.9918868658873945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.002911602367459</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039353522517124</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043851780962468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9309212393607839</v>
+        <v>0.9698357570724432</v>
       </c>
       <c r="D15">
-        <v>1.009748557835996</v>
+        <v>1.032225629915827</v>
       </c>
       <c r="E15">
-        <v>0.9487124445251179</v>
+        <v>0.9974818559941129</v>
       </c>
       <c r="F15">
-        <v>0.8657041278314416</v>
+        <v>1.023242995135761</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028875520966581</v>
+        <v>1.050451221183758</v>
       </c>
       <c r="J15">
-        <v>0.9633090141482056</v>
+        <v>1.000360507660006</v>
       </c>
       <c r="K15">
-        <v>1.02441802339864</v>
+        <v>1.046495674415524</v>
       </c>
       <c r="L15">
-        <v>0.9645932825300265</v>
+        <v>1.012379224901368</v>
       </c>
       <c r="M15">
-        <v>0.8836075649409918</v>
+        <v>1.037669932531806</v>
       </c>
       <c r="N15">
-        <v>0.9920970364483223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.003113328676871</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039686791750695</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04402022194952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9359519488668508</v>
+        <v>0.9737745746877871</v>
       </c>
       <c r="D16">
-        <v>1.013694510140385</v>
+        <v>1.033746179433291</v>
       </c>
       <c r="E16">
-        <v>0.9527435796528217</v>
+        <v>1.000379448129289</v>
       </c>
       <c r="F16">
-        <v>0.8791973235823541</v>
+        <v>1.025457936723483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031808643334897</v>
+        <v>1.050892983835478</v>
       </c>
       <c r="J16">
-        <v>0.9668733950746989</v>
+        <v>1.002988515246375</v>
       </c>
       <c r="K16">
-        <v>1.027784866309346</v>
+        <v>1.047496774165078</v>
       </c>
       <c r="L16">
-        <v>0.9679825381308766</v>
+        <v>1.014705197290272</v>
       </c>
       <c r="M16">
-        <v>0.8961093626582813</v>
+        <v>1.039346891735168</v>
       </c>
       <c r="N16">
-        <v>0.9932735869120266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.004040186683578</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04097354362313</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044731150392219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9389749383372757</v>
+        <v>0.9760447631589885</v>
       </c>
       <c r="D17">
-        <v>1.016036877997045</v>
+        <v>1.034569268420256</v>
       </c>
       <c r="E17">
-        <v>0.9551664677471414</v>
+        <v>1.002013602800426</v>
       </c>
       <c r="F17">
-        <v>0.8870782907731845</v>
+        <v>1.026638347582527</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033526083544801</v>
+        <v>1.051101437729173</v>
       </c>
       <c r="J17">
-        <v>0.9689985253335576</v>
+        <v>1.004455683697518</v>
       </c>
       <c r="K17">
-        <v>1.029769446398501</v>
+        <v>1.047997157323136</v>
       </c>
       <c r="L17">
-        <v>0.9700090711126876</v>
+        <v>1.015986418140584</v>
       </c>
       <c r="M17">
-        <v>0.9034054500557134</v>
+        <v>1.040194892773442</v>
       </c>
       <c r="N17">
-        <v>0.9939752009314966</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.004525263873673</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041514838839587</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.045087491146777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9406958702052084</v>
+        <v>0.9770951400959577</v>
       </c>
       <c r="D18">
-        <v>1.017360925212524</v>
+        <v>1.034848928431297</v>
       </c>
       <c r="E18">
-        <v>0.9565460723134858</v>
+        <v>1.002701381224086</v>
       </c>
       <c r="F18">
-        <v>0.8914927742627108</v>
+        <v>1.027010164784243</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034488977705627</v>
+        <v>1.051119320681028</v>
       </c>
       <c r="J18">
-        <v>0.9702029744933834</v>
+        <v>1.005052293590556</v>
       </c>
       <c r="K18">
-        <v>1.03088656744887</v>
+        <v>1.048092065941006</v>
       </c>
       <c r="L18">
-        <v>0.9711595434934626</v>
+        <v>1.01647364766125</v>
       </c>
       <c r="M18">
-        <v>0.9074901689868264</v>
+        <v>1.040378404560405</v>
       </c>
       <c r="N18">
-        <v>0.9943728931420646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.004670775702929</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041422349244048</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045143093330981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9412759238613039</v>
+        <v>0.9770575994710279</v>
       </c>
       <c r="D19">
-        <v>1.017805682100649</v>
+        <v>1.034664774176301</v>
       </c>
       <c r="E19">
-        <v>0.9570111374281218</v>
+        <v>1.0025438561587</v>
       </c>
       <c r="F19">
-        <v>0.8929692728510145</v>
+        <v>1.026661617906208</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034811128297176</v>
+        <v>1.050979196750513</v>
       </c>
       <c r="J19">
-        <v>0.9706080897829843</v>
+        <v>1.004876384950489</v>
       </c>
       <c r="K19">
-        <v>1.031261050379159</v>
+        <v>1.047849339100818</v>
       </c>
       <c r="L19">
-        <v>0.9715468118774505</v>
+        <v>1.016254514811429</v>
       </c>
       <c r="M19">
-        <v>0.908856003489608</v>
+        <v>1.039973313298415</v>
       </c>
       <c r="N19">
-        <v>0.9945066629941398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.004525332894817</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040776731331481</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044977802829041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9386550870144625</v>
+        <v>0.9739711976904303</v>
       </c>
       <c r="D20">
-        <v>1.015790042594436</v>
+        <v>1.033162613386962</v>
       </c>
       <c r="E20">
-        <v>0.9549100816504514</v>
+        <v>1.000027925590473</v>
       </c>
       <c r="F20">
-        <v>0.8862521456631373</v>
+        <v>1.024326647608351</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033345941936473</v>
+        <v>1.050392770724838</v>
       </c>
       <c r="J20">
-        <v>0.9687742448286928</v>
+        <v>1.002543717779156</v>
       </c>
       <c r="K20">
-        <v>1.029560811467495</v>
+        <v>1.046646368826832</v>
       </c>
       <c r="L20">
-        <v>0.9697949933907631</v>
+        <v>1.014070283978234</v>
       </c>
       <c r="M20">
-        <v>0.9026408410432671</v>
+        <v>1.037954817009475</v>
       </c>
       <c r="N20">
-        <v>0.9939011499232973</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.003563727794252</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038651959083174</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044131153588409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9295975713548787</v>
+        <v>0.9665531664767201</v>
       </c>
       <c r="D21">
-        <v>1.008700079414343</v>
+        <v>1.03021586051694</v>
       </c>
       <c r="E21">
-        <v>0.9476518499651602</v>
+        <v>0.9945114277930053</v>
       </c>
       <c r="F21">
-        <v>0.8620707133309342</v>
+        <v>1.020020067797289</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028087802054035</v>
+        <v>1.049494267434481</v>
       </c>
       <c r="J21">
-        <v>0.9623650862724913</v>
+        <v>0.9975190428098666</v>
       </c>
       <c r="K21">
-        <v>1.023518479691997</v>
+        <v>1.044646537831643</v>
       </c>
       <c r="L21">
-        <v>0.9636978095700162</v>
+        <v>1.009597534310997</v>
       </c>
       <c r="M21">
-        <v>0.8802392310914802</v>
+        <v>1.034631827570138</v>
       </c>
       <c r="N21">
-        <v>0.9917855128859727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.001738508418086</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035981144604213</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042720420089254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9233802555359228</v>
+        <v>0.9617919665328869</v>
       </c>
       <c r="D22">
-        <v>1.003715551960675</v>
+        <v>1.028342050969776</v>
       </c>
       <c r="E22">
-        <v>0.9426695551794544</v>
+        <v>0.9909930179144919</v>
       </c>
       <c r="F22">
-        <v>0.8445004502127728</v>
+        <v>1.017296712888292</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024295095910515</v>
+        <v>1.048915410792418</v>
       </c>
       <c r="J22">
-        <v>0.9578948954030264</v>
+        <v>0.9943058226421848</v>
       </c>
       <c r="K22">
-        <v>1.019213760647293</v>
+        <v>1.043372206481086</v>
       </c>
       <c r="L22">
-        <v>0.9594692229658658</v>
+        <v>1.006745041729479</v>
       </c>
       <c r="M22">
-        <v>0.8639416300720045</v>
+        <v>1.032533133411126</v>
       </c>
       <c r="N22">
-        <v>0.9903105576299794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.000574014233844</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034320156441684</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041806065913584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9267349134409844</v>
+        <v>0.9643215986141636</v>
       </c>
       <c r="D23">
-        <v>1.006417500470316</v>
+        <v>1.029325701954817</v>
       </c>
       <c r="E23">
-        <v>0.9453580433675681</v>
+        <v>0.9928597141388829</v>
       </c>
       <c r="F23">
-        <v>0.8540870605422916</v>
+        <v>1.01873988928267</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026360812608363</v>
+        <v>1.04921816890718</v>
       </c>
       <c r="J23">
-        <v>0.9603145452691818</v>
+        <v>0.9960107501351783</v>
       </c>
       <c r="K23">
-        <v>1.021552997301747</v>
+        <v>1.044037871829909</v>
       </c>
       <c r="L23">
-        <v>0.9617555833072204</v>
+        <v>1.008257835304333</v>
       </c>
       <c r="M23">
-        <v>0.8728356124079938</v>
+        <v>1.033644593826784</v>
       </c>
       <c r="N23">
-        <v>0.9911088581272827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.001189977605362</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035199809918532</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042267175028242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9387997435717699</v>
+        <v>0.9740103494614387</v>
       </c>
       <c r="D24">
-        <v>1.015901706017356</v>
+        <v>1.033138990595514</v>
       </c>
       <c r="E24">
-        <v>0.9550260343477208</v>
+        <v>1.000036846822537</v>
       </c>
       <c r="F24">
-        <v>0.8866260020624643</v>
+        <v>1.024301112469599</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033427459022749</v>
+        <v>1.050370601215776</v>
       </c>
       <c r="J24">
-        <v>0.9688756948849164</v>
+        <v>1.002546905494208</v>
       </c>
       <c r="K24">
-        <v>1.029655208334529</v>
+        <v>1.046608111126618</v>
       </c>
       <c r="L24">
-        <v>0.9698918224526494</v>
+        <v>1.014063315420278</v>
       </c>
       <c r="M24">
-        <v>0.902986857201429</v>
+        <v>1.037914502377211</v>
       </c>
       <c r="N24">
-        <v>0.9939346457008088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.003552904540425</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038579173294722</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044076999318801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9511502680656093</v>
+        <v>0.984724025391143</v>
       </c>
       <c r="D25">
-        <v>1.025260804734321</v>
+        <v>1.037405933920486</v>
       </c>
       <c r="E25">
-        <v>0.9649341031697116</v>
+        <v>1.008018752364382</v>
       </c>
       <c r="F25">
-        <v>0.9172698104894962</v>
+        <v>1.030504185684095</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040111714732704</v>
+        <v>1.051608679475969</v>
       </c>
       <c r="J25">
-        <v>0.9774413799454924</v>
+        <v>1.009776654970208</v>
       </c>
       <c r="K25">
-        <v>1.03747923851708</v>
+        <v>1.04945005226878</v>
       </c>
       <c r="L25">
-        <v>0.9781023094660869</v>
+        <v>1.020493849926067</v>
       </c>
       <c r="M25">
-        <v>0.9313042541569544</v>
+        <v>1.042646724410222</v>
       </c>
       <c r="N25">
-        <v>0.9967634559710346</v>
+        <v>1.006162013098375</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042324410009139</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046083524340877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.99287200650884</v>
+        <v>0.9935050920209664</v>
       </c>
       <c r="D2">
-        <v>1.040652185896143</v>
+        <v>1.038149964483727</v>
       </c>
       <c r="E2">
-        <v>1.01411626029606</v>
+        <v>1.014252164993535</v>
       </c>
       <c r="F2">
-        <v>1.035249593923809</v>
+        <v>1.034380087759642</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052501796399982</v>
+        <v>1.051489412705342</v>
       </c>
       <c r="J2">
-        <v>1.01526802510568</v>
+        <v>1.015881815389179</v>
       </c>
       <c r="K2">
-        <v>1.0515727975154</v>
+        <v>1.049102213633577</v>
       </c>
       <c r="L2">
-        <v>1.025382374772149</v>
+        <v>1.025516452092776</v>
       </c>
       <c r="M2">
-        <v>1.046238753812014</v>
+        <v>1.045380363569909</v>
       </c>
       <c r="N2">
-        <v>1.008134449028672</v>
+        <v>1.010726283712242</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045167247720577</v>
+        <v>1.044487893444086</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047536662115035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045798458861938</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025062536367836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9986033246363463</v>
+        <v>0.9989914191249013</v>
       </c>
       <c r="D3">
-        <v>1.04296885754823</v>
+        <v>1.040257549667507</v>
       </c>
       <c r="E3">
-        <v>1.018423557145042</v>
+        <v>1.018359137044581</v>
       </c>
       <c r="F3">
-        <v>1.038609570190177</v>
+        <v>1.037570104229466</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053119202992392</v>
+        <v>1.052014078683698</v>
       </c>
       <c r="J3">
-        <v>1.019132136980798</v>
+        <v>1.019509616885218</v>
       </c>
       <c r="K3">
-        <v>1.053079949775383</v>
+        <v>1.050399990827805</v>
       </c>
       <c r="L3">
-        <v>1.028826009569907</v>
+        <v>1.028762377124674</v>
       </c>
       <c r="M3">
-        <v>1.048771164652569</v>
+        <v>1.047743818371611</v>
       </c>
       <c r="N3">
-        <v>1.009522376327881</v>
+        <v>1.011766081655054</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047171465506732</v>
+        <v>1.046358396793864</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048599690788439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046713170433657</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025309300363811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002227644415827</v>
+        <v>1.002463586963436</v>
       </c>
       <c r="D4">
-        <v>1.04444074750621</v>
+        <v>1.041597903761971</v>
       </c>
       <c r="E4">
-        <v>1.021154171414905</v>
+        <v>1.020964905742946</v>
       </c>
       <c r="F4">
-        <v>1.04074181084199</v>
+        <v>1.039595932280238</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053500252773379</v>
+        <v>1.052336700075656</v>
       </c>
       <c r="J4">
-        <v>1.02157453796693</v>
+        <v>1.021804483188206</v>
       </c>
       <c r="K4">
-        <v>1.054030841453281</v>
+        <v>1.051218920244418</v>
       </c>
       <c r="L4">
-        <v>1.031003816103282</v>
+        <v>1.03081671982784</v>
       </c>
       <c r="M4">
-        <v>1.050372179958765</v>
+        <v>1.049238849485067</v>
       </c>
       <c r="N4">
-        <v>1.010398257862473</v>
+        <v>1.012422823271949</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048438549104572</v>
+        <v>1.047541603216907</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049272920862296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047293179017535</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025462383149206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003734283392641</v>
+        <v>1.003907414042646</v>
       </c>
       <c r="D5">
-        <v>1.045057916953479</v>
+        <v>1.042160447048134</v>
       </c>
       <c r="E5">
-        <v>1.022291338408773</v>
+        <v>1.022050434641487</v>
       </c>
       <c r="F5">
-        <v>1.041630905225469</v>
+        <v>1.040440926077923</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053658299947106</v>
+        <v>1.052470435810251</v>
       </c>
       <c r="J5">
-        <v>1.022590198418373</v>
+        <v>1.022759065363051</v>
       </c>
       <c r="K5">
-        <v>1.054429577359751</v>
+        <v>1.051562799504395</v>
       </c>
       <c r="L5">
-        <v>1.031909921885879</v>
+        <v>1.031671703275063</v>
       </c>
       <c r="M5">
-        <v>1.051038889552337</v>
+        <v>1.049861591877816</v>
       </c>
       <c r="N5">
-        <v>1.010762648591033</v>
+        <v>1.012696133980941</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048966199130465</v>
+        <v>1.048034457149258</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049561932996043</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047544119844668</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025526577316011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003988887744368</v>
+        <v>1.00415121652268</v>
       </c>
       <c r="D6">
-        <v>1.045166897004848</v>
+        <v>1.042260072979483</v>
       </c>
       <c r="E6">
-        <v>1.022484202629561</v>
+        <v>1.022234409413739</v>
       </c>
       <c r="F6">
-        <v>1.041782512361465</v>
+        <v>1.040584967525429</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053687254965865</v>
+        <v>1.052495194548896</v>
       </c>
       <c r="J6">
-        <v>1.022762638375977</v>
+        <v>1.022920990874478</v>
       </c>
       <c r="K6">
-        <v>1.054501858506033</v>
+        <v>1.051625686884051</v>
       </c>
       <c r="L6">
-        <v>1.032064038038672</v>
+        <v>1.031817015871661</v>
       </c>
       <c r="M6">
-        <v>1.051153182148102</v>
+        <v>1.049968340565125</v>
       </c>
       <c r="N6">
-        <v>1.01082511818071</v>
+        <v>1.012742951100753</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049056653005147</v>
+        <v>1.048118940702031</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049621673783447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047598092597366</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025538950706815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002255251436305</v>
+        <v>1.002507482983641</v>
       </c>
       <c r="D7">
-        <v>1.0444643366702</v>
+        <v>1.041625192004343</v>
       </c>
       <c r="E7">
-        <v>1.02117662509992</v>
+        <v>1.021000918560568</v>
       </c>
       <c r="F7">
-        <v>1.040761434541469</v>
+        <v>1.039624432367788</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053509543022631</v>
+        <v>1.052347972171213</v>
       </c>
       <c r="J7">
-        <v>1.021595373421996</v>
+        <v>1.021841196563375</v>
       </c>
       <c r="K7">
-        <v>1.054051343389146</v>
+        <v>1.05124306891291</v>
       </c>
       <c r="L7">
-        <v>1.03102309450058</v>
+        <v>1.030849401125142</v>
       </c>
       <c r="M7">
-        <v>1.050388744159071</v>
+        <v>1.04926418802391</v>
       </c>
       <c r="N7">
-        <v>1.010407440270137</v>
+        <v>1.012461876956583</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048451658416083</v>
+        <v>1.047561656777809</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049307274283814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047332120993191</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025469227042066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9948363308500834</v>
+        <v>0.9954401723131416</v>
       </c>
       <c r="D8">
-        <v>1.041459710939129</v>
+        <v>1.038901411475131</v>
       </c>
       <c r="E8">
-        <v>1.01559303569164</v>
+        <v>1.015706266706654</v>
       </c>
       <c r="F8">
-        <v>1.036403446064686</v>
+        <v>1.035506757391771</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05272317351126</v>
+        <v>1.051687167952746</v>
       </c>
       <c r="J8">
-        <v>1.016595387923173</v>
+        <v>1.017181477422982</v>
       </c>
       <c r="K8">
-        <v>1.052105909573265</v>
+        <v>1.049579011642542</v>
       </c>
       <c r="L8">
-        <v>1.02656585200625</v>
+        <v>1.026677607871464</v>
       </c>
       <c r="M8">
-        <v>1.047111893440727</v>
+        <v>1.046226323124973</v>
       </c>
       <c r="N8">
-        <v>1.0086137504495</v>
+        <v>1.011184061398671</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045858274432286</v>
+        <v>1.045157409728336</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047936234977575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046160493284631</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025157561104458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9810630147959862</v>
+        <v>0.9822841476615211</v>
       </c>
       <c r="D9">
-        <v>1.035924195029415</v>
+        <v>1.03387645730247</v>
       </c>
       <c r="E9">
-        <v>1.005283502572171</v>
+        <v>1.005899276579035</v>
       </c>
       <c r="F9">
-        <v>1.028374037306368</v>
+        <v>1.027899561024337</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051181118797681</v>
+        <v>1.050371421026207</v>
       </c>
       <c r="J9">
-        <v>1.007302677622414</v>
+        <v>1.008478391681344</v>
       </c>
       <c r="K9">
-        <v>1.048460126574236</v>
+        <v>1.046442823467496</v>
       </c>
       <c r="L9">
-        <v>1.018291436329309</v>
+        <v>1.018897361769487</v>
       </c>
       <c r="M9">
-        <v>1.041022948187434</v>
+        <v>1.040555642495953</v>
       </c>
       <c r="N9">
-        <v>1.005266808947791</v>
+        <v>1.008694004072556</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041039302101988</v>
+        <v>1.040669461160825</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045355347430113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04393962802107</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024544640417591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.971445134709805</v>
+        <v>0.9731967836768508</v>
       </c>
       <c r="D10">
-        <v>1.032142922619663</v>
+        <v>1.030476996711502</v>
       </c>
       <c r="E10">
-        <v>0.998154117849267</v>
+        <v>0.9992014569891264</v>
       </c>
       <c r="F10">
-        <v>1.022877798069299</v>
+        <v>1.022752559711716</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050085511286156</v>
+        <v>1.049446113593882</v>
       </c>
       <c r="J10">
-        <v>1.000839347327976</v>
+        <v>1.002515725932337</v>
       </c>
       <c r="K10">
-        <v>1.045955105537577</v>
+        <v>1.044316951574113</v>
       </c>
       <c r="L10">
-        <v>1.012556780440646</v>
+        <v>1.013585144360385</v>
       </c>
       <c r="M10">
-        <v>1.036845917709017</v>
+        <v>1.036722812168151</v>
       </c>
       <c r="N10">
-        <v>1.002945510575229</v>
+        <v>1.007112543634628</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0377849391114</v>
+        <v>1.037687515039067</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043600803323697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04245484150006</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024123880999884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9678853602457501</v>
+        <v>0.9699347879301782</v>
       </c>
       <c r="D11">
-        <v>1.031003694638337</v>
+        <v>1.029482072202125</v>
       </c>
       <c r="E11">
-        <v>0.9957111751804659</v>
+        <v>0.9970042383084745</v>
       </c>
       <c r="F11">
-        <v>1.021309375672523</v>
+        <v>1.021372022815553</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04986600538322</v>
+        <v>1.04928982337602</v>
       </c>
       <c r="J11">
-        <v>0.9986579825976233</v>
+        <v>1.000614100541307</v>
       </c>
       <c r="K11">
-        <v>1.04536369046795</v>
+        <v>1.043868623381827</v>
       </c>
       <c r="L11">
-        <v>1.010714428233535</v>
+        <v>1.011982872308117</v>
       </c>
       <c r="M11">
-        <v>1.035840314527397</v>
+        <v>1.035901843468079</v>
       </c>
       <c r="N11">
-        <v>1.002266091913555</v>
+        <v>1.006892190485446</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037425856167953</v>
+        <v>1.037474524825424</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043215141520627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042173567924392</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024079901555421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9668292317187149</v>
+        <v>0.9689729698402316</v>
       </c>
       <c r="D12">
-        <v>1.030774174687737</v>
+        <v>1.029282863088204</v>
       </c>
       <c r="E12">
-        <v>0.9950694527486245</v>
+        <v>0.9964405929181633</v>
       </c>
       <c r="F12">
-        <v>1.021047366445696</v>
+        <v>1.02116908354804</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049884582421691</v>
+        <v>1.049320133975455</v>
       </c>
       <c r="J12">
-        <v>0.9981069437431701</v>
+        <v>1.000151075115487</v>
       </c>
       <c r="K12">
-        <v>1.045334621304911</v>
+        <v>1.043869760524694</v>
       </c>
       <c r="L12">
-        <v>1.010291727842359</v>
+        <v>1.011636304743776</v>
       </c>
       <c r="M12">
-        <v>1.035782143816966</v>
+        <v>1.035901652728352</v>
       </c>
       <c r="N12">
-        <v>1.002155396828297</v>
+        <v>1.006933581112896</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037706596547094</v>
+        <v>1.037801094601875</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043194589103271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042174371890243</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024111527862797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9676521668756932</v>
+        <v>0.9697066885767927</v>
       </c>
       <c r="D13">
-        <v>1.031250560207011</v>
+        <v>1.029692858348226</v>
       </c>
       <c r="E13">
-        <v>0.9957890442586449</v>
+        <v>0.9970857928826234</v>
       </c>
       <c r="F13">
-        <v>1.021794916055987</v>
+        <v>1.021860030745609</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050102275415298</v>
+        <v>1.049505410122149</v>
       </c>
       <c r="J13">
-        <v>0.9987936729313666</v>
+        <v>1.000753304926135</v>
       </c>
       <c r="K13">
-        <v>1.045760468892643</v>
+        <v>1.044230272637903</v>
       </c>
       <c r="L13">
-        <v>1.01095305990896</v>
+        <v>1.012224815909526</v>
       </c>
       <c r="M13">
-        <v>1.036473468487374</v>
+        <v>1.036537407966394</v>
       </c>
       <c r="N13">
-        <v>1.002483638695338</v>
+        <v>1.007140186124081</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038530099395899</v>
+        <v>1.0385806448796</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043493206220305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042426548015694</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024209041010234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9690772280201395</v>
+        <v>0.97098741992523</v>
       </c>
       <c r="D14">
-        <v>1.031905115469456</v>
+        <v>1.030258385712703</v>
       </c>
       <c r="E14">
-        <v>0.9969075919383876</v>
+        <v>0.9980846100195812</v>
       </c>
       <c r="F14">
-        <v>1.02277453102525</v>
+        <v>1.022748936730184</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050344875423425</v>
+        <v>1.049706148024662</v>
       </c>
       <c r="J14">
-        <v>0.9998331015693245</v>
+        <v>1.001656486530893</v>
       </c>
       <c r="K14">
-        <v>1.046265641614705</v>
+        <v>1.04464762738002</v>
       </c>
       <c r="L14">
-        <v>1.011905108899843</v>
+        <v>1.013059754827609</v>
       </c>
       <c r="M14">
-        <v>1.03729578768783</v>
+        <v>1.037270649178357</v>
       </c>
       <c r="N14">
-        <v>1.002911602367459</v>
+        <v>1.007361125562557</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039353522517124</v>
+        <v>1.03933365268629</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043851780962468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042723167584454</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024307777175558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9698357570724432</v>
+        <v>0.9716725919180392</v>
       </c>
       <c r="D15">
-        <v>1.032225629915827</v>
+        <v>1.030536747671031</v>
       </c>
       <c r="E15">
-        <v>0.9974818559941129</v>
+        <v>0.9985981691494078</v>
       </c>
       <c r="F15">
-        <v>1.023242995135761</v>
+        <v>1.023171379534593</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050451221183758</v>
+        <v>1.049793011719731</v>
       </c>
       <c r="J15">
-        <v>1.000360507660006</v>
+        <v>1.002114674470602</v>
       </c>
       <c r="K15">
-        <v>1.046495674415524</v>
+        <v>1.044836020422632</v>
       </c>
       <c r="L15">
-        <v>1.012379224901368</v>
+        <v>1.013474495526531</v>
       </c>
       <c r="M15">
-        <v>1.037669932531806</v>
+        <v>1.037599582141082</v>
       </c>
       <c r="N15">
-        <v>1.003113328676871</v>
+        <v>1.007456162521794</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039686791750695</v>
+        <v>1.039631187273046</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04402022194952</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042862738995076</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024348865054856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9737745746877871</v>
+        <v>0.9752701368610188</v>
       </c>
       <c r="D16">
-        <v>1.033746179433291</v>
+        <v>1.031868297059677</v>
       </c>
       <c r="E16">
-        <v>1.000379448129289</v>
+        <v>1.001214295800089</v>
       </c>
       <c r="F16">
-        <v>1.025457936723483</v>
+        <v>1.025171141927712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050892983835478</v>
+        <v>1.050149117522166</v>
       </c>
       <c r="J16">
-        <v>1.002988515246375</v>
+        <v>1.004420430607989</v>
       </c>
       <c r="K16">
-        <v>1.047496774165078</v>
+        <v>1.045649989576204</v>
       </c>
       <c r="L16">
-        <v>1.014705197290272</v>
+        <v>1.01552504692843</v>
       </c>
       <c r="M16">
-        <v>1.039346891735168</v>
+        <v>1.039064936226655</v>
       </c>
       <c r="N16">
-        <v>1.004040186683578</v>
+        <v>1.007881630523028</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04097354362313</v>
+        <v>1.040750681407758</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044731150392219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043441663707241</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024507065530096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9760447631589885</v>
+        <v>0.9773780044788861</v>
       </c>
       <c r="D17">
-        <v>1.034569268420256</v>
+        <v>1.032599714473753</v>
       </c>
       <c r="E17">
-        <v>1.002013602800426</v>
+        <v>1.002715225907518</v>
       </c>
       <c r="F17">
-        <v>1.026638347582527</v>
+        <v>1.026247681606508</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051101437729173</v>
+        <v>1.050316874914486</v>
       </c>
       <c r="J17">
-        <v>1.004455683697518</v>
+        <v>1.00573415459863</v>
       </c>
       <c r="K17">
-        <v>1.047997157323136</v>
+        <v>1.046059316960237</v>
       </c>
       <c r="L17">
-        <v>1.015986418140584</v>
+        <v>1.01667581428221</v>
       </c>
       <c r="M17">
-        <v>1.040194892773442</v>
+        <v>1.039810630297851</v>
       </c>
       <c r="N17">
-        <v>1.004525263873673</v>
+        <v>1.008126237268273</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041514838839587</v>
+        <v>1.041211081201368</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045087491146777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043733875638796</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024576933458621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9770951400959577</v>
+        <v>0.9783756670802014</v>
       </c>
       <c r="D18">
-        <v>1.034848928431297</v>
+        <v>1.032854916064412</v>
       </c>
       <c r="E18">
-        <v>1.002701381224086</v>
+        <v>1.003359975361743</v>
       </c>
       <c r="F18">
-        <v>1.027010164784243</v>
+        <v>1.02658435574461</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051119320681028</v>
+        <v>1.050325120849867</v>
       </c>
       <c r="J18">
-        <v>1.005052293590556</v>
+        <v>1.006281264356823</v>
       </c>
       <c r="K18">
-        <v>1.048092065941006</v>
+        <v>1.04612964618911</v>
       </c>
       <c r="L18">
-        <v>1.01647364766125</v>
+        <v>1.017120962205161</v>
       </c>
       <c r="M18">
-        <v>1.040378404560405</v>
+        <v>1.039959461403552</v>
       </c>
       <c r="N18">
-        <v>1.004670775702929</v>
+        <v>1.008188217125823</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041422349244048</v>
+        <v>1.041091107658934</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045143093330981</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043770961428096</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024568676821839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9770575994710279</v>
+        <v>0.9783662225480633</v>
       </c>
       <c r="D19">
-        <v>1.034664774176301</v>
+        <v>1.032700603682822</v>
       </c>
       <c r="E19">
-        <v>1.0025438561587</v>
+        <v>1.003225949323884</v>
       </c>
       <c r="F19">
-        <v>1.026661617906208</v>
+        <v>1.026252737338521</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050979196750513</v>
+        <v>1.050200382124088</v>
       </c>
       <c r="J19">
-        <v>1.004876384950489</v>
+        <v>1.006132627105379</v>
       </c>
       <c r="K19">
-        <v>1.047849339100818</v>
+        <v>1.045916135926706</v>
       </c>
       <c r="L19">
-        <v>1.016254514811429</v>
+        <v>1.016924984226684</v>
       </c>
       <c r="M19">
-        <v>1.039973313298415</v>
+        <v>1.039570996103315</v>
       </c>
       <c r="N19">
-        <v>1.004525332894817</v>
+        <v>1.008072328531065</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040776731331481</v>
+        <v>1.040458531343038</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044977802829041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043626955685696</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024496492645967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9739711976904303</v>
+        <v>0.9755273120205078</v>
       </c>
       <c r="D20">
-        <v>1.033162613386962</v>
+        <v>1.031378378519049</v>
       </c>
       <c r="E20">
-        <v>1.000027925590473</v>
+        <v>1.000914227329234</v>
       </c>
       <c r="F20">
-        <v>1.024326647608351</v>
+        <v>1.024076692410276</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050392770724838</v>
+        <v>1.049698976230742</v>
       </c>
       <c r="J20">
-        <v>1.002543717779156</v>
+        <v>1.004035337644299</v>
       </c>
       <c r="K20">
-        <v>1.046646368826832</v>
+        <v>1.044891039205283</v>
       </c>
       <c r="L20">
-        <v>1.014070283978234</v>
+        <v>1.014941020178144</v>
       </c>
       <c r="M20">
-        <v>1.037954817009475</v>
+        <v>1.037708993696256</v>
       </c>
       <c r="N20">
-        <v>1.003563727794252</v>
+        <v>1.007445981089774</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038651959083174</v>
+        <v>1.03845741553402</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044131153588409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042906459218041</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024241365318518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9665531664767201</v>
+        <v>0.9687934826805074</v>
       </c>
       <c r="D21">
-        <v>1.03021586051694</v>
+        <v>1.028818738423123</v>
       </c>
       <c r="E21">
-        <v>0.9945114277930053</v>
+        <v>0.9959661302383298</v>
       </c>
       <c r="F21">
-        <v>1.020020067797289</v>
+        <v>1.020204603895346</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049494267434481</v>
+        <v>1.048980165646782</v>
       </c>
       <c r="J21">
-        <v>0.9975190428098666</v>
+        <v>0.9996564661446347</v>
       </c>
       <c r="K21">
-        <v>1.044646537831643</v>
+        <v>1.043273954262282</v>
       </c>
       <c r="L21">
-        <v>1.009597534310997</v>
+        <v>1.011024330652146</v>
       </c>
       <c r="M21">
-        <v>1.034631827570138</v>
+        <v>1.034813044420033</v>
       </c>
       <c r="N21">
-        <v>1.001738508418086</v>
+        <v>1.00663096693672</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035981144604213</v>
+        <v>1.036124566482764</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042720420089254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041766663135748</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023915096105423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9617919665328869</v>
+        <v>0.9644753516416685</v>
       </c>
       <c r="D22">
-        <v>1.028342050969776</v>
+        <v>1.02719677400922</v>
       </c>
       <c r="E22">
-        <v>0.9909930179144919</v>
+        <v>0.9928178853996839</v>
       </c>
       <c r="F22">
-        <v>1.017296712888292</v>
+        <v>1.017766281268686</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048915410792418</v>
+        <v>1.048518273079513</v>
       </c>
       <c r="J22">
-        <v>0.9943058226421848</v>
+        <v>0.9968580063262755</v>
       </c>
       <c r="K22">
-        <v>1.043372206481086</v>
+        <v>1.042248048202421</v>
       </c>
       <c r="L22">
-        <v>1.006745041729479</v>
+        <v>1.008532976796681</v>
       </c>
       <c r="M22">
-        <v>1.032533133411126</v>
+        <v>1.032993813787392</v>
       </c>
       <c r="N22">
-        <v>1.000574014233844</v>
+        <v>1.006107013919</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034320156441684</v>
+        <v>1.034684757138981</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041806065913584</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041026648949958</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023706713825653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9643215986141636</v>
+        <v>0.9667380906717283</v>
       </c>
       <c r="D23">
-        <v>1.029325701954817</v>
+        <v>1.028036012425878</v>
       </c>
       <c r="E23">
-        <v>0.9928597141388829</v>
+        <v>0.994460228698723</v>
       </c>
       <c r="F23">
-        <v>1.01873988928267</v>
+        <v>1.019038075862057</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04921816890718</v>
+        <v>1.048753492109036</v>
       </c>
       <c r="J23">
-        <v>0.9960107501351783</v>
+        <v>0.9983129188792235</v>
       </c>
       <c r="K23">
-        <v>1.044037871829909</v>
+        <v>1.042771363494919</v>
       </c>
       <c r="L23">
-        <v>1.008257835304333</v>
+        <v>1.009826857382032</v>
       </c>
       <c r="M23">
-        <v>1.033644593826784</v>
+        <v>1.033937285645627</v>
       </c>
       <c r="N23">
-        <v>1.001189977605362</v>
+        <v>1.006331307008912</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035199809918532</v>
+        <v>1.03543145755073</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042267175028242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041386168498644</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023810912234191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9740103494614387</v>
+        <v>0.9755673794141929</v>
       </c>
       <c r="D24">
-        <v>1.033138990595514</v>
+        <v>1.031357101356259</v>
       </c>
       <c r="E24">
-        <v>1.000036846822537</v>
+        <v>1.000924076913724</v>
       </c>
       <c r="F24">
-        <v>1.024301112469599</v>
+        <v>1.024051754531799</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050370601215776</v>
+        <v>1.049678387484064</v>
       </c>
       <c r="J24">
-        <v>1.002546905494208</v>
+        <v>1.004039501758826</v>
       </c>
       <c r="K24">
-        <v>1.046608111126618</v>
+        <v>1.044855053868679</v>
       </c>
       <c r="L24">
-        <v>1.014063315420278</v>
+        <v>1.014934984136375</v>
       </c>
       <c r="M24">
-        <v>1.037914502377211</v>
+        <v>1.037669261434666</v>
       </c>
       <c r="N24">
-        <v>1.003552904540425</v>
+        <v>1.007434043150804</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038579173294722</v>
+        <v>1.038385080986261</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044076999318801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042851230454182</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024227790988871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.984724025391143</v>
+        <v>0.9857541615570319</v>
       </c>
       <c r="D25">
-        <v>1.037405933920486</v>
+        <v>1.035214369496369</v>
       </c>
       <c r="E25">
-        <v>1.008018752364382</v>
+        <v>1.00847880878988</v>
       </c>
       <c r="F25">
-        <v>1.030504185684095</v>
+        <v>1.029902542905574</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051608679475969</v>
+        <v>1.050734545614957</v>
       </c>
       <c r="J25">
-        <v>1.009776654970208</v>
+        <v>1.01077065367654</v>
       </c>
       <c r="K25">
-        <v>1.04945005226878</v>
+        <v>1.047289560149685</v>
       </c>
       <c r="L25">
-        <v>1.020493849926067</v>
+        <v>1.020946912752832</v>
       </c>
       <c r="M25">
-        <v>1.042646724410222</v>
+        <v>1.042053740359912</v>
       </c>
       <c r="N25">
-        <v>1.006162013098375</v>
+        <v>1.009320405168681</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042324410009139</v>
+        <v>1.041855103923809</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046083524340877</v>
+        <v>1.044569380072478</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02471450098415</v>
       </c>
     </row>
   </sheetData>
